--- a/data/raw/XND_dataset.xlsx
+++ b/data/raw/XND_dataset.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>atom</t>
   </si>
@@ -415,7 +415,7 @@
     <t>References</t>
   </si>
   <si>
-    <t>CRC Handbook of Chemistry and Physics</t>
+    <t>Reference, CRC Handbook of Chemistry and Physics</t>
   </si>
   <si>
     <t>DFT, BP86</t>
@@ -509,7 +509,7 @@
     <t>1.90</t>
   </si>
   <si>
-    <t>Periodic Table of Diatomic Molecules</t>
+    <t>Reference, Periodic Table of Diatomic Molecules</t>
   </si>
   <si>
     <t>Multi reference CI</t>
@@ -563,7 +563,7 @@
     <t>1.70</t>
   </si>
   <si>
-    <t>CASSCF-externally contracted Cl</t>
+    <t>CASSCF-externally contracted CI</t>
   </si>
   <si>
     <t>1.60</t>
@@ -1298,12 +1298,12 @@
     </r>
   </si>
   <si>
-    <t>Phase transition</t>
-  </si>
-  <si>
     <t>Vibrational analysis</t>
   </si>
   <si>
+    <t>Reference, JANAF, Thermochemical Tables</t>
+  </si>
+  <si>
     <t>JANAF, Thermochemical Tables</t>
   </si>
   <si>
@@ -1337,7 +1337,7 @@
     <t>CCSD(T)</t>
   </si>
   <si>
-    <t>Spectroscopic Data Relative to Diatomic Molecules</t>
+    <t>Reference, Spectroscopic Data Relative to Diatomic Molecules</t>
   </si>
   <si>
     <t>2.04</t>
@@ -1346,7 +1346,10 @@
     <t>0.00122109644</t>
   </si>
   <si>
-    <t>Spectroscopy and structure of the alkali hydride diatomic molecules and their ions</t>
+    <t>Reference, Constants of diatomic molecules</t>
+  </si>
+  <si>
+    <t>Reference, Spectroscopy and structure of the alkali hydride diatomic molecules and their ions</t>
   </si>
   <si>
     <r>
@@ -1374,7 +1377,7 @@
     </r>
   </si>
   <si>
-    <t>Comprehensive Handbook of Chemical Bond Energies</t>
+    <t>Reference, Comprehensive Handbook of Chemical Bond Energies</t>
   </si>
   <si>
     <r>
@@ -1409,6 +1412,9 @@
   </si>
   <si>
     <t>Photoionization</t>
+  </si>
+  <si>
+    <t>Reference, constants of diatomic molecules</t>
   </si>
   <si>
     <t>Resonant two‐photon ionization spectroscopy</t>
@@ -1579,7 +1585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1791,7 +1797,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1825,6 +1831,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -1851,21 +1872,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -1887,21 +1893,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1960,21 +1951,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2056,13 +2032,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2150,16 +2141,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2170,9 +2161,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -2186,28 +2174,28 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2219,34 +2207,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2261,22 +2246,22 @@
     <xf numFmtId="49" fontId="10" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2285,16 +2270,16 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2303,7 +2288,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2312,28 +2297,34 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2342,19 +2333,22 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2369,7 +2363,10 @@
     <xf numFmtId="49" fontId="20" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4479,17 +4476,17 @@
         <v>4</v>
       </c>
       <c r="F3" s="35"/>
-      <c r="G3" t="s" s="36">
+      <c r="G3" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H3" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <v>0.00353</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" t="s" s="39">
+      <c r="J3" s="37"/>
+      <c r="K3" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -4503,24 +4500,24 @@
       <c r="C4" s="32">
         <v>-0.333062952085149</v>
       </c>
-      <c r="D4" t="s" s="40">
+      <c r="D4" t="s" s="39">
         <v>129</v>
       </c>
       <c r="E4" s="34">
         <v>5</v>
       </c>
       <c r="F4" s="35"/>
-      <c r="G4" t="s" s="41">
+      <c r="G4" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H4" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>0.00369</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" t="s" s="39">
+      <c r="J4" s="37"/>
+      <c r="K4" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -4543,17 +4540,17 @@
       <c r="F5" s="33">
         <v>-1044.471114523880</v>
       </c>
-      <c r="G5" t="s" s="41">
+      <c r="G5" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H5" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>0.00374</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" t="s" s="39">
+      <c r="J5" s="37"/>
+      <c r="K5" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -4567,7 +4564,7 @@
       <c r="C6" s="32">
         <v>-0.39999426303049</v>
       </c>
-      <c r="D6" t="s" s="40">
+      <c r="D6" t="s" s="39">
         <v>129</v>
       </c>
       <c r="E6" s="34">
@@ -4576,17 +4573,17 @@
       <c r="F6" s="33">
         <v>-1150.9215264917</v>
       </c>
-      <c r="G6" t="s" s="25">
-        <v>126</v>
-      </c>
-      <c r="H6" t="s" s="42">
+      <c r="G6" t="s" s="40">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s" s="41">
         <v>127</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>0.00338</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" t="s" s="39">
+      <c r="J6" s="37"/>
+      <c r="K6" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -4600,24 +4597,24 @@
       <c r="C7" s="32">
         <v>-0.235853190950249</v>
       </c>
-      <c r="D7" t="s" s="40">
+      <c r="D7" t="s" s="39">
         <v>131</v>
       </c>
       <c r="E7" s="34">
         <v>4</v>
       </c>
       <c r="F7" s="35"/>
-      <c r="G7" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H7" t="s" s="44">
+      <c r="G7" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H7" t="s" s="43">
         <v>127</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <v>0.00407</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" t="s" s="39">
+      <c r="J7" s="37"/>
+      <c r="K7" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -4631,7 +4628,7 @@
       <c r="C8" s="32">
         <v>-0.390432647181156</v>
       </c>
-      <c r="D8" t="s" s="40">
+      <c r="D8" t="s" s="39">
         <v>132</v>
       </c>
       <c r="E8" s="34">
@@ -4640,17 +4637,17 @@
       <c r="F8" s="33">
         <v>-1382.704919362</v>
       </c>
-      <c r="G8" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H8" t="s" s="44">
+      <c r="G8" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H8" t="s" s="43">
         <v>127</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="44">
         <v>0.00425</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" t="s" s="39">
+      <c r="J8" s="37"/>
+      <c r="K8" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -4664,24 +4661,24 @@
       <c r="C9" s="32">
         <v>-0.382464633973377</v>
       </c>
-      <c r="D9" t="s" s="40">
+      <c r="D9" t="s" s="39">
         <v>133</v>
       </c>
       <c r="E9" s="34">
         <v>2</v>
       </c>
       <c r="F9" s="35"/>
-      <c r="G9" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H9" t="s" s="44">
+      <c r="G9" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H9" t="s" s="43">
         <v>127</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <v>0.0045</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" t="s" s="39">
+      <c r="J9" s="37"/>
+      <c r="K9" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -4702,17 +4699,17 @@
         <v>1</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H10" t="s" s="44">
+      <c r="G10" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s" s="43">
         <v>127</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <v>0.00438</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" t="s" s="39">
+      <c r="J10" s="37"/>
+      <c r="K10" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -4723,7 +4720,7 @@
       <c r="B11" t="s" s="31">
         <v>94</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>-0.137049827173793</v>
       </c>
       <c r="D11" s="33">
@@ -4733,32 +4730,32 @@
         <v>2</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H11" t="s" s="44">
+      <c r="G11" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s" s="43">
         <v>127</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="46">
         <v>0.0033</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" t="s" s="39">
+      <c r="J11" s="37"/>
+      <c r="K11" t="s" s="38">
         <v>128</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="38"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="51"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="30">
@@ -4770,24 +4767,24 @@
       <c r="C13" s="33">
         <v>-0.169110645591316</v>
       </c>
-      <c r="D13" t="s" s="40">
+      <c r="D13" t="s" s="39">
         <v>134</v>
       </c>
       <c r="E13" s="34">
         <v>4</v>
       </c>
       <c r="F13" s="35"/>
-      <c r="G13" t="s" s="52">
+      <c r="G13" t="s" s="51">
         <v>135</v>
       </c>
-      <c r="H13" t="s" s="42">
+      <c r="H13" t="s" s="41">
         <v>136</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="52">
         <v>0.001726849070</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" t="s" s="39">
+      <c r="J13" s="37"/>
+      <c r="K13" t="s" s="38">
         <v>137</v>
       </c>
     </row>
@@ -4801,24 +4798,24 @@
       <c r="C14" s="33">
         <v>-0.161112169110646</v>
       </c>
-      <c r="D14" t="s" s="40">
+      <c r="D14" t="s" s="39">
         <v>138</v>
       </c>
       <c r="E14" s="34">
         <v>3</v>
       </c>
       <c r="F14" s="35"/>
-      <c r="G14" t="s" s="54">
+      <c r="G14" t="s" s="53">
         <v>135</v>
       </c>
-      <c r="H14" t="s" s="55">
+      <c r="H14" t="s" s="54">
         <v>139</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="52">
         <v>0.001890876950</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" t="s" s="39">
+      <c r="J14" s="37"/>
+      <c r="K14" t="s" s="38">
         <v>137</v>
       </c>
     </row>
@@ -4832,24 +4829,24 @@
       <c r="C15" s="33">
         <v>-0.162635688440297</v>
       </c>
-      <c r="D15" t="s" s="40">
+      <c r="D15" t="s" s="39">
         <v>140</v>
       </c>
       <c r="E15" s="34">
         <v>2</v>
       </c>
       <c r="F15" s="35"/>
-      <c r="G15" t="s" s="54">
+      <c r="G15" t="s" s="53">
         <v>135</v>
       </c>
-      <c r="H15" t="s" s="56">
+      <c r="H15" t="s" s="55">
         <v>141</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="52">
         <v>0.002401185910</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" t="s" s="39">
+      <c r="J15" s="37"/>
+      <c r="K15" t="s" s="38">
         <v>137</v>
       </c>
     </row>
@@ -4861,7 +4858,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" t="s" s="40">
+      <c r="D16" t="s" s="39">
         <v>142</v>
       </c>
       <c r="E16" s="34">
@@ -4871,8 +4868,8 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
-      <c r="K16" t="s" s="39">
+      <c r="J16" s="37"/>
+      <c r="K16" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -4884,7 +4881,7 @@
         <v>79</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" t="s" s="40">
+      <c r="D17" t="s" s="39">
         <v>144</v>
       </c>
       <c r="E17" s="34">
@@ -4894,8 +4891,8 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="38"/>
-      <c r="K17" t="s" s="39">
+      <c r="J17" s="37"/>
+      <c r="K17" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -4909,7 +4906,7 @@
       <c r="C18" s="33">
         <v>-0.14556399156236</v>
       </c>
-      <c r="D18" t="s" s="40">
+      <c r="D18" t="s" s="39">
         <v>145</v>
       </c>
       <c r="E18" s="34">
@@ -4919,14 +4916,14 @@
       <c r="G18" t="s" s="12">
         <v>146</v>
       </c>
-      <c r="H18" t="s" s="39">
+      <c r="H18" t="s" s="38">
         <v>147</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="52">
         <v>0.0019758980678</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" t="s" s="39">
+      <c r="J18" s="37"/>
+      <c r="K18" t="s" s="38">
         <v>148</v>
       </c>
     </row>
@@ -4938,7 +4935,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" t="s" s="40">
+      <c r="D19" t="s" s="39">
         <v>145</v>
       </c>
       <c r="E19" s="34">
@@ -4948,8 +4945,8 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
-      <c r="K19" t="s" s="39">
+      <c r="J19" s="37"/>
+      <c r="K19" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -4963,7 +4960,7 @@
       <c r="C20" s="33">
         <v>-0.153134348104103</v>
       </c>
-      <c r="D20" t="s" s="40">
+      <c r="D20" t="s" s="39">
         <v>149</v>
       </c>
       <c r="E20" s="34">
@@ -4973,14 +4970,14 @@
       <c r="G20" t="s" s="12">
         <v>146</v>
       </c>
-      <c r="H20" t="s" s="39">
+      <c r="H20" t="s" s="38">
         <v>147</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="52">
         <v>0.001993747490575</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" t="s" s="39">
+      <c r="J20" s="37"/>
+      <c r="K20" t="s" s="38">
         <v>148</v>
       </c>
     </row>
@@ -4992,7 +4989,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" t="s" s="40">
+      <c r="D21" t="s" s="39">
         <v>150</v>
       </c>
       <c r="E21" s="34">
@@ -5002,8 +4999,8 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="38"/>
-      <c r="K21" t="s" s="39">
+      <c r="J21" s="37"/>
+      <c r="K21" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -5017,7 +5014,7 @@
       <c r="C22" s="33">
         <v>-0.0258998286040754</v>
       </c>
-      <c r="D22" t="s" s="40">
+      <c r="D22" t="s" s="39">
         <v>151</v>
       </c>
       <c r="E22" s="34">
@@ -5027,23 +5024,23 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="38"/>
-      <c r="K22" t="s" s="39">
+      <c r="J22" s="37"/>
+      <c r="K22" t="s" s="38">
         <v>152</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="38"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="51"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="30">
@@ -5055,24 +5052,24 @@
       <c r="C24" s="33">
         <v>-0.178632641401638</v>
       </c>
-      <c r="D24" t="s" s="40">
+      <c r="D24" t="s" s="39">
         <v>153</v>
       </c>
       <c r="E24" s="34">
         <v>1</v>
       </c>
       <c r="F24" s="35"/>
-      <c r="G24" t="s" s="57">
+      <c r="G24" t="s" s="56">
         <v>135</v>
       </c>
-      <c r="H24" t="s" s="39">
+      <c r="H24" t="s" s="55">
         <v>136</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="52">
         <v>0.001811141175</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" t="s" s="39">
+      <c r="J24" s="37"/>
+      <c r="K24" t="s" s="38">
         <v>154</v>
       </c>
     </row>
@@ -5086,24 +5083,24 @@
       <c r="C25" s="33">
         <v>-0.181298800228528</v>
       </c>
-      <c r="D25" t="s" s="40">
+      <c r="D25" t="s" s="39">
         <v>155</v>
       </c>
       <c r="E25" s="34">
         <v>2</v>
       </c>
       <c r="F25" s="35"/>
-      <c r="G25" t="s" s="57">
+      <c r="G25" t="s" s="56">
         <v>135</v>
       </c>
-      <c r="H25" t="s" s="39">
+      <c r="H25" t="s" s="55">
         <v>136</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="52">
         <v>0.002353344445</v>
       </c>
-      <c r="J25" s="38"/>
-      <c r="K25" t="s" s="39">
+      <c r="J25" s="37"/>
+      <c r="K25" t="s" s="38">
         <v>154</v>
       </c>
     </row>
@@ -5117,24 +5114,24 @@
       <c r="C26" s="33">
         <v>-0.181679680060941</v>
       </c>
-      <c r="D26" t="s" s="40">
+      <c r="D26" t="s" s="39">
         <v>156</v>
       </c>
       <c r="E26" s="34">
         <v>3</v>
       </c>
       <c r="F26" s="35"/>
-      <c r="G26" t="s" s="57">
+      <c r="G26" t="s" s="56">
         <v>135</v>
       </c>
-      <c r="H26" t="s" s="39">
+      <c r="H26" t="s" s="55">
         <v>136</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="52">
         <v>0.002353344445</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" t="s" s="39">
+      <c r="J26" s="37"/>
+      <c r="K26" t="s" s="38">
         <v>154</v>
       </c>
     </row>
@@ -5148,24 +5145,24 @@
       <c r="C27" s="33">
         <v>-0.143972576652066</v>
       </c>
-      <c r="D27" t="s" s="40">
+      <c r="D27" t="s" s="39">
         <v>157</v>
       </c>
       <c r="E27" s="34">
         <v>4</v>
       </c>
       <c r="F27" s="35"/>
-      <c r="G27" t="s" s="58">
+      <c r="G27" t="s" s="51">
         <v>135</v>
       </c>
-      <c r="H27" t="s" s="39">
+      <c r="H27" t="s" s="55">
         <v>136</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="52">
         <v>0.002392073250</v>
       </c>
-      <c r="J27" s="38"/>
-      <c r="K27" t="s" s="39">
+      <c r="J27" s="37"/>
+      <c r="K27" t="s" s="38">
         <v>154</v>
       </c>
     </row>
@@ -5177,7 +5174,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" t="s" s="40">
+      <c r="D28" t="s" s="39">
         <v>142</v>
       </c>
       <c r="E28" s="34">
@@ -5187,8 +5184,8 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="38"/>
-      <c r="K28" t="s" s="39">
+      <c r="J28" s="37"/>
+      <c r="K28" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -5200,7 +5197,7 @@
         <v>82</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" t="s" s="40">
+      <c r="D29" t="s" s="39">
         <v>156</v>
       </c>
       <c r="E29" s="34">
@@ -5210,8 +5207,8 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="38"/>
-      <c r="K29" t="s" s="39">
+      <c r="J29" s="37"/>
+      <c r="K29" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -5223,7 +5220,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="35"/>
-      <c r="D30" t="s" s="40">
+      <c r="D30" t="s" s="39">
         <v>144</v>
       </c>
       <c r="E30" s="34">
@@ -5233,8 +5230,8 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="38"/>
-      <c r="K30" t="s" s="39">
+      <c r="J30" s="37"/>
+      <c r="K30" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -5246,7 +5243,7 @@
         <v>88</v>
       </c>
       <c r="C31" s="35"/>
-      <c r="D31" t="s" s="40">
+      <c r="D31" t="s" s="39">
         <v>144</v>
       </c>
       <c r="E31" s="34">
@@ -5256,8 +5253,8 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="38"/>
-      <c r="K31" t="s" s="39">
+      <c r="J31" s="37"/>
+      <c r="K31" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -5269,7 +5266,7 @@
         <v>91</v>
       </c>
       <c r="C32" s="35"/>
-      <c r="D32" t="s" s="40">
+      <c r="D32" t="s" s="39">
         <v>150</v>
       </c>
       <c r="E32" s="34">
@@ -5279,8 +5276,8 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="38"/>
-      <c r="K32" t="s" s="39">
+      <c r="J32" s="37"/>
+      <c r="K32" t="s" s="38">
         <v>143</v>
       </c>
     </row>
@@ -5292,7 +5289,7 @@
         <v>94</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" t="s" s="40">
+      <c r="D33" t="s" s="39">
         <v>158</v>
       </c>
       <c r="E33" s="34">
@@ -5302,23 +5299,23 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="38"/>
-      <c r="K33" t="s" s="39">
+      <c r="J33" s="37"/>
+      <c r="K33" t="s" s="38">
         <v>143</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="35"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="51"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="50"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="30">
@@ -5327,10 +5324,10 @@
       <c r="B35" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="57">
         <v>-1.0693073724839</v>
       </c>
-      <c r="D35" t="s" s="40">
+      <c r="D35" t="s" s="39">
         <v>159</v>
       </c>
       <c r="E35" s="34">
@@ -5343,11 +5340,11 @@
       <c r="H35" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="58">
         <v>0.0022</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" t="s" s="39">
+      <c r="J35" s="37"/>
+      <c r="K35" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5361,7 +5358,7 @@
       <c r="C36" s="32">
         <v>-1.06293296191768</v>
       </c>
-      <c r="D36" t="s" s="40">
+      <c r="D36" t="s" s="39">
         <v>149</v>
       </c>
       <c r="E36" s="34">
@@ -5370,17 +5367,17 @@
       <c r="F36" s="33">
         <v>-923.949098375462</v>
       </c>
-      <c r="G36" t="s" s="36">
+      <c r="G36" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H36" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="36">
         <v>0.0023</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" t="s" s="39">
+      <c r="J36" s="37"/>
+      <c r="K36" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -5394,24 +5391,24 @@
       <c r="C37" s="32">
         <v>-1.00396966418012</v>
       </c>
-      <c r="D37" t="s" s="40">
+      <c r="D37" t="s" s="39">
         <v>142</v>
       </c>
       <c r="E37" s="34">
         <v>4</v>
       </c>
       <c r="F37" s="35"/>
-      <c r="G37" t="s" s="41">
+      <c r="G37" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H37" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="36">
         <v>0.00232</v>
       </c>
-      <c r="J37" s="38"/>
-      <c r="K37" t="s" s="39">
+      <c r="J37" s="37"/>
+      <c r="K37" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5425,24 +5422,24 @@
       <c r="C38" s="32">
         <v>-0.734650817757196</v>
       </c>
-      <c r="D38" t="s" s="40">
+      <c r="D38" t="s" s="39">
         <v>149</v>
       </c>
       <c r="E38" s="34">
         <v>5</v>
       </c>
       <c r="F38" s="35"/>
-      <c r="G38" t="s" s="41">
+      <c r="G38" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H38" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="36">
         <v>0.00209</v>
       </c>
-      <c r="J38" s="38"/>
-      <c r="K38" t="s" s="39">
+      <c r="J38" s="37"/>
+      <c r="K38" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5456,7 +5453,7 @@
       <c r="C39" s="32">
         <v>-0.576884156243177</v>
       </c>
-      <c r="D39" t="s" s="40">
+      <c r="D39" t="s" s="39">
         <v>160</v>
       </c>
       <c r="E39" s="34">
@@ -5465,17 +5462,17 @@
       <c r="F39" s="33">
         <v>-1232.267992066130</v>
       </c>
-      <c r="G39" t="s" s="25">
+      <c r="G39" t="s" s="40">
         <v>126</v>
       </c>
       <c r="H39" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="36">
         <v>0.00208</v>
       </c>
-      <c r="J39" s="38"/>
-      <c r="K39" t="s" s="39">
+      <c r="J39" s="37"/>
+      <c r="K39" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -5489,24 +5486,24 @@
       <c r="C40" s="32">
         <v>-0.648596275113186</v>
       </c>
-      <c r="D40" t="s" s="40">
+      <c r="D40" t="s" s="39">
         <v>149</v>
       </c>
       <c r="E40" s="34">
         <v>5</v>
       </c>
       <c r="F40" s="35"/>
-      <c r="G40" t="s" s="43">
+      <c r="G40" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H40" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="36">
         <v>0.0021</v>
       </c>
-      <c r="J40" s="38"/>
-      <c r="K40" t="s" s="39">
+      <c r="J40" s="37"/>
+      <c r="K40" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5520,24 +5517,24 @@
       <c r="C41" s="32">
         <v>-0.632660248697628</v>
       </c>
-      <c r="D41" t="s" s="40">
+      <c r="D41" t="s" s="39">
         <v>131</v>
       </c>
       <c r="E41" s="34">
         <v>4</v>
       </c>
       <c r="F41" s="35"/>
-      <c r="G41" t="s" s="43">
+      <c r="G41" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H41" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="36">
         <v>0.00209</v>
       </c>
-      <c r="J41" s="38"/>
-      <c r="K41" t="s" s="39">
+      <c r="J41" s="37"/>
+      <c r="K41" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5551,24 +5548,24 @@
       <c r="C42" s="32">
         <v>-0.5832585668094</v>
       </c>
-      <c r="D42" t="s" s="40">
+      <c r="D42" t="s" s="39">
         <v>131</v>
       </c>
       <c r="E42" s="34">
         <v>3</v>
       </c>
       <c r="F42" s="35"/>
-      <c r="G42" t="s" s="43">
+      <c r="G42" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H42" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="36">
         <v>0.00194</v>
       </c>
-      <c r="J42" s="38"/>
-      <c r="K42" t="s" s="39">
+      <c r="J42" s="37"/>
+      <c r="K42" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5582,7 +5579,7 @@
       <c r="C43" s="32">
         <v>-0.466925573975831</v>
       </c>
-      <c r="D43" t="s" s="40">
+      <c r="D43" t="s" s="39">
         <v>129</v>
       </c>
       <c r="E43" s="34">
@@ -5591,17 +5588,17 @@
       <c r="F43" s="33">
         <v>-1715.014960425040</v>
       </c>
-      <c r="G43" t="s" s="43">
+      <c r="G43" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H43" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <v>0.00149</v>
       </c>
-      <c r="J43" s="38"/>
-      <c r="K43" t="s" s="39">
+      <c r="J43" s="37"/>
+      <c r="K43" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -5612,42 +5609,42 @@
       <c r="B44" t="s" s="31">
         <v>94</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="45">
         <v>-0.398400660388935</v>
       </c>
-      <c r="D44" t="s" s="40">
+      <c r="D44" t="s" s="39">
         <v>161</v>
       </c>
       <c r="E44" s="34">
         <v>1</v>
       </c>
       <c r="F44" s="35"/>
-      <c r="G44" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H44" t="s" s="42">
+      <c r="G44" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H44" t="s" s="41">
         <v>127</v>
       </c>
-      <c r="I44" s="61">
+      <c r="I44" s="59">
         <v>0.00167</v>
       </c>
-      <c r="J44" s="38"/>
-      <c r="K44" t="s" s="39">
+      <c r="J44" s="37"/>
+      <c r="K44" t="s" s="38">
         <v>128</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
-      <c r="E45" s="38"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="35"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="51"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="50"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="30">
@@ -5656,10 +5653,10 @@
       <c r="B46" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="C46" s="59">
+      <c r="C46" s="57">
         <v>-0.954567982291887</v>
       </c>
-      <c r="D46" t="s" s="40">
+      <c r="D46" t="s" s="39">
         <v>162</v>
       </c>
       <c r="E46" s="34">
@@ -5674,11 +5671,11 @@
       <c r="H46" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="58">
         <v>0.00155</v>
       </c>
-      <c r="J46" s="38"/>
-      <c r="K46" t="s" s="39">
+      <c r="J46" s="37"/>
+      <c r="K46" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -5692,24 +5689,24 @@
       <c r="C47" s="32">
         <v>-0.906759903045215</v>
       </c>
-      <c r="D47" t="s" s="40">
+      <c r="D47" t="s" s="39">
         <v>163</v>
       </c>
       <c r="E47" s="34">
         <v>4</v>
       </c>
       <c r="F47" s="35"/>
-      <c r="G47" t="s" s="36">
+      <c r="G47" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H47" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I47" s="37">
+      <c r="I47" s="36">
         <v>0.00149</v>
       </c>
-      <c r="J47" s="38"/>
-      <c r="K47" t="s" s="39">
+      <c r="J47" s="37"/>
+      <c r="K47" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5723,24 +5720,24 @@
       <c r="C48" s="32">
         <v>-0.940225558517886</v>
       </c>
-      <c r="D48" t="s" s="40">
+      <c r="D48" t="s" s="39">
         <v>163</v>
       </c>
       <c r="E48" s="34">
         <v>5</v>
       </c>
       <c r="F48" s="35"/>
-      <c r="G48" t="s" s="41">
+      <c r="G48" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H48" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="36">
         <v>0.00146</v>
       </c>
-      <c r="J48" s="38"/>
-      <c r="K48" t="s" s="39">
+      <c r="J48" s="37"/>
+      <c r="K48" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5754,7 +5751,7 @@
       <c r="C49" s="32">
         <v>-0.833454181533651</v>
       </c>
-      <c r="D49" t="s" s="40">
+      <c r="D49" t="s" s="39">
         <v>164</v>
       </c>
       <c r="E49" s="34">
@@ -5763,17 +5760,17 @@
       <c r="F49" s="33">
         <v>-1143.740838001960</v>
       </c>
-      <c r="G49" t="s" s="41">
+      <c r="G49" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H49" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="36">
         <v>0.00147</v>
       </c>
-      <c r="J49" s="38"/>
-      <c r="K49" t="s" s="39">
+      <c r="J49" s="37"/>
+      <c r="K49" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -5787,24 +5784,24 @@
       <c r="C50" s="32">
         <v>-0.7091531754923041</v>
       </c>
-      <c r="D50" t="s" s="40">
+      <c r="D50" t="s" s="39">
         <v>165</v>
       </c>
       <c r="E50" s="34">
         <v>7</v>
       </c>
       <c r="F50" s="35"/>
-      <c r="G50" t="s" s="25">
+      <c r="G50" t="s" s="40">
         <v>126</v>
       </c>
       <c r="H50" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="36">
         <v>0.00135</v>
       </c>
-      <c r="J50" s="38"/>
-      <c r="K50" t="s" s="39">
+      <c r="J50" s="37"/>
+      <c r="K50" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5818,24 +5815,24 @@
       <c r="C51" s="32">
         <v>-0.7123403807754149</v>
       </c>
-      <c r="D51" t="s" s="40">
+      <c r="D51" t="s" s="39">
         <v>162</v>
       </c>
       <c r="E51" s="34">
         <v>6</v>
       </c>
       <c r="F51" s="35"/>
-      <c r="G51" t="s" s="43">
+      <c r="G51" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H51" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="36">
         <v>0.00142</v>
       </c>
-      <c r="J51" s="38"/>
-      <c r="K51" t="s" s="39">
+      <c r="J51" s="37"/>
+      <c r="K51" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5849,24 +5846,24 @@
       <c r="C52" s="32">
         <v>-0.686842738510523</v>
       </c>
-      <c r="D52" t="s" s="40">
+      <c r="D52" t="s" s="39">
         <v>166</v>
       </c>
       <c r="E52" s="34">
         <v>3</v>
       </c>
       <c r="F52" s="35"/>
-      <c r="G52" t="s" s="43">
+      <c r="G52" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H52" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="36">
         <v>0.00143</v>
       </c>
-      <c r="J52" s="38"/>
-      <c r="K52" t="s" s="39">
+      <c r="J52" s="37"/>
+      <c r="K52" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5880,24 +5877,24 @@
       <c r="C53" s="32">
         <v>-0.701185162284525</v>
       </c>
-      <c r="D53" t="s" s="40">
+      <c r="D53" t="s" s="39">
         <v>129</v>
       </c>
       <c r="E53" s="34">
         <v>2</v>
       </c>
       <c r="F53" s="35"/>
-      <c r="G53" t="s" s="43">
+      <c r="G53" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H53" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="36">
         <v>0.00138</v>
       </c>
-      <c r="J53" s="38"/>
-      <c r="K53" t="s" s="39">
+      <c r="J53" s="37"/>
+      <c r="K53" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -5911,7 +5908,7 @@
       <c r="C54" s="32">
         <v>-0.659751493604076</v>
       </c>
-      <c r="D54" t="s" s="40">
+      <c r="D54" t="s" s="39">
         <v>166</v>
       </c>
       <c r="E54" s="34">
@@ -5920,17 +5917,17 @@
       <c r="F54" s="33">
         <v>-1739.741950666080</v>
       </c>
-      <c r="G54" t="s" s="43">
+      <c r="G54" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H54" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="36">
         <v>0.00135</v>
       </c>
-      <c r="J54" s="38"/>
-      <c r="K54" t="s" s="39">
+      <c r="J54" s="37"/>
+      <c r="K54" t="s" s="38">
         <v>130</v>
       </c>
     </row>
@@ -5941,42 +5938,42 @@
       <c r="B55" t="s" s="31">
         <v>94</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="45">
         <v>-0.580071361526289</v>
       </c>
-      <c r="D55" t="s" s="40">
+      <c r="D55" t="s" s="39">
         <v>161</v>
       </c>
       <c r="E55" s="34">
         <v>2</v>
       </c>
       <c r="F55" s="35"/>
-      <c r="G55" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H55" t="s" s="42">
+      <c r="G55" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H55" t="s" s="41">
         <v>127</v>
       </c>
-      <c r="I55" s="61">
+      <c r="I55" s="59">
         <v>0.00128</v>
       </c>
-      <c r="J55" s="38"/>
-      <c r="K55" t="s" s="39">
+      <c r="J55" s="37"/>
+      <c r="K55" t="s" s="38">
         <v>128</v>
       </c>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
-      <c r="E56" s="38"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="35"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="35"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="51"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="50"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="30">
@@ -5985,10 +5982,10 @@
       <c r="B57" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="C57" s="59">
+      <c r="C57" s="57">
         <v>-0.761742062663643</v>
       </c>
-      <c r="D57" t="s" s="40">
+      <c r="D57" t="s" s="39">
         <v>167</v>
       </c>
       <c r="E57" s="34">
@@ -6001,11 +5998,11 @@
       <c r="H57" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I57" s="60">
+      <c r="I57" s="58">
         <v>0.00126</v>
       </c>
-      <c r="J57" s="38"/>
-      <c r="K57" t="s" s="39">
+      <c r="J57" s="37"/>
+      <c r="K57" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6019,24 +6016,24 @@
       <c r="C58" s="32">
         <v>-0.666125904170299</v>
       </c>
-      <c r="D58" t="s" s="40">
+      <c r="D58" t="s" s="39">
         <v>168</v>
       </c>
       <c r="E58" s="34">
         <v>3</v>
       </c>
       <c r="F58" s="35"/>
-      <c r="G58" t="s" s="36">
+      <c r="G58" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H58" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I58" s="37">
+      <c r="I58" s="36">
         <v>0.00127</v>
       </c>
-      <c r="J58" s="38"/>
-      <c r="K58" t="s" s="39">
+      <c r="J58" s="37"/>
+      <c r="K58" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6050,24 +6047,24 @@
       <c r="C59" s="32">
         <v>-0.702778764926081</v>
       </c>
-      <c r="D59" t="s" s="40">
+      <c r="D59" t="s" s="39">
         <v>169</v>
       </c>
       <c r="E59" s="34">
         <v>4</v>
       </c>
       <c r="F59" s="35"/>
-      <c r="G59" t="s" s="41">
+      <c r="G59" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H59" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I59" s="37">
+      <c r="I59" s="36">
         <v>0.00123</v>
       </c>
-      <c r="J59" s="38"/>
-      <c r="K59" t="s" s="39">
+      <c r="J59" s="37"/>
+      <c r="K59" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6081,24 +6078,24 @@
       <c r="C60" s="32">
         <v>-0.527482474354949</v>
       </c>
-      <c r="D60" t="s" s="40">
+      <c r="D60" t="s" s="39">
         <v>169</v>
       </c>
       <c r="E60" s="34">
         <v>5</v>
       </c>
       <c r="F60" s="35"/>
-      <c r="G60" t="s" s="41">
+      <c r="G60" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H60" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I60" s="37">
+      <c r="I60" s="36">
         <v>0.00104</v>
       </c>
-      <c r="J60" s="38"/>
-      <c r="K60" t="s" s="39">
+      <c r="J60" s="37"/>
+      <c r="K60" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6112,24 +6109,24 @@
       <c r="C61" s="32">
         <v>-0.479674395108277</v>
       </c>
-      <c r="D61" t="s" s="40">
+      <c r="D61" t="s" s="39">
         <v>170</v>
       </c>
       <c r="E61" s="34">
         <v>6</v>
       </c>
       <c r="F61" s="35"/>
-      <c r="G61" t="s" s="25">
+      <c r="G61" t="s" s="40">
         <v>126</v>
       </c>
       <c r="H61" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="36">
         <v>0.00116</v>
       </c>
-      <c r="J61" s="38"/>
-      <c r="K61" t="s" s="39">
+      <c r="J61" s="37"/>
+      <c r="K61" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6143,24 +6140,24 @@
       <c r="C62" s="32">
         <v>-0.524295269071838</v>
       </c>
-      <c r="D62" t="s" s="40">
+      <c r="D62" t="s" s="39">
         <v>171</v>
       </c>
       <c r="E62" s="34">
         <v>5</v>
       </c>
       <c r="F62" s="35"/>
-      <c r="G62" t="s" s="43">
+      <c r="G62" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H62" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="36">
         <v>0.00118</v>
       </c>
-      <c r="J62" s="38"/>
-      <c r="K62" t="s" s="39">
+      <c r="J62" s="37"/>
+      <c r="K62" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6174,24 +6171,24 @@
       <c r="C63" s="32">
         <v>-0.527482474354949</v>
       </c>
-      <c r="D63" t="s" s="40">
+      <c r="D63" t="s" s="39">
         <v>171</v>
       </c>
       <c r="E63" s="34">
         <v>4</v>
       </c>
       <c r="F63" s="35"/>
-      <c r="G63" t="s" s="43">
+      <c r="G63" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H63" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="36">
         <v>0.00119</v>
       </c>
-      <c r="J63" s="38"/>
-      <c r="K63" t="s" s="39">
+      <c r="J63" s="37"/>
+      <c r="K63" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6205,24 +6202,24 @@
       <c r="C64" s="32">
         <v>-0.567322540393843</v>
       </c>
-      <c r="D64" t="s" s="40">
+      <c r="D64" t="s" s="39">
         <v>171</v>
       </c>
       <c r="E64" s="34">
         <v>3</v>
       </c>
       <c r="F64" s="35"/>
-      <c r="G64" t="s" s="43">
+      <c r="G64" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H64" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="36">
         <v>0.00117</v>
       </c>
-      <c r="J64" s="38"/>
-      <c r="K64" t="s" s="39">
+      <c r="J64" s="37"/>
+      <c r="K64" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6236,24 +6233,24 @@
       <c r="C65" s="32">
         <v>-0.438240726427828</v>
       </c>
-      <c r="D65" t="s" s="40">
+      <c r="D65" t="s" s="39">
         <v>172</v>
       </c>
       <c r="E65" s="34">
         <v>2</v>
       </c>
       <c r="F65" s="35"/>
-      <c r="G65" t="s" s="43">
+      <c r="G65" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H65" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I65" s="37">
+      <c r="I65" s="36">
         <v>0.00095</v>
       </c>
-      <c r="J65" s="38"/>
-      <c r="K65" t="s" s="39">
+      <c r="J65" s="37"/>
+      <c r="K65" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6264,42 +6261,42 @@
       <c r="B66" t="s" s="31">
         <v>94</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="45">
         <v>-0.358560594350041</v>
       </c>
-      <c r="D66" t="s" s="40">
+      <c r="D66" t="s" s="39">
         <v>169</v>
       </c>
       <c r="E66" s="34">
         <v>1</v>
       </c>
       <c r="F66" s="35"/>
-      <c r="G66" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H66" t="s" s="42">
+      <c r="G66" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H66" t="s" s="41">
         <v>127</v>
       </c>
-      <c r="I66" s="61">
+      <c r="I66" s="59">
         <v>0.00101</v>
       </c>
-      <c r="J66" s="38"/>
-      <c r="K66" t="s" s="39">
+      <c r="J66" s="37"/>
+      <c r="K66" t="s" s="38">
         <v>128</v>
       </c>
     </row>
     <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
-      <c r="E67" s="38"/>
+      <c r="E67" s="37"/>
       <c r="F67" s="35"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
       <c r="I67" s="35"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="51"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="50"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="30">
@@ -6308,10 +6305,10 @@
       <c r="B68" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="C68" s="59">
+      <c r="C68" s="57">
         <v>-0.527482474354949</v>
       </c>
-      <c r="D68" t="s" s="40">
+      <c r="D68" t="s" s="39">
         <v>173</v>
       </c>
       <c r="E68" s="34">
@@ -6324,11 +6321,11 @@
       <c r="H68" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I68" s="60">
+      <c r="I68" s="58">
         <v>0.0009</v>
       </c>
-      <c r="J68" s="38"/>
-      <c r="K68" t="s" s="39">
+      <c r="J68" s="37"/>
+      <c r="K68" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6342,24 +6339,24 @@
       <c r="C69" s="32">
         <v>-0.645409069830074</v>
       </c>
-      <c r="D69" t="s" s="40">
+      <c r="D69" t="s" s="39">
         <v>174</v>
       </c>
       <c r="E69" s="34">
         <v>4</v>
       </c>
       <c r="F69" s="35"/>
-      <c r="G69" t="s" s="36">
+      <c r="G69" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H69" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I69" s="37">
+      <c r="I69" s="36">
         <v>0.00091</v>
       </c>
-      <c r="J69" s="38"/>
-      <c r="K69" t="s" s="39">
+      <c r="J69" s="37"/>
+      <c r="K69" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6373,24 +6370,24 @@
       <c r="C70" s="32">
         <v>-0.760148460022087</v>
       </c>
-      <c r="D70" t="s" s="40">
+      <c r="D70" t="s" s="39">
         <v>175</v>
       </c>
       <c r="E70" s="34">
         <v>5</v>
       </c>
       <c r="F70" s="35"/>
-      <c r="G70" t="s" s="41">
+      <c r="G70" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H70" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70" s="36">
         <v>0.0008899999999999999</v>
       </c>
-      <c r="J70" s="38"/>
-      <c r="K70" t="s" s="39">
+      <c r="J70" s="37"/>
+      <c r="K70" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6404,24 +6401,24 @@
       <c r="C71" s="32">
         <v>-0.6055690037911809</v>
       </c>
-      <c r="D71" t="s" s="40">
+      <c r="D71" t="s" s="39">
         <v>176</v>
       </c>
       <c r="E71" s="34">
         <v>6</v>
       </c>
       <c r="F71" s="35"/>
-      <c r="G71" t="s" s="41">
+      <c r="G71" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H71" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="36">
         <v>0.0008899999999999999</v>
       </c>
-      <c r="J71" s="38"/>
-      <c r="K71" t="s" s="39">
+      <c r="J71" s="37"/>
+      <c r="K71" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6435,24 +6432,24 @@
       <c r="C72" s="32">
         <v>-0.53863769284584</v>
       </c>
-      <c r="D72" t="s" s="40">
+      <c r="D72" t="s" s="39">
         <v>177</v>
       </c>
       <c r="E72" s="34">
         <v>7</v>
       </c>
       <c r="F72" s="35"/>
-      <c r="G72" t="s" s="25">
+      <c r="G72" t="s" s="40">
         <v>126</v>
       </c>
       <c r="H72" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I72" s="37">
+      <c r="I72" s="36">
         <v>0.00084</v>
       </c>
-      <c r="J72" s="38"/>
-      <c r="K72" t="s" s="39">
+      <c r="J72" s="37"/>
+      <c r="K72" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6466,24 +6463,24 @@
       <c r="C73" s="32">
         <v>-0.535450487562728</v>
       </c>
-      <c r="D73" t="s" s="40">
+      <c r="D73" t="s" s="39">
         <v>178</v>
       </c>
       <c r="E73" s="34">
         <v>6</v>
       </c>
       <c r="F73" s="35"/>
-      <c r="G73" t="s" s="43">
+      <c r="G73" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H73" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I73" s="37">
+      <c r="I73" s="36">
         <v>0.0009300000000000001</v>
       </c>
-      <c r="J73" s="38"/>
-      <c r="K73" t="s" s="39">
+      <c r="J73" s="37"/>
+      <c r="K73" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6497,24 +6494,24 @@
       <c r="C74" s="32">
         <v>-0.548199308695174</v>
       </c>
-      <c r="D74" t="s" s="40">
+      <c r="D74" t="s" s="39">
         <v>168</v>
       </c>
       <c r="E74" s="34">
         <v>3</v>
       </c>
       <c r="F74" s="35"/>
-      <c r="G74" t="s" s="43">
+      <c r="G74" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H74" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I74" s="37">
+      <c r="I74" s="36">
         <v>0.0009300000000000001</v>
       </c>
-      <c r="J74" s="38"/>
-      <c r="K74" t="s" s="39">
+      <c r="J74" s="37"/>
+      <c r="K74" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6528,24 +6525,24 @@
       <c r="C75" s="32">
         <v>-0.592820182658735</v>
       </c>
-      <c r="D75" t="s" s="40">
+      <c r="D75" t="s" s="39">
         <v>169</v>
       </c>
       <c r="E75" s="34">
         <v>2</v>
       </c>
       <c r="F75" s="35"/>
-      <c r="G75" t="s" s="43">
+      <c r="G75" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H75" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="36">
         <v>0.0009</v>
       </c>
-      <c r="J75" s="38"/>
-      <c r="K75" t="s" s="39">
+      <c r="J75" s="37"/>
+      <c r="K75" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6559,24 +6556,24 @@
       <c r="C76" s="32">
         <v>-0.6023817985080691</v>
       </c>
-      <c r="D76" t="s" s="40">
+      <c r="D76" t="s" s="39">
         <v>179</v>
       </c>
       <c r="E76" s="34">
         <v>1</v>
       </c>
       <c r="F76" s="35"/>
-      <c r="G76" t="s" s="43">
+      <c r="G76" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H76" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I76" s="37">
+      <c r="I76" s="36">
         <v>0.00091</v>
       </c>
-      <c r="J76" s="38"/>
-      <c r="K76" t="s" s="39">
+      <c r="J76" s="37"/>
+      <c r="K76" t="s" s="38">
         <v>128</v>
       </c>
     </row>
@@ -6587,42 +6584,42 @@
       <c r="B77" t="s" s="31">
         <v>94</v>
       </c>
-      <c r="C77" s="46">
+      <c r="C77" s="45">
         <v>-0.364935004916264</v>
       </c>
-      <c r="D77" t="s" s="40">
+      <c r="D77" t="s" s="39">
         <v>175</v>
       </c>
       <c r="E77" s="34">
         <v>2</v>
       </c>
       <c r="F77" s="35"/>
-      <c r="G77" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H77" t="s" s="42">
+      <c r="G77" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H77" t="s" s="41">
         <v>127</v>
       </c>
-      <c r="I77" s="61">
+      <c r="I77" s="59">
         <v>0.00079</v>
       </c>
-      <c r="J77" s="38"/>
-      <c r="K77" t="s" s="39">
+      <c r="J77" s="37"/>
+      <c r="K77" t="s" s="38">
         <v>128</v>
       </c>
     </row>
     <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" s="48"/>
-      <c r="B78" s="49"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="35"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
     </row>
     <row r="79" ht="21" customHeight="1">
       <c r="A79" t="s" s="30">
@@ -6632,7 +6629,7 @@
         <v>67</v>
       </c>
       <c r="C79" s="35"/>
-      <c r="D79" s="63">
+      <c r="D79" s="61">
         <v>2.7577</v>
       </c>
       <c r="E79" s="34">
@@ -6641,13 +6638,13 @@
       <c r="F79" s="34">
         <v>-1002.543445785170</v>
       </c>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
       <c r="I79" s="34">
         <v>0.0005670352685</v>
       </c>
-      <c r="J79" s="38"/>
-      <c r="K79" t="s" s="65">
+      <c r="J79" s="37"/>
+      <c r="K79" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6659,7 +6656,7 @@
         <v>70</v>
       </c>
       <c r="C80" s="35"/>
-      <c r="D80" s="63">
+      <c r="D80" s="61">
         <v>2.7711</v>
       </c>
       <c r="E80" s="34">
@@ -6668,13 +6665,13 @@
       <c r="F80" s="34">
         <v>-1091.277744948940</v>
       </c>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
       <c r="I80" s="34">
         <v>0.000534001876</v>
       </c>
-      <c r="J80" s="38"/>
-      <c r="K80" t="s" s="65">
+      <c r="J80" s="37"/>
+      <c r="K80" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6689,7 +6686,7 @@
         <f>-1.489/27.2114</f>
         <v>-0.0547197130614375</v>
       </c>
-      <c r="D81" s="63">
+      <c r="D81" s="61">
         <v>2.62</v>
       </c>
       <c r="E81" s="34">
@@ -6698,17 +6695,17 @@
       <c r="F81" s="34">
         <v>-1185.845564890040</v>
       </c>
-      <c r="G81" t="s" s="65">
+      <c r="G81" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H81" t="s" s="66">
+      <c r="H81" t="s" s="64">
         <v>182</v>
       </c>
       <c r="I81" s="34">
         <v>0.0005428867195</v>
       </c>
-      <c r="J81" s="38"/>
-      <c r="K81" t="s" s="65">
+      <c r="J81" s="37"/>
+      <c r="K81" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6723,7 +6720,7 @@
         <f>-2.272/27.2114</f>
         <v>-0.083494417780783</v>
       </c>
-      <c r="D82" s="63">
+      <c r="D82" s="61">
         <v>2.7415</v>
       </c>
       <c r="E82" s="34">
@@ -6732,17 +6729,17 @@
       <c r="F82" s="34">
         <v>-1286.373229868120</v>
       </c>
-      <c r="G82" t="s" s="65">
+      <c r="G82" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H82" t="s" s="67">
+      <c r="H82" t="s" s="65">
         <v>182</v>
       </c>
-      <c r="I82" s="68">
+      <c r="I82" s="66">
         <v>0.000504385731</v>
       </c>
-      <c r="J82" s="38"/>
-      <c r="K82" t="s" s="65">
+      <c r="J82" s="37"/>
+      <c r="K82" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6754,7 +6751,7 @@
         <v>79</v>
       </c>
       <c r="C83" s="35"/>
-      <c r="D83" s="63">
+      <c r="D83" s="61">
         <v>2.6384</v>
       </c>
       <c r="E83" s="34">
@@ -6763,11 +6760,11 @@
       <c r="F83" s="34">
         <v>-1392.856042734010</v>
       </c>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" t="s" s="65">
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6779,7 +6776,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="35"/>
-      <c r="D84" s="63">
+      <c r="D84" s="61">
         <v>2.4538</v>
       </c>
       <c r="E84" s="34">
@@ -6788,11 +6785,11 @@
       <c r="F84" s="34">
         <v>-1505.603850807090</v>
       </c>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" t="s" s="65">
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6807,7 +6804,7 @@
         <f>-1.844/27.2114</f>
         <v>-0.0677657158396848</v>
       </c>
-      <c r="D85" s="63">
+      <c r="D85" s="61">
         <v>2.3833</v>
       </c>
       <c r="E85" s="34">
@@ -6816,17 +6813,17 @@
       <c r="F85" s="34">
         <v>-1624.717501263220</v>
       </c>
-      <c r="G85" t="s" s="65">
+      <c r="G85" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H85" t="s" s="67">
+      <c r="H85" t="s" s="65">
         <v>182</v>
       </c>
-      <c r="I85" s="68">
+      <c r="I85" s="66">
         <v>0.000631962971</v>
       </c>
-      <c r="J85" s="38"/>
-      <c r="K85" t="s" s="65">
+      <c r="J85" s="37"/>
+      <c r="K85" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6841,7 +6838,7 @@
         <f>-2.29/27.2114</f>
         <v>-0.0841559052455956</v>
       </c>
-      <c r="D86" s="63">
+      <c r="D86" s="61">
         <v>2.3211</v>
       </c>
       <c r="E86" s="34">
@@ -6850,17 +6847,17 @@
       <c r="F86" s="34">
         <v>-1750.302601340980</v>
       </c>
-      <c r="G86" t="s" s="65">
+      <c r="G86" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H86" t="s" s="67">
+      <c r="H86" t="s" s="65">
         <v>182</v>
       </c>
-      <c r="I86" s="68">
+      <c r="I86" s="66">
         <v>0.000669324877</v>
       </c>
-      <c r="J86" s="38"/>
-      <c r="K86" t="s" s="65">
+      <c r="J86" s="37"/>
+      <c r="K86" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6875,7 +6872,7 @@
         <f>-2.315/27.2114</f>
         <v>-0.085074637835613</v>
       </c>
-      <c r="D87" s="63">
+      <c r="D87" s="61">
         <v>2.3389</v>
       </c>
       <c r="E87" s="34">
@@ -6884,17 +6881,17 @@
       <c r="F87" s="34">
         <v>-1882.543258307050</v>
       </c>
-      <c r="G87" t="s" s="65">
+      <c r="G87" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H87" t="s" s="67">
+      <c r="H87" t="s" s="65">
         <v>181</v>
       </c>
-      <c r="I87" s="68">
+      <c r="I87" s="66">
         <v>0.0006700083265</v>
       </c>
-      <c r="J87" s="38"/>
-      <c r="K87" t="s" s="65">
+      <c r="J87" s="37"/>
+      <c r="K87" t="s" s="63">
         <v>180</v>
       </c>
     </row>
@@ -6906,7 +6903,7 @@
         <v>94</v>
       </c>
       <c r="C88" s="35"/>
-      <c r="D88" s="63">
+      <c r="D88" s="61">
         <v>2.6957</v>
       </c>
       <c r="E88" s="34">
@@ -6915,28 +6912,28 @@
       <c r="F88" s="34">
         <v>-2021.386125937530</v>
       </c>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
       <c r="I88" s="34">
         <v>0.000349470511</v>
       </c>
-      <c r="J88" s="38"/>
-      <c r="K88" t="s" s="65">
+      <c r="J88" s="37"/>
+      <c r="K88" t="s" s="63">
         <v>180</v>
       </c>
     </row>
     <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" s="48"/>
-      <c r="B89" s="49"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="51"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="50"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="30">
@@ -6948,7 +6945,7 @@
       <c r="C90" s="33">
         <v>-0.707569721115538</v>
       </c>
-      <c r="D90" t="s" s="40">
+      <c r="D90" t="s" s="39">
         <v>183</v>
       </c>
       <c r="E90" s="34">
@@ -6961,13 +6958,13 @@
       <c r="H90" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I90" s="60">
+      <c r="I90" s="58">
         <v>0.00072</v>
       </c>
       <c r="J90" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K90" t="s" s="39">
+      <c r="K90" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -6981,26 +6978,26 @@
       <c r="C91" s="33">
         <v>-0.594422310756972</v>
       </c>
-      <c r="D91" t="s" s="40">
+      <c r="D91" t="s" s="39">
         <v>186</v>
       </c>
       <c r="E91" s="34">
         <v>4</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" t="s" s="36">
+      <c r="G91" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H91" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I91" s="37">
+      <c r="I91" s="36">
         <v>0.00068</v>
       </c>
       <c r="J91" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K91" t="s" s="39">
+      <c r="K91" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -7014,26 +7011,26 @@
       <c r="C92" s="33">
         <v>-0.699601593625498</v>
       </c>
-      <c r="D92" t="s" s="40">
+      <c r="D92" t="s" s="39">
         <v>187</v>
       </c>
       <c r="E92" s="34">
         <v>5</v>
       </c>
       <c r="F92" s="35"/>
-      <c r="G92" t="s" s="41">
+      <c r="G92" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H92" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I92" s="37">
+      <c r="I92" s="36">
         <v>0.00067</v>
       </c>
       <c r="J92" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K92" t="s" s="39">
+      <c r="K92" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -7047,26 +7044,26 @@
       <c r="C93" s="33">
         <v>-0.522709163346614</v>
       </c>
-      <c r="D93" t="s" s="40">
+      <c r="D93" t="s" s="39">
         <v>188</v>
       </c>
       <c r="E93" s="34">
         <v>6</v>
       </c>
       <c r="F93" s="35"/>
-      <c r="G93" t="s" s="41">
+      <c r="G93" t="s" s="25">
         <v>126</v>
       </c>
       <c r="H93" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I93" s="37">
+      <c r="I93" s="36">
         <v>0.00066</v>
       </c>
       <c r="J93" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K93" t="s" s="39">
+      <c r="K93" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -7080,26 +7077,26 @@
       <c r="C94" s="33">
         <v>-0.5003984063745019</v>
       </c>
-      <c r="D94" t="s" s="40">
+      <c r="D94" t="s" s="39">
         <v>183</v>
       </c>
       <c r="E94" s="34">
         <v>7</v>
       </c>
       <c r="F94" s="35"/>
-      <c r="G94" t="s" s="25">
+      <c r="G94" t="s" s="40">
         <v>126</v>
       </c>
       <c r="H94" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I94" s="37">
+      <c r="I94" s="36">
         <v>0.00062</v>
       </c>
       <c r="J94" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K94" t="s" s="39">
+      <c r="K94" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -7113,26 +7110,26 @@
       <c r="C95" s="33">
         <v>-0.387250996015936</v>
       </c>
-      <c r="D95" t="s" s="40">
+      <c r="D95" t="s" s="39">
         <v>188</v>
       </c>
       <c r="E95" s="34">
         <v>6</v>
       </c>
       <c r="F95" s="35"/>
-      <c r="G95" t="s" s="43">
+      <c r="G95" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H95" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I95" s="37">
+      <c r="I95" s="36">
         <v>0.0006400000000000001</v>
       </c>
       <c r="J95" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K95" t="s" s="39">
+      <c r="K95" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -7146,26 +7143,26 @@
       <c r="C96" s="33">
         <v>-0.519521912350598</v>
       </c>
-      <c r="D96" t="s" s="40">
+      <c r="D96" t="s" s="39">
         <v>175</v>
       </c>
       <c r="E96" s="34">
         <v>3</v>
       </c>
       <c r="F96" s="35"/>
-      <c r="G96" t="s" s="43">
+      <c r="G96" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H96" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I96" s="37">
+      <c r="I96" s="36">
         <v>0.0007</v>
       </c>
       <c r="J96" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K96" t="s" s="39">
+      <c r="K96" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -7179,26 +7176,26 @@
       <c r="C97" s="33">
         <v>-0.573705179282869</v>
       </c>
-      <c r="D97" t="s" s="40">
+      <c r="D97" t="s" s="39">
         <v>176</v>
       </c>
       <c r="E97" s="34">
         <v>2</v>
       </c>
       <c r="F97" s="35"/>
-      <c r="G97" t="s" s="43">
+      <c r="G97" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H97" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I97" s="37">
+      <c r="I97" s="36">
         <v>0.00072</v>
       </c>
       <c r="J97" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K97" t="s" s="39">
+      <c r="K97" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -7212,26 +7209,26 @@
       <c r="C98" s="33">
         <v>-0.527490039840637</v>
       </c>
-      <c r="D98" t="s" s="40">
+      <c r="D98" t="s" s="39">
         <v>189</v>
       </c>
       <c r="E98" s="34">
         <v>1</v>
       </c>
       <c r="F98" s="35"/>
-      <c r="G98" t="s" s="43">
+      <c r="G98" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H98" t="s" s="26">
         <v>127</v>
       </c>
-      <c r="I98" s="37">
+      <c r="I98" s="36">
         <v>0.00068</v>
       </c>
       <c r="J98" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K98" t="s" s="39">
+      <c r="K98" t="s" s="38">
         <v>185</v>
       </c>
     </row>
@@ -7245,54 +7242,54 @@
       <c r="C99" s="33">
         <v>-0.2199203187251</v>
       </c>
-      <c r="D99" t="s" s="40">
+      <c r="D99" t="s" s="39">
         <v>190</v>
       </c>
       <c r="E99" s="34">
         <v>2</v>
       </c>
       <c r="F99" s="35"/>
-      <c r="G99" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H99" t="s" s="42">
+      <c r="G99" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H99" t="s" s="41">
         <v>127</v>
       </c>
-      <c r="I99" s="61">
+      <c r="I99" s="59">
         <v>0.00058</v>
       </c>
       <c r="J99" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="K99" t="s" s="39">
+      <c r="K99" t="s" s="38">
         <v>185</v>
       </c>
     </row>
     <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" s="48"/>
-      <c r="B100" s="49"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="51"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="50"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" s="48"/>
-      <c r="B101" s="49"/>
+      <c r="A101" s="47"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="51"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="50"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="30">
@@ -7310,18 +7307,18 @@
       <c r="E102" s="34">
         <v>5</v>
       </c>
-      <c r="F102" s="38"/>
-      <c r="G102" t="s" s="65">
+      <c r="F102" s="37"/>
+      <c r="G102" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H102" t="s" s="69">
+      <c r="H102" t="s" s="67">
         <v>191</v>
       </c>
-      <c r="I102" s="68">
+      <c r="I102" s="66">
         <v>0.001373733495</v>
       </c>
-      <c r="J102" s="38"/>
-      <c r="K102" t="s" s="39">
+      <c r="J102" s="37"/>
+      <c r="K102" t="s" s="38">
         <v>192</v>
       </c>
     </row>
@@ -7341,18 +7338,18 @@
       <c r="E103" s="34">
         <v>6</v>
       </c>
-      <c r="F103" s="38"/>
-      <c r="G103" t="s" s="65">
+      <c r="F103" s="37"/>
+      <c r="G103" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H103" t="s" s="69">
+      <c r="H103" t="s" s="67">
         <v>193</v>
       </c>
-      <c r="I103" s="68">
+      <c r="I103" s="66">
         <v>0.001328170195</v>
       </c>
-      <c r="J103" s="38"/>
-      <c r="K103" t="s" s="39">
+      <c r="J103" s="37"/>
+      <c r="K103" t="s" s="38">
         <v>192</v>
       </c>
     </row>
@@ -7372,18 +7369,18 @@
       <c r="E104" s="34">
         <v>7</v>
       </c>
-      <c r="F104" s="38"/>
-      <c r="G104" t="s" s="65">
+      <c r="F104" s="37"/>
+      <c r="G104" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H104" t="s" s="69">
+      <c r="H104" t="s" s="67">
         <v>193</v>
       </c>
-      <c r="I104" s="68">
+      <c r="I104" s="66">
         <v>0.001332726525</v>
       </c>
-      <c r="J104" s="38"/>
-      <c r="K104" t="s" s="39">
+      <c r="J104" s="37"/>
+      <c r="K104" t="s" s="38">
         <v>192</v>
       </c>
     </row>
@@ -7397,24 +7394,24 @@
       <c r="C105" s="33">
         <v>-0.0893008077496931</v>
       </c>
-      <c r="D105" s="63">
+      <c r="D105" s="61">
         <v>1.747</v>
       </c>
       <c r="E105" s="34">
         <v>4</v>
       </c>
-      <c r="F105" s="38"/>
-      <c r="G105" t="s" s="64">
+      <c r="F105" s="37"/>
+      <c r="G105" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H105" t="s" s="70">
+      <c r="H105" t="s" s="68">
         <v>193</v>
       </c>
-      <c r="I105" s="68">
+      <c r="I105" s="66">
         <v>0.001469416425</v>
       </c>
-      <c r="J105" s="38"/>
-      <c r="K105" t="s" s="39">
+      <c r="J105" s="37"/>
+      <c r="K105" t="s" s="38">
         <v>194</v>
       </c>
     </row>
@@ -7428,24 +7425,24 @@
       <c r="C106" s="33">
         <v>-0.108557442836458</v>
       </c>
-      <c r="D106" s="63">
+      <c r="D106" s="61">
         <v>1.7</v>
       </c>
       <c r="E106" s="34">
         <v>3</v>
       </c>
-      <c r="F106" s="38"/>
-      <c r="G106" t="s" s="64">
+      <c r="F106" s="37"/>
+      <c r="G106" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H106" t="s" s="70">
+      <c r="H106" t="s" s="68">
         <v>193</v>
       </c>
-      <c r="I106" s="68">
+      <c r="I106" s="66">
         <v>0.001724570905</v>
       </c>
-      <c r="J106" s="38"/>
-      <c r="K106" t="s" s="39">
+      <c r="J106" s="37"/>
+      <c r="K106" t="s" s="38">
         <v>194</v>
       </c>
     </row>
@@ -7459,39 +7456,39 @@
       <c r="C107" s="33">
         <v>-0.126086860653991</v>
       </c>
-      <c r="D107" s="63">
+      <c r="D107" s="61">
         <v>1.681</v>
       </c>
       <c r="E107" s="34">
         <v>2</v>
       </c>
-      <c r="F107" s="38"/>
-      <c r="G107" t="s" s="64">
+      <c r="F107" s="37"/>
+      <c r="G107" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H107" t="s" s="70">
+      <c r="H107" t="s" s="68">
         <v>193</v>
       </c>
-      <c r="I107" s="68">
+      <c r="I107" s="66">
         <v>0.001829366495</v>
       </c>
-      <c r="J107" s="38"/>
-      <c r="K107" t="s" s="39">
+      <c r="J107" s="37"/>
+      <c r="K107" t="s" s="38">
         <v>194</v>
       </c>
     </row>
     <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" s="48"/>
-      <c r="B108" s="49"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="51"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="50"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" t="s" s="30">
@@ -7503,24 +7500,24 @@
       <c r="C109" s="33">
         <v>-0.0848908913176095</v>
       </c>
-      <c r="D109" s="63">
+      <c r="D109" s="61">
         <v>2.519</v>
       </c>
       <c r="E109" s="34">
         <v>4</v>
       </c>
-      <c r="F109" s="38"/>
-      <c r="G109" t="s" s="39">
+      <c r="F109" s="37"/>
+      <c r="G109" t="s" s="38">
         <v>195</v>
       </c>
-      <c r="H109" t="s" s="71">
+      <c r="H109" t="s" s="69">
         <v>182</v>
       </c>
       <c r="I109" s="34">
         <v>0.000792801420</v>
       </c>
-      <c r="J109" s="38"/>
-      <c r="K109" t="s" s="39">
+      <c r="J109" s="37"/>
+      <c r="K109" t="s" s="38">
         <v>196</v>
       </c>
     </row>
@@ -7534,24 +7531,24 @@
       <c r="C110" s="33">
         <v>-0.0808852172251336</v>
       </c>
-      <c r="D110" s="63">
+      <c r="D110" s="61">
         <v>2.475</v>
       </c>
       <c r="E110" s="34">
         <v>5</v>
       </c>
-      <c r="F110" s="38"/>
-      <c r="G110" t="s" s="64">
+      <c r="F110" s="37"/>
+      <c r="G110" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H110" t="s" s="39">
+      <c r="H110" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I110" s="68">
+      <c r="I110" s="66">
         <v>0.000817861235</v>
       </c>
-      <c r="J110" s="38"/>
-      <c r="K110" t="s" s="39">
+      <c r="J110" s="37"/>
+      <c r="K110" t="s" s="38">
         <v>196</v>
       </c>
     </row>
@@ -7565,24 +7562,24 @@
       <c r="C111" s="33">
         <v>-0.0820979442439566</v>
       </c>
-      <c r="D111" s="63">
+      <c r="D111" s="61">
         <v>2.433</v>
       </c>
       <c r="E111" s="34">
         <v>4</v>
       </c>
-      <c r="F111" s="38"/>
-      <c r="G111" t="s" s="64">
+      <c r="F111" s="37"/>
+      <c r="G111" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H111" t="s" s="39">
+      <c r="H111" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I111" s="68">
+      <c r="I111" s="66">
         <v>0.000735847295</v>
       </c>
-      <c r="J111" s="38"/>
-      <c r="K111" t="s" s="39">
+      <c r="J111" s="37"/>
+      <c r="K111" t="s" s="38">
         <v>196</v>
       </c>
     </row>
@@ -7594,18 +7591,18 @@
         <v>76</v>
       </c>
       <c r="C112" s="35"/>
-      <c r="D112" s="63">
+      <c r="D112" s="61">
         <v>2.425</v>
       </c>
       <c r="E112" s="34">
         <v>5</v>
       </c>
-      <c r="F112" s="38"/>
+      <c r="F112" s="37"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
-      <c r="K112" t="s" s="39">
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" t="s" s="38">
         <v>197</v>
       </c>
     </row>
@@ -7617,18 +7614,18 @@
         <v>79</v>
       </c>
       <c r="C113" s="35"/>
-      <c r="D113" s="63">
+      <c r="D113" s="61">
         <v>2.308</v>
       </c>
       <c r="E113" s="34">
         <v>4</v>
       </c>
-      <c r="F113" s="38"/>
+      <c r="F113" s="37"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
-      <c r="K113" t="s" s="39">
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" t="s" s="38">
         <v>197</v>
       </c>
     </row>
@@ -7642,24 +7639,24 @@
       <c r="C114" s="33">
         <v>-0.0882718272488736</v>
       </c>
-      <c r="D114" s="63">
+      <c r="D114" s="61">
         <v>2.17</v>
       </c>
       <c r="E114" s="34">
         <v>3</v>
       </c>
-      <c r="F114" s="38"/>
-      <c r="G114" t="s" s="64">
+      <c r="F114" s="37"/>
+      <c r="G114" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H114" t="s" s="39">
+      <c r="H114" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I114" s="68">
+      <c r="I114" s="66">
         <v>0.000870259030</v>
       </c>
-      <c r="J114" s="38"/>
-      <c r="K114" t="s" s="39">
+      <c r="J114" s="37"/>
+      <c r="K114" t="s" s="38">
         <v>196</v>
       </c>
     </row>
@@ -7673,24 +7670,24 @@
       <c r="C115" s="33">
         <v>-0.105176506905194</v>
       </c>
-      <c r="D115" s="63">
+      <c r="D115" s="61">
         <v>2.123</v>
       </c>
       <c r="E115" s="34">
         <v>2</v>
       </c>
-      <c r="F115" s="38"/>
-      <c r="G115" t="s" s="64">
+      <c r="F115" s="37"/>
+      <c r="G115" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H115" t="s" s="39">
+      <c r="H115" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I115" s="68">
+      <c r="I115" s="66">
         <v>0.000893040680</v>
       </c>
-      <c r="J115" s="38"/>
-      <c r="K115" t="s" s="39">
+      <c r="J115" s="37"/>
+      <c r="K115" t="s" s="38">
         <v>196</v>
       </c>
     </row>
@@ -7704,24 +7701,24 @@
       <c r="C116" s="33">
         <v>-0.122154685168716</v>
       </c>
-      <c r="D116" s="63">
+      <c r="D116" s="61">
         <v>2.015</v>
       </c>
       <c r="E116" s="34">
         <v>1</v>
       </c>
-      <c r="F116" s="38"/>
-      <c r="G116" t="s" s="64">
+      <c r="F116" s="37"/>
+      <c r="G116" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H116" t="s" s="39">
+      <c r="H116" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I116" s="68">
+      <c r="I116" s="66">
         <v>0.0011390825</v>
       </c>
-      <c r="J116" s="38"/>
-      <c r="K116" t="s" s="39">
+      <c r="J116" s="37"/>
+      <c r="K116" t="s" s="38">
         <v>196</v>
       </c>
     </row>
@@ -7735,24 +7732,24 @@
       <c r="C117" s="33">
         <v>-0.0830534261375747</v>
       </c>
-      <c r="D117" s="63">
+      <c r="D117" s="61">
         <v>2.242</v>
       </c>
       <c r="E117" s="34">
         <v>2</v>
       </c>
-      <c r="F117" s="38"/>
+      <c r="F117" s="37"/>
       <c r="G117" t="s" s="12">
         <v>195</v>
       </c>
-      <c r="H117" t="s" s="39">
+      <c r="H117" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I117" s="68">
+      <c r="I117" s="66">
         <v>0.000740403625</v>
       </c>
-      <c r="J117" s="38"/>
-      <c r="K117" t="s" s="39">
+      <c r="J117" s="37"/>
+      <c r="K117" t="s" s="38">
         <v>196</v>
       </c>
     </row>
@@ -7764,33 +7761,33 @@
         <v>94</v>
       </c>
       <c r="C118" s="35"/>
-      <c r="D118" s="63">
+      <c r="D118" s="61">
         <v>2.429</v>
       </c>
       <c r="E118" s="34">
         <v>3</v>
       </c>
-      <c r="F118" s="38"/>
+      <c r="F118" s="37"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-      <c r="K118" t="s" s="39">
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" t="s" s="38">
         <v>197</v>
       </c>
     </row>
     <row r="119" ht="20.05" customHeight="1">
-      <c r="A119" s="48"/>
-      <c r="B119" s="49"/>
+      <c r="A119" s="47"/>
+      <c r="B119" s="48"/>
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="51"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="50"/>
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" t="s" s="30">
@@ -7802,24 +7799,24 @@
       <c r="C120" s="33">
         <v>-0.152583108550093</v>
       </c>
-      <c r="D120" s="72">
+      <c r="D120" s="70">
         <v>2.135</v>
       </c>
       <c r="E120" s="34">
         <v>2</v>
       </c>
-      <c r="F120" s="38"/>
-      <c r="G120" t="s" s="64">
+      <c r="F120" s="37"/>
+      <c r="G120" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H120" t="s" s="39">
+      <c r="H120" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I120" s="68">
+      <c r="I120" s="66">
         <v>0.000968220125</v>
       </c>
-      <c r="J120" s="38"/>
-      <c r="K120" t="s" s="39">
+      <c r="J120" s="37"/>
+      <c r="K120" t="s" s="38">
         <v>198</v>
       </c>
     </row>
@@ -7833,24 +7830,24 @@
       <c r="C121" s="33">
         <v>-0.146923715795586</v>
       </c>
-      <c r="D121" s="72">
+      <c r="D121" s="70">
         <v>2.084</v>
       </c>
       <c r="E121" s="34">
         <v>3</v>
       </c>
-      <c r="F121" s="38"/>
-      <c r="G121" t="s" s="64">
+      <c r="F121" s="37"/>
+      <c r="G121" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H121" t="s" s="39">
+      <c r="H121" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I121" s="68">
+      <c r="I121" s="66">
         <v>0.000943160310</v>
       </c>
-      <c r="J121" s="38"/>
-      <c r="K121" t="s" s="39">
+      <c r="J121" s="37"/>
+      <c r="K121" t="s" s="38">
         <v>198</v>
       </c>
     </row>
@@ -7864,24 +7861,24 @@
       <c r="C122" s="33">
         <v>-0.142734295185106</v>
       </c>
-      <c r="D122" s="72">
+      <c r="D122" s="70">
         <v>2.058</v>
       </c>
       <c r="E122" s="34">
         <v>4</v>
       </c>
-      <c r="F122" s="38"/>
-      <c r="G122" t="s" s="64">
+      <c r="F122" s="37"/>
+      <c r="G122" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H122" t="s" s="39">
+      <c r="H122" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I122" s="68">
+      <c r="I122" s="66">
         <v>0.000886206185</v>
       </c>
-      <c r="J122" s="38"/>
-      <c r="K122" t="s" s="39">
+      <c r="J122" s="37"/>
+      <c r="K122" t="s" s="38">
         <v>198</v>
       </c>
     </row>
@@ -7895,24 +7892,24 @@
       <c r="C123" s="33">
         <v>-0.100656342562308</v>
       </c>
-      <c r="D123" s="72">
+      <c r="D123" s="70">
         <v>2.009</v>
       </c>
       <c r="E123" s="34">
         <v>5</v>
       </c>
-      <c r="F123" s="38"/>
-      <c r="G123" t="s" s="64">
+      <c r="F123" s="37"/>
+      <c r="G123" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H123" t="s" s="39">
+      <c r="H123" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I123" s="68">
+      <c r="I123" s="66">
         <v>0.000886206185</v>
       </c>
-      <c r="J123" s="38"/>
-      <c r="K123" t="s" s="39">
+      <c r="J123" s="37"/>
+      <c r="K123" t="s" s="38">
         <v>198</v>
       </c>
     </row>
@@ -7926,24 +7923,24 @@
       <c r="C124" s="33">
         <v>-0.10918218099767</v>
       </c>
-      <c r="D124" s="72">
+      <c r="D124" s="70">
         <v>1.992</v>
       </c>
       <c r="E124" s="34">
         <v>4</v>
       </c>
-      <c r="F124" s="38"/>
-      <c r="G124" t="s" s="64">
+      <c r="F124" s="37"/>
+      <c r="G124" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H124" t="s" s="39">
+      <c r="H124" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I124" s="68">
+      <c r="I124" s="66">
         <v>0.0008657027</v>
       </c>
-      <c r="J124" s="38"/>
-      <c r="K124" t="s" s="39">
+      <c r="J124" s="37"/>
+      <c r="K124" t="s" s="38">
         <v>198</v>
       </c>
     </row>
@@ -7957,39 +7954,39 @@
       <c r="C125" s="33">
         <v>-0.118259258987042</v>
       </c>
-      <c r="D125" s="72">
+      <c r="D125" s="70">
         <v>1.98</v>
       </c>
       <c r="E125" s="34">
         <v>3</v>
       </c>
-      <c r="F125" s="38"/>
-      <c r="G125" t="s" s="64">
+      <c r="F125" s="37"/>
+      <c r="G125" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H125" t="s" s="39">
+      <c r="H125" t="s" s="38">
         <v>182</v>
       </c>
-      <c r="I125" s="68">
+      <c r="I125" s="66">
         <v>0.000856590040</v>
       </c>
-      <c r="J125" s="38"/>
-      <c r="K125" t="s" s="39">
+      <c r="J125" s="37"/>
+      <c r="K125" t="s" s="38">
         <v>198</v>
       </c>
     </row>
     <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" s="48"/>
-      <c r="B126" s="49"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="35"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="74"/>
-      <c r="J126" s="75"/>
-      <c r="K126" s="51"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="73"/>
+      <c r="K126" s="50"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="30">
@@ -8001,78 +7998,78 @@
       <c r="C127" s="33">
         <v>-0.0716611420213587</v>
       </c>
-      <c r="D127" s="76">
+      <c r="D127" s="74">
         <v>2.26</v>
       </c>
       <c r="E127" s="34">
         <v>1</v>
       </c>
-      <c r="F127" s="38"/>
-      <c r="G127" t="s" s="64">
+      <c r="F127" s="37"/>
+      <c r="G127" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H127" t="s" s="65">
+      <c r="H127" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="I127" s="77">
+      <c r="I127" s="75">
         <v>0.001061624890</v>
       </c>
-      <c r="J127" s="75"/>
-      <c r="K127" t="s" s="39">
+      <c r="J127" s="73"/>
+      <c r="K127" t="s" s="38">
         <v>199</v>
       </c>
     </row>
     <row r="128" ht="20.05" customHeight="1">
-      <c r="A128" s="48"/>
-      <c r="B128" s="49"/>
+      <c r="A128" s="47"/>
+      <c r="B128" s="48"/>
       <c r="C128" s="35"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="74"/>
-      <c r="J128" s="75"/>
-      <c r="K128" s="51"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="73"/>
+      <c r="K128" s="50"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" s="48"/>
-      <c r="B129" s="49"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="35"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="74"/>
-      <c r="J129" s="75"/>
-      <c r="K129" s="51"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="73"/>
+      <c r="K129" s="50"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" s="48"/>
-      <c r="B130" s="49"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="48"/>
       <c r="C130" s="35"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="74"/>
-      <c r="J130" s="75"/>
-      <c r="K130" s="51"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="73"/>
+      <c r="K130" s="50"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" s="48"/>
-      <c r="B131" s="49"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="48"/>
       <c r="C131" s="35"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="51"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="73"/>
+      <c r="K131" s="50"/>
     </row>
     <row r="132" ht="20.35" customHeight="1">
       <c r="A132" t="s" s="30">
@@ -8081,31 +8078,31 @@
       <c r="B132" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="C132" s="78">
+      <c r="C132" s="76">
         <v>-0.0634262948207171</v>
       </c>
-      <c r="D132" s="79">
+      <c r="D132" s="77">
         <v>2.63</v>
       </c>
       <c r="E132" s="34">
         <v>5</v>
       </c>
-      <c r="F132" s="78">
+      <c r="F132" s="76">
         <v>-1520.618519450680</v>
       </c>
-      <c r="G132" t="s" s="65">
+      <c r="G132" t="s" s="63">
         <v>200</v>
       </c>
-      <c r="H132" t="s" s="67">
+      <c r="H132" t="s" s="65">
         <v>201</v>
       </c>
-      <c r="I132" s="80">
+      <c r="I132" s="78">
         <v>0.000544481435</v>
       </c>
       <c r="J132" t="s" s="12">
         <v>202</v>
       </c>
-      <c r="K132" t="s" s="65">
+      <c r="K132" t="s" s="63">
         <v>203</v>
       </c>
     </row>
@@ -8117,7 +8114,7 @@
         <v>70</v>
       </c>
       <c r="C133" s="35"/>
-      <c r="D133" s="79">
+      <c r="D133" s="77">
         <v>2.29</v>
       </c>
       <c r="E133" s="34">
@@ -8126,11 +8123,11 @@
       <c r="F133" s="33">
         <v>-1609.370197360120</v>
       </c>
-      <c r="G133" s="64"/>
-      <c r="H133" s="64"/>
+      <c r="G133" s="62"/>
+      <c r="H133" s="62"/>
       <c r="I133" s="35"/>
-      <c r="J133" s="38"/>
-      <c r="K133" t="s" s="65">
+      <c r="J133" s="37"/>
+      <c r="K133" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8142,7 +8139,7 @@
         <v>73</v>
       </c>
       <c r="C134" s="35"/>
-      <c r="D134" s="79">
+      <c r="D134" s="77">
         <v>2.51</v>
       </c>
       <c r="E134" s="34">
@@ -8151,11 +8148,11 @@
       <c r="F134" s="33">
         <v>-1703.949431634920</v>
       </c>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
+      <c r="G134" s="62"/>
+      <c r="H134" s="62"/>
       <c r="I134" s="35"/>
-      <c r="J134" s="38"/>
-      <c r="K134" t="s" s="65">
+      <c r="J134" s="37"/>
+      <c r="K134" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8167,7 +8164,7 @@
         <v>76</v>
       </c>
       <c r="C135" s="35"/>
-      <c r="D135" s="79">
+      <c r="D135" s="77">
         <v>1.99</v>
       </c>
       <c r="E135" s="34">
@@ -8176,11 +8173,11 @@
       <c r="F135" s="33">
         <v>-1804.431703873190</v>
       </c>
-      <c r="G135" s="64"/>
-      <c r="H135" s="64"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="62"/>
       <c r="I135" s="35"/>
-      <c r="J135" s="38"/>
-      <c r="K135" t="s" s="65">
+      <c r="J135" s="37"/>
+      <c r="K135" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8192,7 +8189,7 @@
         <v>79</v>
       </c>
       <c r="C136" s="35"/>
-      <c r="D136" s="79">
+      <c r="D136" s="77">
         <v>1.94</v>
       </c>
       <c r="E136" s="34">
@@ -8201,15 +8198,15 @@
       <c r="F136" s="33">
         <v>-1910.9606003658</v>
       </c>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
+      <c r="G136" s="62"/>
+      <c r="H136" s="62"/>
       <c r="I136" s="33">
         <v>0.000870259030</v>
       </c>
       <c r="J136" t="s" s="12">
         <v>202</v>
       </c>
-      <c r="K136" t="s" s="65">
+      <c r="K136" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8221,7 +8218,7 @@
         <v>82</v>
       </c>
       <c r="C137" s="35"/>
-      <c r="D137" s="79">
+      <c r="D137" s="77">
         <v>1.85</v>
       </c>
       <c r="E137" s="34">
@@ -8230,11 +8227,11 @@
       <c r="F137" s="33">
         <v>-2023.704663684850</v>
       </c>
-      <c r="G137" s="64"/>
-      <c r="H137" s="64"/>
+      <c r="G137" s="62"/>
+      <c r="H137" s="62"/>
       <c r="I137" s="35"/>
-      <c r="J137" s="38"/>
-      <c r="K137" t="s" s="65">
+      <c r="J137" s="37"/>
+      <c r="K137" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8246,7 +8243,7 @@
         <v>85</v>
       </c>
       <c r="C138" s="35"/>
-      <c r="D138" s="79">
+      <c r="D138" s="77">
         <v>1.8</v>
       </c>
       <c r="E138" s="34">
@@ -8255,11 +8252,11 @@
       <c r="F138" s="33">
         <v>-2142.804654424830</v>
       </c>
-      <c r="G138" s="64"/>
-      <c r="H138" s="64"/>
+      <c r="G138" s="62"/>
+      <c r="H138" s="62"/>
       <c r="I138" s="35"/>
-      <c r="J138" s="38"/>
-      <c r="K138" t="s" s="65">
+      <c r="J138" s="37"/>
+      <c r="K138" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8271,7 +8268,7 @@
         <v>88</v>
       </c>
       <c r="C139" s="35"/>
-      <c r="D139" s="79">
+      <c r="D139" s="77">
         <v>2.05</v>
       </c>
       <c r="E139" s="34">
@@ -8280,11 +8277,11 @@
       <c r="F139" s="33">
         <v>-2268.402980576950</v>
       </c>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
+      <c r="G139" s="62"/>
+      <c r="H139" s="62"/>
       <c r="I139" s="35"/>
-      <c r="J139" s="38"/>
-      <c r="K139" t="s" s="65">
+      <c r="J139" s="37"/>
+      <c r="K139" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8296,7 +8293,7 @@
         <v>91</v>
       </c>
       <c r="C140" s="35"/>
-      <c r="D140" s="79">
+      <c r="D140" s="77">
         <v>2.54</v>
       </c>
       <c r="E140" s="34">
@@ -8305,11 +8302,11 @@
       <c r="F140" s="33">
         <v>-2400.596117018530</v>
       </c>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="62"/>
       <c r="I140" s="35"/>
-      <c r="J140" s="38"/>
-      <c r="K140" t="s" s="65">
+      <c r="J140" s="37"/>
+      <c r="K140" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8321,7 +8318,7 @@
         <v>94</v>
       </c>
       <c r="C141" s="35"/>
-      <c r="D141" s="79">
+      <c r="D141" s="77">
         <v>2.71</v>
       </c>
       <c r="E141" s="34">
@@ -8330,11 +8327,11 @@
       <c r="F141" s="33">
         <v>-2539.445356978260</v>
       </c>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62"/>
       <c r="I141" s="35"/>
-      <c r="J141" s="38"/>
-      <c r="K141" t="s" s="65">
+      <c r="J141" s="37"/>
+      <c r="K141" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8345,31 +8342,31 @@
       <c r="B142" t="s" s="31">
         <v>70</v>
       </c>
-      <c r="C142" s="78">
+      <c r="C142" s="76">
         <f>-0.0575298804780876+408*2.194*10^(-5)</f>
         <v>-0.0485783604780876</v>
       </c>
-      <c r="D142" s="76">
+      <c r="D142" s="74">
         <v>1.943</v>
       </c>
       <c r="E142" s="34">
         <v>3</v>
       </c>
-      <c r="F142" s="78">
+      <c r="F142" s="76">
         <v>-1698.107543041160</v>
       </c>
-      <c r="G142" t="s" s="65">
+      <c r="G142" t="s" s="63">
         <v>205</v>
       </c>
-      <c r="H142" t="s" s="66">
+      <c r="H142" t="s" s="64">
         <v>206</v>
       </c>
-      <c r="I142" s="78">
+      <c r="I142" s="76">
         <f>408*2.194*10^(-5)</f>
         <v>0.008951519999999999</v>
       </c>
-      <c r="J142" s="38"/>
-      <c r="K142" t="s" s="65">
+      <c r="J142" s="37"/>
+      <c r="K142" t="s" s="63">
         <v>207</v>
       </c>
     </row>
@@ -8383,7 +8380,7 @@
       <c r="C143" s="33">
         <v>-0.0984881336498673</v>
       </c>
-      <c r="D143" s="79">
+      <c r="D143" s="77">
         <v>1.78</v>
       </c>
       <c r="E143" s="34">
@@ -8392,17 +8389,17 @@
       <c r="F143" s="33">
         <v>-1792.682734892560</v>
       </c>
-      <c r="G143" t="s" s="65">
+      <c r="G143" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H143" s="66"/>
+      <c r="H143" s="64"/>
       <c r="I143" s="33">
         <v>0.001280328730</v>
       </c>
       <c r="J143" t="s" s="12">
         <v>202</v>
       </c>
-      <c r="K143" t="s" s="65">
+      <c r="K143" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8414,7 +8411,7 @@
         <v>76</v>
       </c>
       <c r="C144" s="35"/>
-      <c r="D144" s="79">
+      <c r="D144" s="77">
         <v>1.79</v>
       </c>
       <c r="E144" s="34">
@@ -8423,11 +8420,11 @@
       <c r="F144" s="33">
         <v>-1893.185586740850</v>
       </c>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="62"/>
       <c r="I144" s="35"/>
-      <c r="J144" s="38"/>
-      <c r="K144" t="s" s="65">
+      <c r="J144" s="37"/>
+      <c r="K144" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8439,7 +8436,7 @@
         <v>79</v>
       </c>
       <c r="C145" s="35"/>
-      <c r="D145" s="79">
+      <c r="D145" s="77">
         <v>1.76</v>
       </c>
       <c r="E145" s="34">
@@ -8448,13 +8445,13 @@
       <c r="F145" s="33">
         <v>-1999.7148507265</v>
       </c>
-      <c r="G145" s="64"/>
-      <c r="H145" s="64"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="62"/>
       <c r="I145" s="35"/>
       <c r="J145" t="s" s="12">
         <v>202</v>
       </c>
-      <c r="K145" t="s" s="65">
+      <c r="K145" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8466,7 +8463,7 @@
         <v>82</v>
       </c>
       <c r="C146" s="35"/>
-      <c r="D146" s="79">
+      <c r="D146" s="77">
         <v>1.67</v>
       </c>
       <c r="E146" s="34">
@@ -8475,11 +8472,11 @@
       <c r="F146" s="33">
         <v>-2112.463691455010</v>
       </c>
-      <c r="G146" s="64"/>
-      <c r="H146" s="64"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62"/>
       <c r="I146" s="35"/>
-      <c r="J146" s="38"/>
-      <c r="K146" t="s" s="65">
+      <c r="J146" s="37"/>
+      <c r="K146" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8493,7 +8490,7 @@
       <c r="C147" s="33">
         <v>-0.0882350779452729</v>
       </c>
-      <c r="D147" s="79">
+      <c r="D147" s="77">
         <v>1.88</v>
       </c>
       <c r="E147" s="34">
@@ -8502,10 +8499,10 @@
       <c r="F147" s="33">
         <v>-2231.502678351020</v>
       </c>
-      <c r="G147" t="s" s="65">
+      <c r="G147" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H147" t="s" s="66">
+      <c r="H147" t="s" s="64">
         <v>208</v>
       </c>
       <c r="I147" s="33">
@@ -8514,7 +8511,7 @@
       <c r="J147" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K147" t="s" s="65">
+      <c r="K147" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8526,7 +8523,7 @@
         <v>88</v>
       </c>
       <c r="C148" s="35"/>
-      <c r="D148" s="79">
+      <c r="D148" s="77">
         <v>2.06</v>
       </c>
       <c r="E148" s="34">
@@ -8535,13 +8532,13 @@
       <c r="F148" s="33">
         <v>-2357.116439210650</v>
       </c>
-      <c r="G148" s="64"/>
-      <c r="H148" s="64"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62"/>
       <c r="I148" s="35"/>
       <c r="J148" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K148" t="s" s="65">
+      <c r="K148" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8553,7 +8550,7 @@
         <v>91</v>
       </c>
       <c r="C149" s="35"/>
-      <c r="D149" s="79">
+      <c r="D149" s="77">
         <v>2.45</v>
       </c>
       <c r="E149" s="34">
@@ -8562,11 +8559,11 @@
       <c r="F149" s="33">
         <v>-2489.319865457240</v>
       </c>
-      <c r="G149" s="64"/>
-      <c r="H149" s="64"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="62"/>
       <c r="I149" s="35"/>
-      <c r="J149" s="38"/>
-      <c r="K149" t="s" s="65">
+      <c r="J149" s="37"/>
+      <c r="K149" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8578,7 +8575,7 @@
         <v>94</v>
       </c>
       <c r="C150" s="35"/>
-      <c r="D150" s="79">
+      <c r="D150" s="77">
         <v>2.74</v>
       </c>
       <c r="E150" s="34">
@@ -8587,11 +8584,11 @@
       <c r="F150" s="33">
         <v>-2628.181600180190</v>
       </c>
-      <c r="G150" s="64"/>
-      <c r="H150" s="64"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="62"/>
       <c r="I150" s="35"/>
-      <c r="J150" s="38"/>
-      <c r="K150" t="s" s="65">
+      <c r="J150" s="37"/>
+      <c r="K150" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8602,31 +8599,31 @@
       <c r="B151" t="s" s="31">
         <v>73</v>
       </c>
-      <c r="C151" s="78">
+      <c r="C151" s="76">
         <f>-0.102948207171315+538*2.194*10^(-5)</f>
         <v>-0.091144487171315</v>
       </c>
-      <c r="D151" s="79">
+      <c r="D151" s="77">
         <v>1.74</v>
       </c>
       <c r="E151" s="34">
         <v>3</v>
       </c>
-      <c r="F151" s="78">
+      <c r="F151" s="76">
         <v>-1887.249841897170</v>
       </c>
-      <c r="G151" t="s" s="65">
+      <c r="G151" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H151" t="s" s="67">
+      <c r="H151" t="s" s="65">
         <v>206</v>
       </c>
-      <c r="I151" s="80">
+      <c r="I151" s="78">
         <f>538*2.194*10^(-5)</f>
         <v>0.01180372</v>
       </c>
-      <c r="J151" s="38"/>
-      <c r="K151" t="s" s="65">
+      <c r="J151" s="37"/>
+      <c r="K151" t="s" s="63">
         <v>210</v>
       </c>
     </row>
@@ -8638,7 +8635,7 @@
         <v>76</v>
       </c>
       <c r="C152" s="35"/>
-      <c r="D152" s="79">
+      <c r="D152" s="77">
         <v>1.72</v>
       </c>
       <c r="E152" s="34">
@@ -8647,13 +8644,13 @@
       <c r="F152" s="33">
         <v>-1987.752693745460</v>
       </c>
-      <c r="G152" s="64"/>
-      <c r="H152" s="64"/>
+      <c r="G152" s="62"/>
+      <c r="H152" s="62"/>
       <c r="I152" s="35"/>
       <c r="J152" t="s" s="12">
         <v>202</v>
       </c>
-      <c r="K152" t="s" s="65">
+      <c r="K152" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8665,7 +8662,7 @@
         <v>79</v>
       </c>
       <c r="C153" s="35"/>
-      <c r="D153" s="79">
+      <c r="D153" s="77">
         <v>1.69</v>
       </c>
       <c r="E153" s="34">
@@ -8674,11 +8671,11 @@
       <c r="F153" s="33">
         <v>-2094.285632661470</v>
       </c>
-      <c r="G153" s="64"/>
-      <c r="H153" s="64"/>
+      <c r="G153" s="62"/>
+      <c r="H153" s="62"/>
       <c r="I153" s="35"/>
-      <c r="J153" s="38"/>
-      <c r="K153" t="s" s="65">
+      <c r="J153" s="37"/>
+      <c r="K153" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8690,7 +8687,7 @@
         <v>82</v>
       </c>
       <c r="C154" s="35"/>
-      <c r="D154" s="79">
+      <c r="D154" s="77">
         <v>1.74</v>
       </c>
       <c r="E154" s="34">
@@ -8699,11 +8696,11 @@
       <c r="F154" s="33">
         <v>-2206.984494337080</v>
       </c>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
+      <c r="G154" s="62"/>
+      <c r="H154" s="62"/>
       <c r="I154" s="35"/>
-      <c r="J154" s="38"/>
-      <c r="K154" t="s" s="65">
+      <c r="J154" s="37"/>
+      <c r="K154" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8715,7 +8712,7 @@
         <v>85</v>
       </c>
       <c r="C155" s="35"/>
-      <c r="D155" s="79">
+      <c r="D155" s="77">
         <v>1.81</v>
       </c>
       <c r="E155" s="34">
@@ -8724,11 +8721,11 @@
       <c r="F155" s="33">
         <v>-2326.087425021360</v>
       </c>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
+      <c r="G155" s="62"/>
+      <c r="H155" s="62"/>
       <c r="I155" s="35"/>
-      <c r="J155" s="38"/>
-      <c r="K155" t="s" s="65">
+      <c r="J155" s="37"/>
+      <c r="K155" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8742,7 +8739,7 @@
       <c r="C156" s="33">
         <v>-0.0771735375614632</v>
       </c>
-      <c r="D156" s="79">
+      <c r="D156" s="77">
         <v>2.11</v>
       </c>
       <c r="E156" s="34">
@@ -8751,17 +8748,17 @@
       <c r="F156" s="33">
         <v>-2451.664804070420</v>
       </c>
-      <c r="G156" t="s" s="64">
+      <c r="G156" t="s" s="62">
         <v>181</v>
       </c>
-      <c r="H156" t="s" s="65">
+      <c r="H156" t="s" s="63">
         <v>208</v>
       </c>
-      <c r="I156" s="53">
+      <c r="I156" s="52">
         <v>0.000653833355</v>
       </c>
-      <c r="J156" s="38"/>
-      <c r="K156" t="s" s="65">
+      <c r="J156" s="37"/>
+      <c r="K156" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8773,7 +8770,7 @@
         <v>91</v>
       </c>
       <c r="C157" s="35"/>
-      <c r="D157" s="79">
+      <c r="D157" s="77">
         <v>2.42</v>
       </c>
       <c r="E157" s="34">
@@ -8782,11 +8779,11 @@
       <c r="F157" s="33">
         <v>-2583.879622601130</v>
       </c>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
+      <c r="G157" s="62"/>
+      <c r="H157" s="62"/>
       <c r="I157" s="35"/>
-      <c r="J157" s="38"/>
-      <c r="K157" t="s" s="65">
+      <c r="J157" s="37"/>
+      <c r="K157" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8798,7 +8795,7 @@
         <v>94</v>
       </c>
       <c r="C158" s="35"/>
-      <c r="D158" s="79">
+      <c r="D158" s="77">
         <v>2.71</v>
       </c>
       <c r="E158" s="34">
@@ -8807,11 +8804,11 @@
       <c r="F158" s="33">
         <v>-2722.746502226590</v>
       </c>
-      <c r="G158" s="64"/>
-      <c r="H158" s="64"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="62"/>
       <c r="I158" s="35"/>
-      <c r="J158" s="38"/>
-      <c r="K158" t="s" s="65">
+      <c r="J158" s="37"/>
+      <c r="K158" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8822,29 +8819,29 @@
       <c r="B159" t="s" s="31">
         <v>76</v>
       </c>
-      <c r="C159" s="78">
+      <c r="C159" s="76">
         <v>-0.0562460165710644</v>
       </c>
-      <c r="D159" s="79">
+      <c r="D159" s="77">
         <v>1.75</v>
       </c>
       <c r="E159" s="34">
         <v>1</v>
       </c>
-      <c r="F159" s="78">
+      <c r="F159" s="76">
         <v>-2088.261792975360</v>
       </c>
-      <c r="G159" t="s" s="65">
+      <c r="G159" t="s" s="63">
         <v>211</v>
       </c>
-      <c r="H159" t="s" s="67">
+      <c r="H159" t="s" s="65">
         <v>212</v>
       </c>
-      <c r="I159" s="80">
+      <c r="I159" s="78">
         <v>0.001095797365</v>
       </c>
-      <c r="J159" s="38"/>
-      <c r="K159" t="s" s="65">
+      <c r="J159" s="37"/>
+      <c r="K159" t="s" s="63">
         <v>213</v>
       </c>
     </row>
@@ -8856,7 +8853,7 @@
         <v>79</v>
       </c>
       <c r="C160" s="35"/>
-      <c r="D160" s="79">
+      <c r="D160" s="77">
         <v>2.46</v>
       </c>
       <c r="E160" s="34">
@@ -8865,13 +8862,13 @@
       <c r="F160" s="33">
         <v>-2194.752102699190</v>
       </c>
-      <c r="G160" s="64"/>
-      <c r="H160" s="64"/>
+      <c r="G160" s="62"/>
+      <c r="H160" s="62"/>
       <c r="I160" s="35"/>
       <c r="J160" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K160" t="s" s="65">
+      <c r="K160" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8883,7 +8880,7 @@
         <v>82</v>
       </c>
       <c r="C161" s="35"/>
-      <c r="D161" s="79">
+      <c r="D161" s="77">
         <v>2.37</v>
       </c>
       <c r="E161" s="34">
@@ -8892,11 +8889,11 @@
       <c r="F161" s="33">
         <v>-2307.460519193740</v>
       </c>
-      <c r="G161" s="64"/>
-      <c r="H161" s="64"/>
+      <c r="G161" s="62"/>
+      <c r="H161" s="62"/>
       <c r="I161" s="35"/>
-      <c r="J161" s="38"/>
-      <c r="K161" t="s" s="65">
+      <c r="J161" s="37"/>
+      <c r="K161" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8908,7 +8905,7 @@
         <v>85</v>
       </c>
       <c r="C162" s="35"/>
-      <c r="D162" s="79">
+      <c r="D162" s="77">
         <v>2.34</v>
       </c>
       <c r="E162" s="34">
@@ -8917,11 +8914,11 @@
       <c r="F162" s="33">
         <v>-2426.587336925350</v>
       </c>
-      <c r="G162" s="64"/>
-      <c r="H162" s="64"/>
+      <c r="G162" s="62"/>
+      <c r="H162" s="62"/>
       <c r="I162" s="35"/>
-      <c r="J162" s="38"/>
-      <c r="K162" t="s" s="65">
+      <c r="J162" s="37"/>
+      <c r="K162" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8933,7 +8930,7 @@
         <v>88</v>
       </c>
       <c r="C163" s="35"/>
-      <c r="D163" s="79">
+      <c r="D163" s="77">
         <v>2.25</v>
       </c>
       <c r="E163" s="34">
@@ -8942,11 +8939,11 @@
       <c r="F163" s="33">
         <v>-2552.167655918710</v>
       </c>
-      <c r="G163" s="64"/>
-      <c r="H163" s="64"/>
+      <c r="G163" s="62"/>
+      <c r="H163" s="62"/>
       <c r="I163" s="35"/>
-      <c r="J163" s="38"/>
-      <c r="K163" t="s" s="65">
+      <c r="J163" s="37"/>
+      <c r="K163" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8960,7 +8957,7 @@
       <c r="C164" s="33">
         <v>-0.057328913617087</v>
       </c>
-      <c r="D164" s="79">
+      <c r="D164" s="77">
         <v>2.42</v>
       </c>
       <c r="E164" s="34">
@@ -8969,17 +8966,17 @@
       <c r="F164" s="33">
         <v>-2684.408198961940</v>
       </c>
-      <c r="G164" t="s" s="64">
+      <c r="G164" t="s" s="62">
         <v>214</v>
       </c>
-      <c r="H164" t="s" s="65">
+      <c r="H164" t="s" s="63">
         <v>208</v>
       </c>
-      <c r="I164" s="53">
+      <c r="I164" s="52">
         <v>0.0004943618049999999</v>
       </c>
-      <c r="J164" s="38"/>
-      <c r="K164" t="s" s="65">
+      <c r="J164" s="37"/>
+      <c r="K164" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -8991,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="C165" s="35"/>
-      <c r="D165" s="79">
+      <c r="D165" s="77">
         <v>2.75</v>
       </c>
       <c r="E165" s="34">
@@ -9000,11 +8997,11 @@
       <c r="F165" s="33">
         <v>-2823.2802234899</v>
       </c>
-      <c r="G165" s="64"/>
-      <c r="H165" s="64"/>
+      <c r="G165" s="62"/>
+      <c r="H165" s="62"/>
       <c r="I165" s="35"/>
-      <c r="J165" s="38"/>
-      <c r="K165" t="s" s="65">
+      <c r="J165" s="37"/>
+      <c r="K165" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9015,23 +9012,23 @@
       <c r="B166" t="s" s="31">
         <v>79</v>
       </c>
-      <c r="C166" s="81"/>
-      <c r="D166" s="79">
+      <c r="C166" s="79"/>
+      <c r="D166" s="77">
         <v>2.62</v>
       </c>
       <c r="E166" s="34">
         <v>11</v>
       </c>
-      <c r="F166" s="78">
+      <c r="F166" s="76">
         <v>-2301.254907186240</v>
       </c>
-      <c r="G166" s="64"/>
-      <c r="H166" s="64"/>
-      <c r="I166" s="81"/>
+      <c r="G166" s="62"/>
+      <c r="H166" s="62"/>
+      <c r="I166" s="79"/>
       <c r="J166" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K166" t="s" s="65">
+      <c r="K166" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9043,7 +9040,7 @@
         <v>82</v>
       </c>
       <c r="C167" s="35"/>
-      <c r="D167" s="79">
+      <c r="D167" s="77">
         <v>2.42</v>
       </c>
       <c r="E167" s="34">
@@ -9052,11 +9049,11 @@
       <c r="F167" s="33">
         <v>-2413.969938555440</v>
       </c>
-      <c r="G167" s="64"/>
-      <c r="H167" s="64"/>
+      <c r="G167" s="62"/>
+      <c r="H167" s="62"/>
       <c r="I167" s="35"/>
-      <c r="J167" s="38"/>
-      <c r="K167" t="s" s="65">
+      <c r="J167" s="37"/>
+      <c r="K167" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9068,7 +9065,7 @@
         <v>85</v>
       </c>
       <c r="C168" s="35"/>
-      <c r="D168" s="79">
+      <c r="D168" s="77">
         <v>2.09</v>
       </c>
       <c r="E168" s="34">
@@ -9077,13 +9074,13 @@
       <c r="F168" s="33">
         <v>-2533.103003668670</v>
       </c>
-      <c r="G168" s="64"/>
-      <c r="H168" s="64"/>
+      <c r="G168" s="62"/>
+      <c r="H168" s="62"/>
       <c r="I168" s="35"/>
       <c r="J168" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K168" t="s" s="65">
+      <c r="K168" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9095,7 +9092,7 @@
         <v>88</v>
       </c>
       <c r="C169" s="35"/>
-      <c r="D169" s="79">
+      <c r="D169" s="77">
         <v>2.09</v>
       </c>
       <c r="E169" s="34">
@@ -9104,13 +9101,13 @@
       <c r="F169" s="33">
         <v>-2658.696552411320</v>
       </c>
-      <c r="G169" s="64"/>
-      <c r="H169" s="64"/>
+      <c r="G169" s="62"/>
+      <c r="H169" s="62"/>
       <c r="I169" s="35"/>
       <c r="J169" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K169" t="s" s="65">
+      <c r="K169" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9122,7 +9119,7 @@
         <v>91</v>
       </c>
       <c r="C170" s="35"/>
-      <c r="D170" s="79">
+      <c r="D170" s="77">
         <v>2.37</v>
       </c>
       <c r="E170" s="34">
@@ -9131,11 +9128,11 @@
       <c r="F170" s="33">
         <v>-2790.910268462920</v>
       </c>
-      <c r="G170" s="64"/>
-      <c r="H170" s="64"/>
+      <c r="G170" s="62"/>
+      <c r="H170" s="62"/>
       <c r="I170" s="35"/>
-      <c r="J170" s="38"/>
-      <c r="K170" t="s" s="65">
+      <c r="J170" s="37"/>
+      <c r="K170" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9147,7 +9144,7 @@
         <v>94</v>
       </c>
       <c r="C171" s="35"/>
-      <c r="D171" s="79">
+      <c r="D171" s="77">
         <v>2.99</v>
       </c>
       <c r="E171" s="34">
@@ -9156,11 +9153,11 @@
       <c r="F171" s="33">
         <v>-2929.770533213730</v>
       </c>
-      <c r="G171" s="64"/>
-      <c r="H171" s="64"/>
+      <c r="G171" s="62"/>
+      <c r="H171" s="62"/>
       <c r="I171" s="35"/>
-      <c r="J171" s="38"/>
-      <c r="K171" t="s" s="65">
+      <c r="J171" s="37"/>
+      <c r="K171" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9171,33 +9168,33 @@
       <c r="B172" t="s" s="31">
         <v>82</v>
       </c>
-      <c r="C172" s="78">
+      <c r="C172" s="76">
         <f>-0.0428685258964143+300*2.194*10^(-5)</f>
         <v>-0.0362865258964143</v>
       </c>
-      <c r="D172" s="79">
+      <c r="D172" s="77">
         <v>2.2</v>
       </c>
       <c r="E172" s="34">
         <v>7</v>
       </c>
-      <c r="F172" s="78">
+      <c r="F172" s="76">
         <v>-2526.691952292330</v>
       </c>
-      <c r="G172" t="s" s="65">
+      <c r="G172" t="s" s="63">
         <v>215</v>
       </c>
-      <c r="H172" t="s" s="67">
+      <c r="H172" t="s" s="65">
         <v>201</v>
       </c>
-      <c r="I172" s="80">
+      <c r="I172" s="78">
         <f>300*2.194*10^(-5)</f>
         <v>0.006582</v>
       </c>
       <c r="J172" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="K172" t="s" s="65">
+      <c r="K172" t="s" s="63">
         <v>207</v>
       </c>
     </row>
@@ -9209,7 +9206,7 @@
         <v>85</v>
       </c>
       <c r="C173" s="35"/>
-      <c r="D173" s="79">
+      <c r="D173" s="77">
         <v>1.96</v>
       </c>
       <c r="E173" s="34">
@@ -9218,13 +9215,13 @@
       <c r="F173" s="33">
         <v>-2645.821342475190</v>
       </c>
-      <c r="G173" s="64"/>
-      <c r="H173" s="64"/>
+      <c r="G173" s="62"/>
+      <c r="H173" s="62"/>
       <c r="I173" s="35"/>
       <c r="J173" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="K173" t="s" s="65">
+      <c r="K173" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9236,7 +9233,7 @@
         <v>88</v>
       </c>
       <c r="C174" s="35"/>
-      <c r="D174" s="79">
+      <c r="D174" s="77">
         <v>2.07</v>
       </c>
       <c r="E174" s="34">
@@ -9245,13 +9242,13 @@
       <c r="F174" s="33">
         <v>-2771.399824003370</v>
       </c>
-      <c r="G174" s="64"/>
-      <c r="H174" s="64"/>
+      <c r="G174" s="62"/>
+      <c r="H174" s="62"/>
       <c r="I174" s="35"/>
       <c r="J174" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="K174" t="s" s="65">
+      <c r="K174" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9263,7 +9260,7 @@
         <v>91</v>
       </c>
       <c r="C175" s="35"/>
-      <c r="D175" s="79">
+      <c r="D175" s="77">
         <v>2.31</v>
       </c>
       <c r="E175" s="34">
@@ -9272,13 +9269,13 @@
       <c r="F175" s="33">
         <v>-2903.609865124610</v>
       </c>
-      <c r="G175" s="64"/>
-      <c r="H175" s="64"/>
+      <c r="G175" s="62"/>
+      <c r="H175" s="62"/>
       <c r="I175" s="35"/>
       <c r="J175" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K175" t="s" s="65">
+      <c r="K175" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9290,7 +9287,7 @@
         <v>94</v>
       </c>
       <c r="C176" s="35"/>
-      <c r="D176" s="79">
+      <c r="D176" s="77">
         <v>2.53</v>
       </c>
       <c r="E176" s="34">
@@ -9299,13 +9296,13 @@
       <c r="F176" s="33">
         <v>-3042.521578900460</v>
       </c>
-      <c r="G176" s="64"/>
-      <c r="H176" s="64"/>
+      <c r="G176" s="62"/>
+      <c r="H176" s="62"/>
       <c r="I176" s="35"/>
       <c r="J176" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K176" t="s" s="65">
+      <c r="K176" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9316,33 +9313,33 @@
       <c r="B177" t="s" s="31">
         <v>85</v>
       </c>
-      <c r="C177" s="78">
+      <c r="C177" s="76">
         <f>-0.0627888446215139+297*2.194*10^(-5)</f>
         <v>-0.0562726646215139</v>
       </c>
-      <c r="D177" s="79">
+      <c r="D177" s="77">
         <v>1.98</v>
       </c>
       <c r="E177" s="34">
         <v>5</v>
       </c>
-      <c r="F177" s="78">
+      <c r="F177" s="76">
         <v>-2764.935297950550</v>
       </c>
-      <c r="G177" t="s" s="65">
+      <c r="G177" t="s" s="63">
         <v>217</v>
       </c>
-      <c r="H177" t="s" s="67">
+      <c r="H177" t="s" s="65">
         <v>201</v>
       </c>
-      <c r="I177" s="80">
+      <c r="I177" s="78">
         <f>297*2.194*10^(-5)</f>
         <v>0.00651618</v>
       </c>
       <c r="J177" t="s" s="12">
         <v>209</v>
       </c>
-      <c r="K177" t="s" s="65">
+      <c r="K177" t="s" s="63">
         <v>218</v>
       </c>
     </row>
@@ -9354,7 +9351,7 @@
         <v>88</v>
       </c>
       <c r="C178" s="35"/>
-      <c r="D178" s="79">
+      <c r="D178" s="77">
         <v>2.1</v>
       </c>
       <c r="E178" s="34">
@@ -9363,13 +9360,13 @@
       <c r="F178" s="33">
         <v>-2890.514881957830</v>
       </c>
-      <c r="G178" s="64"/>
-      <c r="H178" s="64"/>
+      <c r="G178" s="62"/>
+      <c r="H178" s="62"/>
       <c r="I178" s="35"/>
       <c r="J178" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="K178" t="s" s="65">
+      <c r="K178" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9383,7 +9380,7 @@
       <c r="C179" s="33">
         <v>-0.0606363509411497</v>
       </c>
-      <c r="D179" s="79">
+      <c r="D179" s="77">
         <v>2.26</v>
       </c>
       <c r="E179" s="34">
@@ -9392,19 +9389,19 @@
       <c r="F179" s="33">
         <v>-3022.739255307470</v>
       </c>
-      <c r="G179" t="s" s="64">
+      <c r="G179" t="s" s="62">
         <v>214</v>
       </c>
-      <c r="H179" t="s" s="65">
+      <c r="H179" t="s" s="63">
         <v>208</v>
       </c>
-      <c r="I179" s="53">
+      <c r="I179" s="52">
         <v>0.000551315930</v>
       </c>
       <c r="J179" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="K179" t="s" s="65">
+      <c r="K179" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9416,7 +9413,7 @@
         <v>94</v>
       </c>
       <c r="C180" s="35"/>
-      <c r="D180" s="79">
+      <c r="D180" s="77">
         <v>2.44</v>
       </c>
       <c r="E180" s="34">
@@ -9425,13 +9422,13 @@
       <c r="F180" s="33">
         <v>-3161.606869919</v>
       </c>
-      <c r="G180" s="64"/>
-      <c r="H180" s="64"/>
+      <c r="G180" s="62"/>
+      <c r="H180" s="62"/>
       <c r="I180" s="35"/>
       <c r="J180" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="K180" t="s" s="65">
+      <c r="K180" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9442,31 +9439,31 @@
       <c r="B181" t="s" s="31">
         <v>88</v>
       </c>
-      <c r="C181" s="78">
+      <c r="C181" s="76">
         <f>-0.079203187250996+259*2.194*10^(-5)</f>
         <v>-0.073520727250996</v>
       </c>
-      <c r="D181" s="79">
+      <c r="D181" s="77">
         <v>2.11</v>
       </c>
       <c r="E181" s="34">
         <v>3</v>
       </c>
-      <c r="F181" s="78">
+      <c r="F181" s="76">
         <v>-3016.095200951180</v>
       </c>
-      <c r="G181" t="s" s="65">
+      <c r="G181" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="H181" t="s" s="67">
+      <c r="H181" t="s" s="65">
         <v>201</v>
       </c>
-      <c r="I181" s="80">
+      <c r="I181" s="78">
         <f>259*2.194*10^(-5)</f>
         <v>0.00568246</v>
       </c>
-      <c r="J181" s="38"/>
-      <c r="K181" t="s" s="65">
+      <c r="J181" s="37"/>
+      <c r="K181" t="s" s="63">
         <v>203</v>
       </c>
     </row>
@@ -9480,7 +9477,7 @@
       <c r="C182" s="33">
         <v>-0.07533607238142841</v>
       </c>
-      <c r="D182" s="79">
+      <c r="D182" s="77">
         <v>2.25</v>
       </c>
       <c r="E182" s="34">
@@ -9489,19 +9486,19 @@
       <c r="F182" s="33">
         <v>-3148.319941793860</v>
       </c>
-      <c r="G182" t="s" s="64">
+      <c r="G182" t="s" s="62">
         <v>214</v>
       </c>
-      <c r="H182" t="s" s="65">
+      <c r="H182" t="s" s="63">
         <v>181</v>
       </c>
-      <c r="I182" s="53">
+      <c r="I182" s="52">
         <v>0.000578653910</v>
       </c>
       <c r="J182" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="K182" t="s" s="65">
+      <c r="K182" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9513,7 +9510,7 @@
         <v>94</v>
       </c>
       <c r="C183" s="35"/>
-      <c r="D183" s="79">
+      <c r="D183" s="77">
         <v>2.39</v>
       </c>
       <c r="E183" s="34">
@@ -9522,11 +9519,11 @@
       <c r="F183" s="33">
         <v>-3287.183881475030</v>
       </c>
-      <c r="G183" s="64"/>
-      <c r="H183" s="64"/>
+      <c r="G183" s="62"/>
+      <c r="H183" s="62"/>
       <c r="I183" s="35"/>
-      <c r="J183" s="38"/>
-      <c r="K183" t="s" s="65">
+      <c r="J183" s="37"/>
+      <c r="K183" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9537,29 +9534,29 @@
       <c r="B184" t="s" s="31">
         <v>91</v>
       </c>
-      <c r="C184" s="78">
+      <c r="C184" s="76">
         <v>-0.0745816733067729</v>
       </c>
-      <c r="D184" s="79">
+      <c r="D184" s="77">
         <v>2.25</v>
       </c>
       <c r="E184" s="34">
         <v>1</v>
       </c>
-      <c r="F184" s="78">
+      <c r="F184" s="76">
         <v>-3280.564527260490</v>
       </c>
-      <c r="G184" t="s" s="64">
+      <c r="G184" t="s" s="62">
         <v>219</v>
       </c>
-      <c r="H184" t="s" s="64">
+      <c r="H184" t="s" s="62">
         <v>220</v>
       </c>
-      <c r="I184" t="s" s="82">
+      <c r="I184" t="s" s="80">
         <v>221</v>
       </c>
-      <c r="J184" s="38"/>
-      <c r="K184" t="s" s="65">
+      <c r="J184" s="37"/>
+      <c r="K184" t="s" s="63">
         <v>222</v>
       </c>
     </row>
@@ -9571,7 +9568,7 @@
         <v>94</v>
       </c>
       <c r="C185" s="35"/>
-      <c r="D185" s="79">
+      <c r="D185" s="77">
         <v>2.4</v>
       </c>
       <c r="E185" s="34">
@@ -9580,11 +9577,11 @@
       <c r="F185" s="33">
         <v>-3419.427364462550</v>
       </c>
-      <c r="G185" s="64"/>
-      <c r="H185" s="64"/>
+      <c r="G185" s="62"/>
+      <c r="H185" s="62"/>
       <c r="I185" s="35"/>
-      <c r="J185" s="38"/>
-      <c r="K185" t="s" s="65">
+      <c r="J185" s="37"/>
+      <c r="K185" t="s" s="63">
         <v>204</v>
       </c>
     </row>
@@ -9596,7 +9593,7 @@
         <v>94</v>
       </c>
       <c r="C186" s="35"/>
-      <c r="D186" s="79">
+      <c r="D186" s="77">
         <v>2.27</v>
       </c>
       <c r="E186" s="34">
@@ -9605,26 +9602,26 @@
       <c r="F186" s="33">
         <v>-3559.3166611632</v>
       </c>
-      <c r="G186" s="64"/>
-      <c r="H186" s="64"/>
+      <c r="G186" s="62"/>
+      <c r="H186" s="62"/>
       <c r="I186" s="35"/>
-      <c r="J186" s="38"/>
-      <c r="K186" t="s" s="65">
+      <c r="J186" s="37"/>
+      <c r="K186" t="s" s="63">
         <v>204</v>
       </c>
     </row>
     <row r="187" ht="20.35" customHeight="1">
-      <c r="A187" s="48"/>
-      <c r="B187" s="49"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="48"/>
       <c r="C187" s="35"/>
-      <c r="D187" s="73"/>
-      <c r="E187" s="38"/>
+      <c r="D187" s="71"/>
+      <c r="E187" s="37"/>
       <c r="F187" s="35"/>
-      <c r="G187" s="83"/>
-      <c r="H187" s="83"/>
+      <c r="G187" s="81"/>
+      <c r="H187" s="82"/>
       <c r="I187" s="35"/>
-      <c r="J187" s="38"/>
-      <c r="K187" s="84"/>
+      <c r="J187" s="37"/>
+      <c r="K187" s="83"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="30">
@@ -9643,17 +9640,17 @@
         <v>1</v>
       </c>
       <c r="F188" s="12"/>
-      <c r="G188" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H188" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I188" s="53">
+      <c r="G188" t="s" s="84">
+        <v>126</v>
+      </c>
+      <c r="H188" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I188" s="52">
         <v>0.01002668257965</v>
       </c>
       <c r="J188" s="12"/>
-      <c r="K188" t="s" s="39">
+      <c r="K188" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9667,24 +9664,24 @@
       <c r="C189" s="33">
         <v>-0.595450199203187</v>
       </c>
-      <c r="D189" s="86">
+      <c r="D189" s="85">
         <v>1.5949</v>
       </c>
       <c r="E189" s="34">
         <v>1</v>
       </c>
       <c r="F189" s="12"/>
-      <c r="G189" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H189" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I189" s="53">
+      <c r="G189" t="s" s="84">
+        <v>126</v>
+      </c>
+      <c r="H189" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I189" s="52">
         <v>0.00320230263225</v>
       </c>
       <c r="J189" s="12"/>
-      <c r="K189" t="s" s="39">
+      <c r="K189" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9698,24 +9695,24 @@
       <c r="C190" s="33">
         <v>-0.0419760956175299</v>
       </c>
-      <c r="D190" s="86">
+      <c r="D190" s="85">
         <v>2.6729</v>
       </c>
       <c r="E190" s="34">
         <v>1</v>
       </c>
       <c r="F190" s="12"/>
-      <c r="G190" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H190" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I190" s="53">
+      <c r="G190" t="s" s="84">
+        <v>126</v>
+      </c>
+      <c r="H190" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I190" s="52">
         <v>0.00080061552595</v>
       </c>
       <c r="J190" s="12"/>
-      <c r="K190" t="s" s="39">
+      <c r="K190" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9729,24 +9726,24 @@
       <c r="C191" s="33">
         <v>-0.576175298804781</v>
       </c>
-      <c r="D191" s="86">
+      <c r="D191" s="85">
         <v>1.3426</v>
       </c>
       <c r="E191" s="34">
         <v>2</v>
       </c>
-      <c r="F191" s="62"/>
-      <c r="G191" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H191" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I191" s="53">
+      <c r="F191" s="60"/>
+      <c r="G191" t="s" s="84">
+        <v>126</v>
+      </c>
+      <c r="H191" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I191" s="52">
         <v>0.0046947968687</v>
       </c>
-      <c r="J191" s="62"/>
-      <c r="K191" t="s" s="39">
+      <c r="J191" s="60"/>
+      <c r="K191" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9760,24 +9757,24 @@
       <c r="C192" s="33">
         <v>-0.0112828685258964</v>
       </c>
-      <c r="D192" s="86">
+      <c r="D192" s="85">
         <v>2.59</v>
       </c>
       <c r="E192" s="34">
         <v>2</v>
       </c>
       <c r="F192" s="12"/>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="40">
+        <v>126</v>
+      </c>
+      <c r="H192" t="s" s="69">
         <v>224</v>
-      </c>
-      <c r="H192" t="s" s="12">
-        <v>225</v>
       </c>
       <c r="I192" s="33">
         <v>0.000672058675</v>
       </c>
       <c r="J192" s="12"/>
-      <c r="K192" t="s" s="39">
+      <c r="K192" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9791,24 +9788,24 @@
       <c r="C193" s="33">
         <v>-0.0224701195219124</v>
       </c>
-      <c r="D193" s="86">
+      <c r="D193" s="85">
         <v>2.41</v>
       </c>
       <c r="E193" s="34">
         <v>1</v>
       </c>
       <c r="F193" s="12"/>
-      <c r="G193" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H193" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I193" s="53">
+      <c r="G193" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H193" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I193" s="52">
         <v>0.000667502345</v>
       </c>
       <c r="J193" s="12"/>
-      <c r="K193" t="s" s="39">
+      <c r="K193" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9822,24 +9819,24 @@
       <c r="C194" s="33">
         <v>-0.629498007968127</v>
       </c>
-      <c r="D194" s="86">
+      <c r="D194" s="85">
         <v>1.2324</v>
       </c>
       <c r="E194" s="34">
         <v>1</v>
       </c>
-      <c r="F194" s="62"/>
-      <c r="G194" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H194" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I194" s="53">
+      <c r="F194" s="60"/>
+      <c r="G194" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H194" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I194" s="52">
         <v>0.0053921887385</v>
       </c>
-      <c r="J194" s="62"/>
-      <c r="K194" t="s" s="39">
+      <c r="J194" s="60"/>
+      <c r="K194" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9853,24 +9850,24 @@
       <c r="C195" s="33">
         <v>-0.113115537848606</v>
       </c>
-      <c r="D195" s="86">
+      <c r="D195" s="85">
         <v>1.59</v>
       </c>
       <c r="E195" s="34">
         <v>3</v>
       </c>
-      <c r="F195" s="62"/>
-      <c r="G195" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H195" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I195" s="53">
+      <c r="F195" s="60"/>
+      <c r="G195" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H195" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I195" s="52">
         <v>0.0023950348645</v>
       </c>
-      <c r="J195" s="62"/>
-      <c r="K195" t="s" s="39">
+      <c r="J195" s="60"/>
+      <c r="K195" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9884,24 +9881,24 @@
       <c r="C196" s="33">
         <v>-0.628892430278884</v>
       </c>
-      <c r="D196" s="86">
+      <c r="D196" s="85">
         <v>1.1199</v>
       </c>
       <c r="E196" s="34">
         <v>2</v>
       </c>
-      <c r="F196" s="62"/>
-      <c r="G196" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H196" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I196" s="53">
+      <c r="F196" s="60"/>
+      <c r="G196" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H196" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I196" s="52">
         <v>0.0065121346525</v>
       </c>
-      <c r="J196" s="62"/>
-      <c r="K196" t="s" s="39">
+      <c r="J196" s="60"/>
+      <c r="K196" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9915,24 +9912,24 @@
       <c r="C197" s="33">
         <v>-0.170629482071713</v>
       </c>
-      <c r="D197" s="86">
+      <c r="D197" s="85">
         <v>1.501</v>
       </c>
       <c r="E197" s="34">
         <v>4</v>
       </c>
-      <c r="F197" s="62"/>
-      <c r="G197" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H197" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I197" s="53">
+      <c r="F197" s="60"/>
+      <c r="G197" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H197" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I197" s="52">
         <v>0.0025971081</v>
       </c>
-      <c r="J197" s="62"/>
-      <c r="K197" t="s" s="39">
+      <c r="J197" s="60"/>
+      <c r="K197" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9946,24 +9943,24 @@
       <c r="C198" s="33">
         <v>-0.231203187250996</v>
       </c>
-      <c r="D198" s="86">
+      <c r="D198" s="85">
         <v>1.2425</v>
       </c>
       <c r="E198" s="34">
         <v>1</v>
       </c>
-      <c r="F198" s="62"/>
-      <c r="G198" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H198" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I198" s="53">
+      <c r="F198" s="60"/>
+      <c r="G198" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H198" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I198" s="52">
         <v>0.00422533540715</v>
       </c>
-      <c r="J198" s="62"/>
-      <c r="K198" t="s" s="39">
+      <c r="J198" s="60"/>
+      <c r="K198" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -9984,18 +9981,18 @@
       <c r="E199" s="34">
         <v>3</v>
       </c>
-      <c r="F199" s="62"/>
-      <c r="G199" t="s" s="85">
-        <v>226</v>
-      </c>
-      <c r="H199" t="s" s="43">
+      <c r="F199" s="60"/>
+      <c r="G199" t="s" s="86">
+        <v>225</v>
+      </c>
+      <c r="H199" t="s" s="42">
         <v>226</v>
       </c>
       <c r="I199" t="s" s="88">
         <v>227</v>
       </c>
-      <c r="J199" s="62"/>
-      <c r="K199" t="s" s="39">
+      <c r="J199" s="60"/>
+      <c r="K199" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10009,24 +10006,24 @@
       <c r="C200" s="33">
         <v>-0.148159362549801</v>
       </c>
-      <c r="D200" s="86">
+      <c r="D200" s="85">
         <v>1.281</v>
       </c>
       <c r="E200" s="34">
         <v>3</v>
       </c>
-      <c r="F200" s="62"/>
-      <c r="G200" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H200" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I200" s="53">
+      <c r="F200" s="60"/>
+      <c r="G200" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H200" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I200" s="52">
         <v>0.003450508709</v>
       </c>
-      <c r="J200" s="62"/>
-      <c r="K200" t="s" s="39">
+      <c r="J200" s="60"/>
+      <c r="K200" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10040,24 +10037,24 @@
       <c r="C201" s="33">
         <v>-0.287298804780876</v>
       </c>
-      <c r="D201" s="86">
+      <c r="D201" s="85">
         <v>1.17181</v>
       </c>
       <c r="E201" s="34">
         <v>2</v>
       </c>
-      <c r="F201" s="62"/>
-      <c r="G201" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H201" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I201" s="33">
+      <c r="F201" s="60"/>
+      <c r="G201" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H201" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I201" s="52">
         <v>0.00471258933735</v>
       </c>
-      <c r="J201" s="62"/>
-      <c r="K201" t="s" s="39">
+      <c r="J201" s="60"/>
+      <c r="K201" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10071,24 +10068,24 @@
       <c r="C202" s="33">
         <v>-0.36006374501992</v>
       </c>
-      <c r="D202" s="86">
+      <c r="D202" s="85">
         <v>1.09769</v>
       </c>
       <c r="E202" s="34">
         <v>1</v>
       </c>
-      <c r="F202" s="62"/>
-      <c r="G202" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H202" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I202" s="33">
+      <c r="F202" s="60"/>
+      <c r="G202" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H202" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I202" s="52">
         <v>0.00537321162405</v>
       </c>
-      <c r="J202" s="62"/>
-      <c r="K202" t="s" s="39">
+      <c r="J202" s="60"/>
+      <c r="K202" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10102,24 +10099,24 @@
       <c r="C203" s="33">
         <v>-0.662868525896414</v>
       </c>
-      <c r="D203" s="86">
+      <c r="D203" s="85">
         <v>0.96966</v>
       </c>
       <c r="E203" s="34">
         <v>2</v>
       </c>
-      <c r="F203" s="62"/>
-      <c r="G203" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H203" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I203" s="33">
+      <c r="F203" s="60"/>
+      <c r="G203" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H203" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I203" s="52">
         <v>0.0085106776804</v>
       </c>
-      <c r="J203" s="62"/>
-      <c r="K203" t="s" s="39">
+      <c r="J203" s="60"/>
+      <c r="K203" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10133,24 +10130,24 @@
       <c r="C204" s="33">
         <v>-0.127027888446215</v>
       </c>
-      <c r="D204" s="86">
+      <c r="D204" s="85">
         <v>1.68822</v>
       </c>
       <c r="E204" s="34">
         <v>2</v>
       </c>
-      <c r="F204" s="62"/>
-      <c r="G204" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H204" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I204" s="33">
+      <c r="F204" s="60"/>
+      <c r="G204" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H204" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I204" s="52">
         <v>0.0018558387723</v>
       </c>
-      <c r="J204" s="62"/>
-      <c r="K204" t="s" s="39">
+      <c r="J204" s="60"/>
+      <c r="K204" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10164,24 +10161,24 @@
       <c r="C205" s="33">
         <v>-0.165577689243028</v>
       </c>
-      <c r="D205" s="86">
+      <c r="D205" s="85">
         <v>1.3309</v>
       </c>
       <c r="E205" s="34">
         <v>1</v>
       </c>
-      <c r="F205" s="62"/>
-      <c r="G205" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H205" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I205" s="33">
+      <c r="F205" s="60"/>
+      <c r="G205" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H205" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I205" s="52">
         <v>0.0033883603678</v>
       </c>
-      <c r="J205" s="62"/>
-      <c r="K205" t="s" s="39">
+      <c r="J205" s="60"/>
+      <c r="K205" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10195,24 +10192,24 @@
       <c r="C206" s="33">
         <v>-0.30806374501992</v>
       </c>
-      <c r="D206" s="86">
+      <c r="D206" s="85">
         <v>1.2045</v>
       </c>
       <c r="E206" s="34">
         <v>2</v>
       </c>
-      <c r="F206" s="62"/>
-      <c r="G206" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H206" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I206" s="33">
+      <c r="F206" s="60"/>
+      <c r="G206" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H206" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I206" s="52">
         <v>0.00429591295885</v>
       </c>
-      <c r="J206" s="62"/>
-      <c r="K206" t="s" s="39">
+      <c r="J206" s="60"/>
+      <c r="K206" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10226,24 +10223,24 @@
       <c r="C207" s="33">
         <v>-0.41002390438247</v>
       </c>
-      <c r="D207" s="86">
+      <c r="D207" s="85">
         <v>1.12823</v>
       </c>
       <c r="E207" s="34">
         <v>1</v>
       </c>
-      <c r="F207" s="62"/>
-      <c r="G207" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H207" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I207" s="33">
+      <c r="F207" s="60"/>
+      <c r="G207" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H207" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I207" s="52">
         <v>0.00494318519865</v>
       </c>
-      <c r="J207" s="62"/>
-      <c r="K207" t="s" s="39">
+      <c r="J207" s="60"/>
+      <c r="K207" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10257,24 +10254,24 @@
       <c r="C208" s="33">
         <v>-0.240175298804781</v>
       </c>
-      <c r="D208" s="86">
+      <c r="D208" s="85">
         <v>1.15077</v>
       </c>
       <c r="E208" s="34">
         <v>2</v>
       </c>
-      <c r="F208" s="62"/>
-      <c r="G208" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H208" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I208" s="33">
+      <c r="F208" s="60"/>
+      <c r="G208" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H208" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I208" s="52">
         <v>0.004338081793</v>
       </c>
-      <c r="J208" s="62"/>
-      <c r="K208" t="s" s="39">
+      <c r="J208" s="60"/>
+      <c r="K208" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10288,24 +10285,24 @@
       <c r="C209" s="33">
         <v>-0.189816733067729</v>
       </c>
-      <c r="D209" s="86">
+      <c r="D209" s="85">
         <v>1.20752</v>
       </c>
       <c r="E209" s="34">
         <v>3</v>
       </c>
-      <c r="F209" s="62"/>
-      <c r="G209" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H209" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I209" s="33">
+      <c r="F209" s="60"/>
+      <c r="G209" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H209" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I209" s="52">
         <v>0.00359993355135</v>
       </c>
-      <c r="J209" s="62"/>
-      <c r="K209" t="s" s="39">
+      <c r="J209" s="60"/>
+      <c r="K209" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10319,24 +10316,24 @@
       <c r="C210" s="33">
         <v>-0.717051792828685</v>
       </c>
-      <c r="D210" s="86">
+      <c r="D210" s="85">
         <v>0.91694</v>
       </c>
       <c r="E210" s="34">
         <v>1</v>
       </c>
-      <c r="F210" s="62"/>
-      <c r="G210" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H210" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I210" s="33">
+      <c r="F210" s="60"/>
+      <c r="G210" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H210" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I210" s="52">
         <v>0.0094277757828</v>
       </c>
-      <c r="J210" s="62"/>
-      <c r="K210" t="s" s="39">
+      <c r="J210" s="60"/>
+      <c r="K210" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10350,24 +10347,24 @@
       <c r="C211" s="33">
         <v>-0.216414342629482</v>
       </c>
-      <c r="D211" s="86">
+      <c r="D211" s="85">
         <v>1.56386</v>
       </c>
       <c r="E211" s="34">
         <v>1</v>
       </c>
-      <c r="F211" s="62"/>
-      <c r="G211" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H211" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I211" s="33">
+      <c r="F211" s="60"/>
+      <c r="G211" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H211" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I211" s="52">
         <v>0.00207442870405</v>
       </c>
-      <c r="J211" s="62"/>
-      <c r="K211" t="s" s="39">
+      <c r="J211" s="60"/>
+      <c r="K211" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10381,24 +10378,24 @@
       <c r="C212" s="33">
         <v>-0.219776892430279</v>
       </c>
-      <c r="D212" s="86">
+      <c r="D212" s="85">
         <v>1.361</v>
       </c>
       <c r="E212" s="34">
         <v>2</v>
       </c>
-      <c r="F212" s="62"/>
-      <c r="G212" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H212" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I212" s="33">
+      <c r="F212" s="60"/>
+      <c r="G212" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H212" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I212" s="52">
         <v>0.0028416918944</v>
       </c>
-      <c r="J212" s="62"/>
-      <c r="K212" t="s" s="39">
+      <c r="J212" s="60"/>
+      <c r="K212" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10412,24 +10409,24 @@
       <c r="C213" s="33">
         <v>-0.288334661354582</v>
       </c>
-      <c r="D213" s="86">
+      <c r="D213" s="85">
         <v>1.26267</v>
       </c>
       <c r="E213" s="34">
         <v>1</v>
       </c>
-      <c r="F213" s="62"/>
-      <c r="G213" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H213" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I213" s="33">
+      <c r="F213" s="60"/>
+      <c r="G213" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H213" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I213" s="52">
         <v>0.0031942151465</v>
       </c>
-      <c r="J213" s="62"/>
-      <c r="K213" t="s" s="39">
+      <c r="J213" s="60"/>
+      <c r="K213" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10443,24 +10440,24 @@
       <c r="C214" s="33">
         <v>-0.210247011952191</v>
       </c>
-      <c r="D214" s="86">
+      <c r="D214" s="85">
         <v>1.2718</v>
       </c>
       <c r="E214" s="34">
         <v>2</v>
       </c>
-      <c r="F214" s="62"/>
-      <c r="G214" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H214" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I214" s="33">
+      <c r="F214" s="60"/>
+      <c r="G214" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H214" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I214" s="52">
         <v>0.0029800676365</v>
       </c>
-      <c r="J214" s="62"/>
-      <c r="K214" t="s" s="39">
+      <c r="J214" s="60"/>
+      <c r="K214" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10474,24 +10471,24 @@
       <c r="C215" s="33">
         <v>-0.130645418326693</v>
       </c>
-      <c r="D215" s="86">
+      <c r="D215" s="85">
         <v>1.317</v>
       </c>
       <c r="E215" s="34">
         <v>3</v>
       </c>
-      <c r="F215" s="62"/>
-      <c r="G215" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H215" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I215" s="33">
+      <c r="F215" s="60"/>
+      <c r="G215" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H215" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I215" s="52">
         <v>0.00260022918605</v>
       </c>
-      <c r="J215" s="62"/>
-      <c r="K215" t="s" s="39">
+      <c r="J215" s="60"/>
+      <c r="K215" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10505,24 +10502,24 @@
       <c r="C216" s="33">
         <v>-0.08455776892430281</v>
       </c>
-      <c r="D216" s="86">
+      <c r="D216" s="85">
         <v>1.358</v>
       </c>
       <c r="E216" s="34">
         <v>2</v>
       </c>
-      <c r="F216" s="62"/>
-      <c r="G216" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H216" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I216" s="33">
+      <c r="F216" s="60"/>
+      <c r="G216" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H216" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I216" s="52">
         <v>0.002353344445</v>
       </c>
-      <c r="J216" s="62"/>
-      <c r="K216" t="s" s="39">
+      <c r="J216" s="60"/>
+      <c r="K216" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10536,24 +10533,24 @@
       <c r="C217" s="33">
         <v>-0.0604780876494024</v>
       </c>
-      <c r="D217" s="86">
+      <c r="D217" s="85">
         <v>1.41193</v>
       </c>
       <c r="E217" s="34">
         <v>1</v>
       </c>
-      <c r="F217" s="62"/>
-      <c r="G217" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H217" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I217" s="33">
+      <c r="F217" s="60"/>
+      <c r="G217" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H217" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I217" s="52">
         <v>0.0020882571656</v>
       </c>
-      <c r="J217" s="62"/>
-      <c r="K217" t="s" s="39">
+      <c r="J217" s="60"/>
+      <c r="K217" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10567,24 +10564,24 @@
       <c r="C218" s="33">
         <v>-0.570725099601594</v>
       </c>
-      <c r="D218" s="86">
+      <c r="D218" s="85">
         <v>1.88654</v>
       </c>
       <c r="E218" s="34">
         <v>1</v>
       </c>
-      <c r="F218" s="62"/>
-      <c r="G218" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H218" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I218" s="33">
+      <c r="F218" s="60"/>
+      <c r="G218" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H218" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I218" s="52">
         <v>0.002670465013</v>
       </c>
-      <c r="J218" s="62"/>
-      <c r="K218" t="s" s="39">
+      <c r="J218" s="60"/>
+      <c r="K218" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10598,24 +10595,24 @@
       <c r="C219" s="33">
         <v>-0.0332111553784861</v>
       </c>
-      <c r="D219" s="86">
+      <c r="D219" s="85">
         <v>2.941</v>
       </c>
       <c r="E219" s="34">
         <v>1</v>
       </c>
-      <c r="F219" s="62"/>
-      <c r="G219" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H219" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I219" s="33">
+      <c r="F219" s="60"/>
+      <c r="G219" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H219" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I219" s="52">
         <v>0.000585032772</v>
       </c>
-      <c r="J219" s="62"/>
-      <c r="K219" t="s" s="39">
+      <c r="J219" s="60"/>
+      <c r="K219" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10629,24 +10626,24 @@
       <c r="C220" s="33">
         <v>-0.0975458167330677</v>
       </c>
-      <c r="D220" s="86">
+      <c r="D220" s="85">
         <v>2.056</v>
       </c>
       <c r="E220" s="34">
         <v>2</v>
       </c>
-      <c r="F220" s="62"/>
-      <c r="G220" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H220" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I220" s="33">
+      <c r="F220" s="60"/>
+      <c r="G220" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H220" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I220" s="52">
         <v>0.0011215406295</v>
       </c>
-      <c r="J220" s="62"/>
-      <c r="K220" t="s" s="39">
+      <c r="J220" s="60"/>
+      <c r="K220" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10660,24 +10657,24 @@
       <c r="C221" s="33">
         <v>-0.197673306772908</v>
       </c>
-      <c r="D221" s="86">
+      <c r="D221" s="85">
         <v>1.92595</v>
       </c>
       <c r="E221" s="34">
         <v>1</v>
       </c>
-      <c r="F221" s="62"/>
-      <c r="G221" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H221" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I221" s="33">
+      <c r="F221" s="60"/>
+      <c r="G221" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H221" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I221" s="52">
         <v>0.0012203218639</v>
       </c>
-      <c r="J221" s="62"/>
-      <c r="K221" t="s" s="39">
+      <c r="J221" s="60"/>
+      <c r="K221" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10691,24 +10688,24 @@
       <c r="C222" s="33">
         <v>-0.0274103585657371</v>
       </c>
-      <c r="D222" s="86">
+      <c r="D222" s="85">
         <v>3.08</v>
       </c>
       <c r="E222" s="34">
         <v>1</v>
       </c>
-      <c r="F222" s="62"/>
-      <c r="G222" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H222" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I222" s="33">
+      <c r="F222" s="60"/>
+      <c r="G222" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H222" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I222" s="52">
         <v>0.00036252439645</v>
       </c>
-      <c r="J222" s="62"/>
-      <c r="K222" t="s" s="39">
+      <c r="J222" s="60"/>
+      <c r="K222" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10722,24 +10719,24 @@
       <c r="C223" s="33">
         <v>-0.548143426294821</v>
       </c>
-      <c r="D223" s="86">
+      <c r="D223" s="85">
         <v>1.7297</v>
       </c>
       <c r="E223" s="34">
         <v>2</v>
       </c>
-      <c r="F223" s="62"/>
-      <c r="G223" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H223" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I223" s="33">
+      <c r="F223" s="60"/>
+      <c r="G223" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H223" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I223" s="52">
         <v>0.003406312308</v>
       </c>
-      <c r="J223" s="62"/>
-      <c r="K223" t="s" s="39">
+      <c r="J223" s="60"/>
+      <c r="K223" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10753,24 +10750,24 @@
       <c r="C224" s="33">
         <v>-0.0256733067729084</v>
       </c>
-      <c r="D224" s="86">
+      <c r="D224" s="85">
         <v>4.53</v>
       </c>
       <c r="E224" s="34">
         <v>2</v>
       </c>
-      <c r="F224" s="62"/>
-      <c r="G224" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H224" t="s" s="39">
+      <c r="F224" s="60"/>
+      <c r="G224" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H224" t="s" s="55">
         <v>228</v>
       </c>
-      <c r="I224" s="53">
+      <c r="I224" s="52">
         <v>0.000432851350</v>
       </c>
-      <c r="J224" s="62"/>
-      <c r="K224" t="s" s="39">
+      <c r="J224" s="60"/>
+      <c r="K224" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10784,24 +10781,24 @@
       <c r="C225" s="33">
         <v>-0.138342629482072</v>
       </c>
-      <c r="D225" s="86">
+      <c r="D225" s="85">
         <v>1.74838</v>
       </c>
       <c r="E225" s="34">
         <v>1</v>
       </c>
-      <c r="F225" s="62"/>
-      <c r="G225" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H225" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I225" s="53">
+      <c r="F225" s="60"/>
+      <c r="G225" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H225" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I225" s="52">
         <v>0.0017878583287</v>
       </c>
-      <c r="J225" s="62"/>
-      <c r="K225" t="s" s="39">
+      <c r="J225" s="60"/>
+      <c r="K225" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10815,24 +10812,24 @@
       <c r="C226" s="33">
         <v>-0.17593625498008</v>
       </c>
-      <c r="D226" s="86">
+      <c r="D226" s="85">
         <v>1.75</v>
       </c>
       <c r="E226" s="34">
         <v>2</v>
       </c>
-      <c r="F226" s="62"/>
-      <c r="G226" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H226" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I226" s="53">
+      <c r="F226" s="60"/>
+      <c r="G226" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H226" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I226" s="52">
         <v>0.001643923864</v>
       </c>
-      <c r="J226" s="62"/>
-      <c r="K226" t="s" s="39">
+      <c r="J226" s="60"/>
+      <c r="K226" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10846,24 +10843,24 @@
       <c r="C227" s="33">
         <v>-0.00325737051792829</v>
       </c>
-      <c r="D227" s="86">
+      <c r="D227" s="85">
         <v>3.891</v>
       </c>
       <c r="E227" s="34">
         <v>1</v>
       </c>
-      <c r="F227" s="62"/>
-      <c r="G227" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H227" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I227" s="53">
+      <c r="F227" s="60"/>
+      <c r="G227" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H227" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I227" s="52">
         <v>0.0001164597948</v>
       </c>
-      <c r="J227" s="62"/>
-      <c r="K227" t="s" s="39">
+      <c r="J227" s="60"/>
+      <c r="K227" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10877,24 +10874,24 @@
       <c r="C228" s="33">
         <v>-0.608509960159363</v>
       </c>
-      <c r="D228" s="86">
+      <c r="D228" s="85">
         <v>1.6478</v>
       </c>
       <c r="E228" s="34">
         <v>1</v>
       </c>
-      <c r="F228" s="62"/>
-      <c r="G228" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H228" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I228" s="53">
+      <c r="F228" s="60"/>
+      <c r="G228" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H228" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I228" s="52">
         <v>0.0038331493024</v>
       </c>
-      <c r="J228" s="62"/>
-      <c r="K228" t="s" s="39">
+      <c r="J228" s="60"/>
+      <c r="K228" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10908,24 +10905,24 @@
       <c r="C229" s="33">
         <v>-0.0669163346613546</v>
       </c>
-      <c r="D229" s="86">
+      <c r="D229" s="85">
         <v>2.869</v>
       </c>
       <c r="E229" s="34">
         <v>1</v>
       </c>
-      <c r="F229" s="62"/>
-      <c r="G229" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H229" t="s" s="39">
+      <c r="F229" s="60"/>
+      <c r="G229" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H229" t="s" s="55">
         <v>228</v>
       </c>
-      <c r="I229" s="53">
+      <c r="I229" s="52">
         <v>0.0007251399195</v>
       </c>
-      <c r="J229" s="62"/>
-      <c r="K229" t="s" s="39">
+      <c r="J229" s="60"/>
+      <c r="K229" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10939,24 +10936,24 @@
       <c r="C230" s="33">
         <v>-0.103426294820717</v>
       </c>
-      <c r="D230" s="86">
+      <c r="D230" s="85">
         <v>1.955</v>
       </c>
       <c r="E230" s="34">
         <v>4</v>
       </c>
-      <c r="F230" s="62"/>
-      <c r="G230" t="s" s="64">
+      <c r="F230" s="60"/>
+      <c r="G230" t="s" s="62">
         <v>220</v>
       </c>
-      <c r="H230" t="s" s="65">
+      <c r="H230" t="s" s="63">
         <v>220</v>
       </c>
-      <c r="I230" s="53">
+      <c r="I230" s="52">
         <v>0.0014564308845</v>
       </c>
-      <c r="J230" s="62"/>
-      <c r="K230" t="s" s="39">
+      <c r="J230" s="60"/>
+      <c r="K230" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10970,24 +10967,24 @@
       <c r="C231" s="33">
         <v>-0.113115537848606</v>
       </c>
-      <c r="D231" s="86">
+      <c r="D231" s="85">
         <v>1.79</v>
       </c>
       <c r="E231" s="34">
         <v>1</v>
       </c>
-      <c r="F231" s="62"/>
-      <c r="G231" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H231" t="s" s="56">
+      <c r="F231" s="60"/>
+      <c r="G231" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H231" t="s" s="55">
         <v>229</v>
       </c>
-      <c r="I231" s="53">
+      <c r="I231" s="52">
         <v>0.001701789255</v>
       </c>
-      <c r="J231" s="62"/>
-      <c r="K231" t="s" s="39">
+      <c r="J231" s="60"/>
+      <c r="K231" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11001,24 +10998,24 @@
       <c r="C232" s="33">
         <v>-0.194629482071713</v>
       </c>
-      <c r="D232" s="86">
+      <c r="D232" s="85">
         <v>1.6179</v>
       </c>
       <c r="E232" s="34">
         <v>2</v>
       </c>
-      <c r="F232" s="62"/>
-      <c r="G232" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H232" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I232" s="53">
+      <c r="F232" s="60"/>
+      <c r="G232" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H232" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I232" s="52">
         <v>0.00223084751295</v>
       </c>
-      <c r="J232" s="62"/>
-      <c r="K232" t="s" s="39">
+      <c r="J232" s="60"/>
+      <c r="K232" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11032,24 +11029,24 @@
       <c r="C233" s="33">
         <v>-0.252749003984064</v>
       </c>
-      <c r="D233" s="86">
+      <c r="D233" s="85">
         <v>1.65437</v>
       </c>
       <c r="E233" s="34">
         <v>1</v>
       </c>
-      <c r="F233" s="62"/>
-      <c r="G233" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H233" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I233" s="33">
+      <c r="F233" s="60"/>
+      <c r="G233" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H233" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I233" s="52">
         <v>0.0018277717795</v>
       </c>
-      <c r="J233" s="62"/>
-      <c r="K233" t="s" s="39">
+      <c r="J233" s="60"/>
+      <c r="K233" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11063,24 +11060,24 @@
       <c r="C234" s="33">
         <v>-0.0506613545816733</v>
       </c>
-      <c r="D234" s="86">
+      <c r="D234" s="85">
         <v>2.466</v>
       </c>
       <c r="E234" s="34">
         <v>3</v>
       </c>
-      <c r="F234" s="62"/>
-      <c r="G234" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H234" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I234" s="33">
+      <c r="F234" s="60"/>
+      <c r="G234" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H234" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I234" s="52">
         <v>0.0007973805316500001</v>
       </c>
-      <c r="J234" s="62"/>
-      <c r="K234" t="s" s="39">
+      <c r="J234" s="60"/>
+      <c r="K234" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11094,24 +11091,24 @@
       <c r="C235" s="33">
         <v>-0.0565737051792829</v>
       </c>
-      <c r="D235" s="86">
+      <c r="D235" s="85">
         <v>2.383</v>
       </c>
       <c r="E235" s="34">
         <v>4</v>
       </c>
-      <c r="F235" s="62"/>
-      <c r="G235" t="s" s="39">
+      <c r="F235" s="60"/>
+      <c r="G235" t="s" s="38">
         <v>230</v>
       </c>
-      <c r="H235" t="s" s="71">
+      <c r="H235" t="s" s="69">
         <v>231</v>
       </c>
       <c r="I235" s="33">
         <v>0.004651557297</v>
       </c>
-      <c r="J235" s="62"/>
-      <c r="K235" t="s" s="39">
+      <c r="J235" s="60"/>
+      <c r="K235" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11125,24 +11122,24 @@
       <c r="C236" s="33">
         <v>-0.109816733067729</v>
       </c>
-      <c r="D236" s="86">
+      <c r="D236" s="85">
         <v>1.918</v>
       </c>
       <c r="E236" s="34">
         <v>4</v>
       </c>
-      <c r="F236" s="62"/>
-      <c r="G236" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H236" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I236" s="53">
+      <c r="F236" s="60"/>
+      <c r="G236" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H236" t="s" s="89">
+        <v>126</v>
+      </c>
+      <c r="I236" s="52">
         <v>0.001669894945</v>
       </c>
-      <c r="J236" s="62"/>
-      <c r="K236" t="s" s="39">
+      <c r="J236" s="60"/>
+      <c r="K236" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11156,24 +11153,24 @@
       <c r="C237" s="33">
         <v>-0.17196812749004</v>
       </c>
-      <c r="D237" s="86">
+      <c r="D237" s="85">
         <v>1.72</v>
       </c>
       <c r="E237" s="34">
         <v>3</v>
       </c>
-      <c r="F237" s="62"/>
-      <c r="G237" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H237" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I237" s="53">
+      <c r="F237" s="60"/>
+      <c r="G237" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H237" t="s" s="89">
+        <v>126</v>
+      </c>
+      <c r="I237" s="52">
         <v>0.002223489040</v>
       </c>
-      <c r="J237" s="62"/>
-      <c r="K237" t="s" s="39">
+      <c r="J237" s="60"/>
+      <c r="K237" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11187,24 +11184,24 @@
       <c r="C238" s="33">
         <v>-0.179011952191235</v>
       </c>
-      <c r="D238" s="86">
+      <c r="D238" s="85">
         <v>1.572</v>
       </c>
       <c r="E238" s="34">
         <v>2</v>
       </c>
-      <c r="F238" s="62"/>
-      <c r="G238" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H238" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I238" s="53">
+      <c r="F238" s="60"/>
+      <c r="G238" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H238" t="s" s="89">
+        <v>126</v>
+      </c>
+      <c r="I238" s="52">
         <v>0.002623079181</v>
       </c>
-      <c r="J238" s="62"/>
-      <c r="K238" t="s" s="39">
+      <c r="J238" s="60"/>
+      <c r="K238" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11218,24 +11215,24 @@
       <c r="C239" s="33">
         <v>-0.304557768924303</v>
       </c>
-      <c r="D239" s="86">
+      <c r="D239" s="85">
         <v>1.50975</v>
       </c>
       <c r="E239" s="34">
         <v>1</v>
       </c>
-      <c r="F239" s="62"/>
-      <c r="G239" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H239" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I239" s="53">
+      <c r="F239" s="60"/>
+      <c r="G239" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H239" t="s" s="89">
+        <v>126</v>
+      </c>
+      <c r="I239" s="52">
         <v>0.0028284329741</v>
       </c>
-      <c r="J239" s="62"/>
-      <c r="K239" t="s" s="39">
+      <c r="J239" s="60"/>
+      <c r="K239" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11249,24 +11246,24 @@
       <c r="C240" s="33">
         <v>-0.210517928286853</v>
       </c>
-      <c r="D240" s="86">
+      <c r="D240" s="85">
         <v>1.6011</v>
       </c>
       <c r="E240" s="34">
         <v>2</v>
       </c>
-      <c r="F240" s="62"/>
-      <c r="G240" t="s" s="43">
+      <c r="F240" s="60"/>
+      <c r="G240" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H240" t="s" s="89">
         <v>126</v>
       </c>
-      <c r="I240" s="33">
+      <c r="I240" s="52">
         <v>0.00195282025635</v>
       </c>
-      <c r="J240" s="62"/>
-      <c r="K240" t="s" s="39">
+      <c r="J240" s="60"/>
+      <c r="K240" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11280,24 +11277,24 @@
       <c r="C241" s="33">
         <v>-0.0873306772908367</v>
       </c>
-      <c r="D241" s="86">
+      <c r="D241" s="85">
         <v>2.43</v>
       </c>
       <c r="E241" s="34">
         <v>4</v>
       </c>
-      <c r="F241" s="62"/>
-      <c r="G241" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="H241" t="s" s="56">
+      <c r="F241" s="60"/>
+      <c r="G241" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H241" t="s" s="55">
         <v>232</v>
       </c>
-      <c r="I241" s="53">
+      <c r="I241" s="52">
         <v>0.000872537195</v>
       </c>
-      <c r="J241" s="62"/>
-      <c r="K241" t="s" s="39">
+      <c r="J241" s="60"/>
+      <c r="K241" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11311,24 +11308,24 @@
       <c r="C242" s="33">
         <v>-0.124478087649402</v>
       </c>
-      <c r="D242" s="86">
+      <c r="D242" s="85">
         <v>2.246</v>
       </c>
       <c r="E242" s="34">
         <v>3</v>
       </c>
-      <c r="F242" s="62"/>
-      <c r="G242" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H242" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I242" s="53">
+      <c r="F242" s="60"/>
+      <c r="G242" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H242" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I242" s="52">
         <v>0.0011640967517</v>
       </c>
-      <c r="J242" s="62"/>
-      <c r="K242" t="s" s="39">
+      <c r="J242" s="60"/>
+      <c r="K242" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11342,24 +11339,24 @@
       <c r="C243" s="33">
         <v>-0.613115537848606</v>
       </c>
-      <c r="D243" s="86">
+      <c r="D243" s="85">
         <v>1.4214</v>
       </c>
       <c r="E243" s="34">
         <v>3</v>
       </c>
-      <c r="F243" s="62"/>
-      <c r="G243" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H243" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I243" s="53">
+      <c r="F243" s="60"/>
+      <c r="G243" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H243" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I243" s="52">
         <v>0.005388315858</v>
       </c>
-      <c r="J243" s="62"/>
-      <c r="K243" t="s" s="39">
+      <c r="J243" s="60"/>
+      <c r="K243" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11373,24 +11370,24 @@
       <c r="C244" s="33">
         <v>-0.132127490039841</v>
       </c>
-      <c r="D244" s="86">
+      <c r="D244" s="85">
         <v>1.7417</v>
       </c>
       <c r="E244" s="34">
         <v>3</v>
       </c>
-      <c r="F244" s="62"/>
-      <c r="G244" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H244" t="s" s="12">
+      <c r="F244" s="60"/>
+      <c r="G244" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H244" t="s" s="69">
         <v>182</v>
       </c>
       <c r="I244" s="33">
         <v>0.002177925740</v>
       </c>
-      <c r="J244" s="62"/>
-      <c r="K244" t="s" s="39">
+      <c r="J244" s="60"/>
+      <c r="K244" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11404,24 +11401,24 @@
       <c r="C245" s="33">
         <v>-0.195553784860558</v>
       </c>
-      <c r="D245" s="86">
+      <c r="D245" s="85">
         <v>1.562</v>
       </c>
       <c r="E245" s="34">
         <v>2</v>
       </c>
-      <c r="F245" s="62"/>
-      <c r="G245" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H245" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I245" s="53">
+      <c r="F245" s="60"/>
+      <c r="G245" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H245" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I245" s="52">
         <v>0.00282417280555</v>
       </c>
-      <c r="J245" s="62"/>
-      <c r="K245" t="s" s="39">
+      <c r="J245" s="60"/>
+      <c r="K245" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11435,24 +11432,24 @@
       <c r="C246" s="33">
         <v>-0.235043824701195</v>
       </c>
-      <c r="D246" s="86">
+      <c r="D246" s="85">
         <v>1.49087</v>
       </c>
       <c r="E246" s="34">
         <v>1</v>
       </c>
-      <c r="F246" s="62"/>
-      <c r="G246" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H246" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I246" s="33">
+      <c r="F246" s="60"/>
+      <c r="G246" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H246" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I246" s="52">
         <v>0.0030464533646</v>
       </c>
-      <c r="J246" s="62"/>
-      <c r="K246" t="s" s="39">
+      <c r="J246" s="60"/>
+      <c r="K246" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11466,24 +11463,24 @@
       <c r="C247" s="33">
         <v>-0.228191235059761</v>
       </c>
-      <c r="D247" s="86">
+      <c r="D247" s="85">
         <v>1.4759</v>
       </c>
       <c r="E247" s="34">
         <v>2</v>
       </c>
-      <c r="F247" s="62"/>
-      <c r="G247" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H247" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I247" s="33">
+      <c r="F247" s="60"/>
+      <c r="G247" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H247" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I247" s="52">
         <v>0.0028097520211</v>
       </c>
-      <c r="J247" s="62"/>
-      <c r="K247" t="s" s="39">
+      <c r="J247" s="60"/>
+      <c r="K247" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11497,24 +11494,24 @@
       <c r="C248" s="33">
         <v>-0.167203187250996</v>
       </c>
-      <c r="D248" s="86">
+      <c r="D248" s="85">
         <v>1.58938</v>
       </c>
       <c r="E248" s="34">
         <v>3</v>
       </c>
-      <c r="F248" s="62"/>
-      <c r="G248" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H248" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I248" s="53">
+      <c r="F248" s="60"/>
+      <c r="G248" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H248" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I248" s="52">
         <v>0.00192903621375</v>
       </c>
-      <c r="J248" s="62"/>
-      <c r="K248" t="s" s="39">
+      <c r="J248" s="60"/>
+      <c r="K248" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11528,24 +11525,24 @@
       <c r="C249" s="33">
         <v>-0.0825338645418327</v>
       </c>
-      <c r="D249" s="86">
+      <c r="D249" s="85">
         <v>2.43</v>
       </c>
       <c r="E249" s="34">
         <v>3</v>
       </c>
-      <c r="F249" s="62"/>
-      <c r="G249" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H249" t="s" s="39">
+      <c r="F249" s="60"/>
+      <c r="G249" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H249" t="s" s="55">
         <v>233</v>
       </c>
-      <c r="I249" s="53">
+      <c r="I249" s="52">
         <v>0.000867980865</v>
       </c>
-      <c r="J249" s="62"/>
-      <c r="K249" t="s" s="39">
+      <c r="J249" s="60"/>
+      <c r="K249" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11559,24 +11556,24 @@
       <c r="C250" s="33">
         <v>-0.138486055776892</v>
       </c>
-      <c r="D250" s="86">
+      <c r="D250" s="85">
         <v>2.0775</v>
       </c>
       <c r="E250" s="34">
         <v>2</v>
       </c>
-      <c r="F250" s="62"/>
-      <c r="G250" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H250" t="s" s="39">
+      <c r="F250" s="60"/>
+      <c r="G250" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H250" t="s" s="55">
         <v>234</v>
       </c>
-      <c r="I250" s="53">
+      <c r="I250" s="52">
         <v>0.0014026661905</v>
       </c>
-      <c r="J250" s="62"/>
-      <c r="K250" t="s" s="39">
+      <c r="J250" s="60"/>
+      <c r="K250" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11590,24 +11587,24 @@
       <c r="C251" s="33">
         <v>-0.186438247011952</v>
       </c>
-      <c r="D251" s="86">
+      <c r="D251" s="85">
         <v>1.8934</v>
       </c>
       <c r="E251" s="34">
         <v>1</v>
       </c>
-      <c r="F251" s="62"/>
-      <c r="G251" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H251" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I251" s="53">
+      <c r="F251" s="60"/>
+      <c r="G251" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H251" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I251" s="52">
         <v>0.00177872288705</v>
       </c>
-      <c r="J251" s="62"/>
-      <c r="K251" t="s" s="39">
+      <c r="J251" s="60"/>
+      <c r="K251" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11621,24 +11618,24 @@
       <c r="C252" s="33">
         <v>-0.631139442231076</v>
       </c>
-      <c r="D252" s="86">
+      <c r="D252" s="85">
         <v>1.34066</v>
       </c>
       <c r="E252" s="34">
         <v>2</v>
       </c>
-      <c r="F252" s="62"/>
-      <c r="G252" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H252" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I252" s="53">
+      <c r="F252" s="60"/>
+      <c r="G252" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H252" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I252" s="52">
         <v>0.006177472214</v>
       </c>
-      <c r="J252" s="62"/>
-      <c r="K252" t="s" s="39">
+      <c r="J252" s="60"/>
+      <c r="K252" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11652,24 +11649,24 @@
       <c r="C253" s="33">
         <v>-0.119027888446215</v>
       </c>
-      <c r="D253" s="86">
+      <c r="D253" s="85">
         <v>2.16</v>
       </c>
       <c r="E253" s="34">
         <v>2</v>
       </c>
-      <c r="F253" s="62"/>
-      <c r="G253" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H253" t="s" s="39">
+      <c r="F253" s="60"/>
+      <c r="G253" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H253" t="s" s="55">
         <v>235</v>
       </c>
-      <c r="I253" s="53">
+      <c r="I253" s="52">
         <v>0.001330448360</v>
       </c>
-      <c r="J253" s="62"/>
-      <c r="K253" t="s" s="39">
+      <c r="J253" s="60"/>
+      <c r="K253" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11683,24 +11680,24 @@
       <c r="C254" s="33">
         <v>-0.141689243027888</v>
       </c>
-      <c r="D254" s="86">
+      <c r="D254" s="85">
         <v>1.7415</v>
       </c>
       <c r="E254" s="34">
         <v>1</v>
       </c>
-      <c r="F254" s="62"/>
-      <c r="G254" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H254" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I254" s="53">
+      <c r="F254" s="60"/>
+      <c r="G254" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H254" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I254" s="52">
         <v>0.0022734719801</v>
       </c>
-      <c r="J254" s="62"/>
-      <c r="K254" t="s" s="39">
+      <c r="J254" s="60"/>
+      <c r="K254" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11714,24 +11711,24 @@
       <c r="C255" s="33">
         <v>-0.221179282868526</v>
       </c>
-      <c r="D255" s="86">
+      <c r="D255" s="85">
         <v>1.6092</v>
       </c>
       <c r="E255" s="34">
         <v>2</v>
       </c>
-      <c r="F255" s="62"/>
-      <c r="G255" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H255" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I255" s="33">
+      <c r="F255" s="60"/>
+      <c r="G255" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H255" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I255" s="52">
         <v>0.00268862198805</v>
       </c>
-      <c r="J255" s="62"/>
-      <c r="K255" t="s" s="39">
+      <c r="J255" s="60"/>
+      <c r="K255" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11745,24 +11742,24 @@
       <c r="C256" s="33">
         <v>-0.27198406374502</v>
       </c>
-      <c r="D256" s="86">
+      <c r="D256" s="85">
         <v>1.53482</v>
       </c>
       <c r="E256" s="34">
         <v>1</v>
       </c>
-      <c r="F256" s="62"/>
-      <c r="G256" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H256" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I256" s="33">
+      <c r="F256" s="60"/>
+      <c r="G256" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H256" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I256" s="52">
         <v>0.00292778374975</v>
       </c>
-      <c r="J256" s="62"/>
-      <c r="K256" t="s" s="39">
+      <c r="J256" s="60"/>
+      <c r="K256" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11776,24 +11773,24 @@
       <c r="C257" s="33">
         <v>-0.176733067729084</v>
       </c>
-      <c r="D257" s="86">
+      <c r="D257" s="85">
         <v>1.494</v>
       </c>
       <c r="E257" s="34">
         <v>2</v>
       </c>
-      <c r="F257" s="62"/>
-      <c r="G257" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H257" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I257" s="33">
+      <c r="F257" s="60"/>
+      <c r="G257" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H257" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I257" s="52">
         <v>0.0027763996855</v>
       </c>
-      <c r="J257" s="62"/>
-      <c r="K257" t="s" s="39">
+      <c r="J257" s="60"/>
+      <c r="K257" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11807,24 +11804,24 @@
       <c r="C258" s="33">
         <v>-0.198709163346614</v>
       </c>
-      <c r="D258" s="86">
+      <c r="D258" s="85">
         <v>1.48109</v>
       </c>
       <c r="E258" s="34">
         <v>3</v>
       </c>
-      <c r="F258" s="62"/>
-      <c r="G258" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H258" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I258" s="33">
+      <c r="F258" s="60"/>
+      <c r="G258" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H258" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I258" s="52">
         <v>0.002618067218</v>
       </c>
-      <c r="J258" s="62"/>
-      <c r="K258" t="s" s="39">
+      <c r="J258" s="60"/>
+      <c r="K258" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11838,24 +11835,24 @@
       <c r="C259" s="33">
         <v>-0.130533864541833</v>
       </c>
-      <c r="D259" s="86">
+      <c r="D259" s="85">
         <v>1.60058</v>
       </c>
       <c r="E259" s="34">
         <v>2</v>
       </c>
-      <c r="F259" s="62"/>
-      <c r="G259" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H259" t="s" s="39">
+      <c r="F259" s="60"/>
+      <c r="G259" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H259" t="s" s="55">
         <v>236</v>
       </c>
-      <c r="I259" s="53">
+      <c r="I259" s="52">
         <v>0.001895433280</v>
       </c>
-      <c r="J259" s="62"/>
-      <c r="K259" t="s" s="39">
+      <c r="J259" s="60"/>
+      <c r="K259" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11869,24 +11866,24 @@
       <c r="C260" s="33">
         <v>-0.0891155378486056</v>
       </c>
-      <c r="D260" s="86">
+      <c r="D260" s="85">
         <v>2.1425</v>
       </c>
       <c r="E260" s="34">
         <v>1</v>
       </c>
-      <c r="F260" s="62"/>
-      <c r="G260" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H260" t="s" s="12">
-        <v>226</v>
+      <c r="F260" s="60"/>
+      <c r="G260" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H260" t="s" s="69">
+        <v>225</v>
       </c>
       <c r="I260" s="33">
         <v>0.00119938552755</v>
       </c>
-      <c r="J260" s="62"/>
-      <c r="K260" t="s" s="39">
+      <c r="J260" s="60"/>
+      <c r="K260" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11900,24 +11897,24 @@
       <c r="C261" s="33">
         <v>-0.142294820717131</v>
       </c>
-      <c r="D261" s="86">
+      <c r="D261" s="85">
         <v>2.029</v>
       </c>
       <c r="E261" s="34">
         <v>2</v>
       </c>
-      <c r="F261" s="62"/>
-      <c r="G261" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H261" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I261" s="53">
+      <c r="F261" s="60"/>
+      <c r="G261" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H261" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I261" s="52">
         <v>0.0014058556215</v>
       </c>
-      <c r="J261" s="62"/>
-      <c r="K261" t="s" s="39">
+      <c r="J261" s="60"/>
+      <c r="K261" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11931,24 +11928,24 @@
       <c r="C262" s="33">
         <v>-0.237290836653386</v>
       </c>
-      <c r="D262" s="86">
+      <c r="D262" s="85">
         <v>1.92926</v>
       </c>
       <c r="E262" s="34">
         <v>1</v>
       </c>
-      <c r="F262" s="62"/>
-      <c r="G262" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H262" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I262" s="53">
+      <c r="F262" s="60"/>
+      <c r="G262" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H262" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I262" s="52">
         <v>0.0017078036106</v>
       </c>
-      <c r="J262" s="62"/>
-      <c r="K262" t="s" s="39">
+      <c r="J262" s="60"/>
+      <c r="K262" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11962,24 +11959,24 @@
       <c r="C263" s="33">
         <v>-0.169115537848606</v>
       </c>
-      <c r="D263" s="86">
+      <c r="D263" s="85">
         <v>1.897</v>
       </c>
       <c r="E263" s="34">
         <v>2</v>
       </c>
-      <c r="F263" s="62"/>
-      <c r="G263" t="s" s="43">
+      <c r="F263" s="60"/>
+      <c r="G263" t="s" s="42">
         <v>126</v>
       </c>
       <c r="H263" t="s" s="90">
         <v>237</v>
       </c>
-      <c r="I263" s="53">
+      <c r="I263" s="52">
         <v>0.0008636523515</v>
       </c>
-      <c r="J263" s="62"/>
-      <c r="K263" t="s" s="39">
+      <c r="J263" s="60"/>
+      <c r="K263" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -11993,24 +11990,24 @@
       <c r="C264" s="33">
         <v>-0.16199203187251</v>
       </c>
-      <c r="D264" s="86">
+      <c r="D264" s="85">
         <v>1.8892</v>
       </c>
       <c r="E264" s="34">
         <v>3</v>
       </c>
-      <c r="F264" s="62"/>
-      <c r="G264" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H264" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I264" s="53">
+      <c r="F264" s="60"/>
+      <c r="G264" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H264" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I264" s="52">
         <v>0.00165315043225</v>
       </c>
-      <c r="J264" s="62"/>
-      <c r="K264" t="s" s="39">
+      <c r="J264" s="60"/>
+      <c r="K264" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12024,24 +12021,24 @@
       <c r="C265" s="33">
         <v>-0.664398406374502</v>
       </c>
-      <c r="D265" s="86">
+      <c r="D265" s="85">
         <v>1.27455</v>
       </c>
       <c r="E265" s="34">
         <v>1</v>
       </c>
-      <c r="F265" s="62"/>
-      <c r="G265" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H265" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I265" s="53">
+      <c r="F265" s="60"/>
+      <c r="G265" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H265" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I265" s="52">
         <v>0.00681387760675</v>
       </c>
-      <c r="J265" s="62"/>
-      <c r="K265" t="s" s="39">
+      <c r="J265" s="60"/>
+      <c r="K265" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12054,13 +12051,13 @@
       </c>
       <c r="C266" s="35"/>
       <c r="D266" s="91"/>
-      <c r="E266" s="38"/>
-      <c r="F266" s="62"/>
+      <c r="E266" s="37"/>
+      <c r="F266" s="60"/>
       <c r="G266" s="12"/>
       <c r="H266" s="12"/>
       <c r="I266" s="35"/>
-      <c r="J266" s="62"/>
-      <c r="K266" s="39"/>
+      <c r="J266" s="60"/>
+      <c r="K266" s="38"/>
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" t="s" s="30">
@@ -12072,24 +12069,24 @@
       <c r="C267" s="33">
         <v>-0.14790438247012</v>
       </c>
-      <c r="D267" s="86">
+      <c r="D267" s="85">
         <v>1.7</v>
       </c>
       <c r="E267" s="34">
         <v>2</v>
       </c>
-      <c r="F267" s="62"/>
-      <c r="G267" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H267" t="s" s="54">
+      <c r="F267" s="60"/>
+      <c r="G267" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H267" t="s" s="90">
         <v>237</v>
       </c>
-      <c r="I267" s="53">
+      <c r="I267" s="52">
         <v>0.00191431926785</v>
       </c>
-      <c r="J267" s="62"/>
-      <c r="K267" t="s" s="39">
+      <c r="J267" s="60"/>
+      <c r="K267" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12103,24 +12100,24 @@
       <c r="C268" s="33">
         <v>-0.204159362549801</v>
       </c>
-      <c r="D268" s="86">
+      <c r="D268" s="85">
         <v>1.71528</v>
       </c>
       <c r="E268" s="34">
         <v>1</v>
       </c>
-      <c r="F268" s="62"/>
-      <c r="G268" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H268" t="s" s="43">
-        <v>126</v>
-      </c>
-      <c r="I268" s="53">
+      <c r="F268" s="60"/>
+      <c r="G268" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H268" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I268" s="52">
         <v>0.00191431926785</v>
       </c>
-      <c r="J268" s="62"/>
-      <c r="K268" t="s" s="39">
+      <c r="J268" s="60"/>
+      <c r="K268" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12134,24 +12131,24 @@
       <c r="C269" s="33">
         <v>-0.151219123505976</v>
       </c>
-      <c r="D269" s="86">
+      <c r="D269" s="85">
         <v>1.645</v>
       </c>
       <c r="E269" s="34">
         <v>2</v>
       </c>
-      <c r="F269" s="62"/>
-      <c r="G269" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H269" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I269" s="33">
+      <c r="F269" s="60"/>
+      <c r="G269" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H269" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I269" s="52">
         <v>0.0019745311688</v>
       </c>
-      <c r="J269" s="62"/>
-      <c r="K269" t="s" s="39">
+      <c r="J269" s="60"/>
+      <c r="K269" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12165,24 +12162,24 @@
       <c r="C270" s="33">
         <v>-0.127171314741036</v>
       </c>
-      <c r="D270" s="86">
+      <c r="D270" s="85">
         <v>1.61071</v>
       </c>
       <c r="E270" s="34">
         <v>3</v>
       </c>
-      <c r="F270" s="62"/>
-      <c r="G270" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H270" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I270" s="33">
+      <c r="F270" s="60"/>
+      <c r="G270" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H270" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I270" s="52">
         <v>0.0018862294934</v>
       </c>
-      <c r="J270" s="62"/>
-      <c r="K270" t="s" s="39">
+      <c r="J270" s="60"/>
+      <c r="K270" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12196,24 +12193,24 @@
       <c r="C271" s="33">
         <v>-0.102501992031873</v>
       </c>
-      <c r="D271" s="86">
+      <c r="D271" s="85">
         <v>1.56963</v>
       </c>
       <c r="E271" s="34">
         <v>2</v>
       </c>
-      <c r="F271" s="62"/>
-      <c r="G271" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H271" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I271" s="33">
+      <c r="F271" s="60"/>
+      <c r="G271" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H271" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I271" s="52">
         <v>0.001945097277</v>
       </c>
-      <c r="J271" s="62"/>
-      <c r="K271" t="s" s="39">
+      <c r="J271" s="60"/>
+      <c r="K271" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12227,24 +12224,24 @@
       <c r="C272" s="33">
         <v>-0.097593625498008</v>
       </c>
-      <c r="D272" s="86">
+      <c r="D272" s="85">
         <v>1.62831</v>
       </c>
       <c r="E272" s="34">
         <v>1</v>
       </c>
-      <c r="F272" s="62"/>
-      <c r="G272" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H272" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I272" s="33">
+      <c r="F272" s="60"/>
+      <c r="G272" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H272" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I272" s="52">
         <v>0.00179097941475</v>
       </c>
-      <c r="J272" s="62"/>
-      <c r="K272" t="s" s="39">
+      <c r="J272" s="60"/>
+      <c r="K272" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12258,24 +12255,24 @@
       <c r="C273" s="33">
         <v>-0.156956175298805</v>
       </c>
-      <c r="D273" s="86">
+      <c r="D273" s="85">
         <v>2.3608</v>
       </c>
       <c r="E273" s="34">
         <v>1</v>
       </c>
-      <c r="F273" s="62"/>
-      <c r="G273" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H273" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I273" s="33">
+      <c r="F273" s="60"/>
+      <c r="G273" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H273" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I273" s="52">
         <v>0.000833808390</v>
       </c>
-      <c r="J273" s="62"/>
-      <c r="K273" t="s" s="39">
+      <c r="J273" s="60"/>
+      <c r="K273" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12289,24 +12286,24 @@
       <c r="C274" s="33">
         <v>-0.124780876494024</v>
       </c>
-      <c r="D274" s="86">
+      <c r="D274" s="85">
         <v>2.19639</v>
       </c>
       <c r="E274" s="34">
         <v>2</v>
       </c>
-      <c r="F274" s="62"/>
-      <c r="G274" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H274" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I274" s="33">
+      <c r="F274" s="60"/>
+      <c r="G274" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H274" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I274" s="52">
         <v>0.0010527856098</v>
       </c>
-      <c r="J274" s="62"/>
-      <c r="K274" t="s" s="39">
+      <c r="J274" s="60"/>
+      <c r="K274" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12320,24 +12317,24 @@
       <c r="C275" s="33">
         <v>-0.194741035856574</v>
       </c>
-      <c r="D275" s="86">
+      <c r="D275" s="85">
         <v>2.13011</v>
       </c>
       <c r="E275" s="34">
         <v>1</v>
       </c>
-      <c r="F275" s="62"/>
-      <c r="G275" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H275" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I275" s="33">
+      <c r="F275" s="60"/>
+      <c r="G275" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H275" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I275" s="52">
         <v>0.0010964808145</v>
       </c>
-      <c r="J275" s="62"/>
-      <c r="K275" t="s" s="39">
+      <c r="J275" s="60"/>
+      <c r="K275" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12351,24 +12348,24 @@
       <c r="C276" s="33">
         <v>-0.154645418326693</v>
       </c>
-      <c r="D276" s="86">
+      <c r="D276" s="85">
         <v>2.058</v>
       </c>
       <c r="E276" s="34">
         <v>2</v>
       </c>
-      <c r="F276" s="62"/>
-      <c r="G276" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H276" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I276" s="33">
+      <c r="F276" s="60"/>
+      <c r="G276" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H276" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I276" s="52">
         <v>0.001220185174</v>
       </c>
-      <c r="J276" s="62"/>
-      <c r="K276" t="s" s="39">
+      <c r="J276" s="60"/>
+      <c r="K276" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12382,24 +12379,24 @@
       <c r="C277" s="33">
         <v>-0.11007171314741</v>
       </c>
-      <c r="D277" s="86">
+      <c r="D277" s="85">
         <v>2.0146</v>
       </c>
       <c r="E277" s="34">
         <v>3</v>
       </c>
-      <c r="F277" s="62"/>
-      <c r="G277" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H277" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I277" s="33">
+      <c r="F277" s="60"/>
+      <c r="G277" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H277" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I277" s="52">
         <v>0.0012561346177</v>
       </c>
-      <c r="J277" s="62"/>
-      <c r="K277" t="s" s="39">
+      <c r="J277" s="60"/>
+      <c r="K277" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12419,18 +12416,18 @@
       <c r="E278" s="34">
         <v>2</v>
       </c>
-      <c r="F278" s="62"/>
-      <c r="G278" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H278" t="s" s="85">
-        <v>226</v>
-      </c>
-      <c r="I278" t="s" s="40">
+      <c r="F278" s="60"/>
+      <c r="G278" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="H278" t="s" s="93">
+        <v>225</v>
+      </c>
+      <c r="I278" t="s" s="39">
         <v>239</v>
       </c>
-      <c r="J278" s="62"/>
-      <c r="K278" t="s" s="39">
+      <c r="J278" s="60"/>
+      <c r="K278" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12445,24 +12442,24 @@
         <f>-0.092398406374502+707*2.194*10^(-5)</f>
         <v>-0.076886826374502</v>
       </c>
-      <c r="D279" s="86">
+      <c r="D279" s="85">
         <v>1.988</v>
       </c>
       <c r="E279" s="34">
         <v>1</v>
       </c>
-      <c r="F279" s="62"/>
-      <c r="G279" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="H279" t="s" s="85">
-        <v>126</v>
-      </c>
-      <c r="I279" s="33">
+      <c r="F279" s="60"/>
+      <c r="G279" t="s" s="86">
+        <v>126</v>
+      </c>
+      <c r="H279" t="s" s="42">
+        <v>126</v>
+      </c>
+      <c r="I279" s="52">
         <v>0.0012750889505</v>
       </c>
-      <c r="J279" s="62"/>
-      <c r="K279" t="s" s="39">
+      <c r="J279" s="60"/>
+      <c r="K279" t="s" s="38">
         <v>223</v>
       </c>
     </row>
@@ -12482,20 +12479,20 @@
       <c r="E280" s="34">
         <v>1</v>
       </c>
-      <c r="F280" s="62"/>
-      <c r="G280" t="s" s="65">
-        <v>229</v>
-      </c>
-      <c r="H280" t="s" s="71">
+      <c r="F280" s="60"/>
+      <c r="G280" t="s" s="63">
         <v>240</v>
       </c>
-      <c r="I280" s="63">
+      <c r="H280" t="s" s="69">
+        <v>241</v>
+      </c>
+      <c r="I280" s="61">
         <f>707*2.194*10^(-5)</f>
         <v>0.01551158</v>
       </c>
-      <c r="J280" s="62"/>
-      <c r="K280" t="s" s="93">
-        <v>241</v>
+      <c r="J280" s="60"/>
+      <c r="K280" t="s" s="94">
+        <v>242</v>
       </c>
     </row>
     <row r="281" ht="20.05" customHeight="1">
@@ -12509,26 +12506,26 @@
         <f>-0.187250996015936+428*2.194*10^(-5)</f>
         <v>-0.177860676015936</v>
       </c>
-      <c r="D281" s="86">
+      <c r="D281" s="85">
         <v>2.171</v>
       </c>
       <c r="E281" s="34">
         <v>1</v>
       </c>
-      <c r="F281" s="62"/>
-      <c r="G281" t="s" s="64">
-        <v>229</v>
-      </c>
-      <c r="H281" t="s" s="65">
-        <v>229</v>
-      </c>
-      <c r="I281" s="94">
+      <c r="F281" s="60"/>
+      <c r="G281" t="s" s="62">
+        <v>240</v>
+      </c>
+      <c r="H281" t="s" s="63">
+        <v>240</v>
+      </c>
+      <c r="I281" s="95">
         <f>428*2.194*10^(-5)</f>
         <v>0.009390320000000001</v>
       </c>
-      <c r="J281" s="62"/>
-      <c r="K281" t="s" s="93">
-        <v>241</v>
+      <c r="J281" s="60"/>
+      <c r="K281" t="s" s="94">
+        <v>242</v>
       </c>
     </row>
     <row r="282" ht="20.05" customHeight="1">
@@ -12542,26 +12539,26 @@
         <f>-0.0191235059760956+92*2.194*10^(-5)</f>
         <v>-0.0171050259760956</v>
       </c>
-      <c r="D282" s="86">
+      <c r="D282" s="85">
         <v>3.905</v>
       </c>
       <c r="E282" s="34">
         <v>1</v>
       </c>
-      <c r="F282" s="62"/>
-      <c r="G282" t="s" s="64">
-        <v>229</v>
-      </c>
-      <c r="H282" t="s" s="65">
-        <v>229</v>
-      </c>
-      <c r="I282" s="95">
+      <c r="F282" s="60"/>
+      <c r="G282" t="s" s="62">
+        <v>240</v>
+      </c>
+      <c r="H282" t="s" s="63">
+        <v>240</v>
+      </c>
+      <c r="I282" s="96">
         <f>92*2.194*10^(-5)</f>
         <v>0.00201848</v>
       </c>
-      <c r="J282" s="62"/>
-      <c r="K282" t="s" s="93">
-        <v>241</v>
+      <c r="J282" s="60"/>
+      <c r="K282" t="s" s="94">
+        <v>242</v>
       </c>
     </row>
     <row r="283" ht="20.05" customHeight="1">
@@ -12581,20 +12578,20 @@
       <c r="E283" s="34">
         <v>2</v>
       </c>
-      <c r="F283" s="62"/>
-      <c r="G283" t="s" s="64">
-        <v>229</v>
-      </c>
-      <c r="H283" t="s" s="65">
-        <v>229</v>
-      </c>
-      <c r="I283" s="94">
+      <c r="F283" s="60"/>
+      <c r="G283" t="s" s="62">
+        <v>240</v>
+      </c>
+      <c r="H283" t="s" s="63">
+        <v>240</v>
+      </c>
+      <c r="I283" s="95">
         <f>1298*2.194*10^(-5)</f>
         <v>0.02847812</v>
       </c>
-      <c r="J283" s="62"/>
-      <c r="K283" t="s" s="93">
-        <v>241</v>
+      <c r="J283" s="60"/>
+      <c r="K283" t="s" s="94">
+        <v>242</v>
       </c>
     </row>
     <row r="284" ht="20.05" customHeight="1">
@@ -12608,26 +12605,26 @@
         <f>-0.176573705179283+732*2.194*10^(-5)</f>
         <v>-0.160513625179283</v>
       </c>
-      <c r="D284" s="86">
+      <c r="D284" s="85">
         <v>1.822</v>
       </c>
       <c r="E284" s="34">
         <v>1</v>
       </c>
-      <c r="F284" s="62"/>
-      <c r="G284" t="s" s="96">
-        <v>240</v>
-      </c>
-      <c r="H284" t="s" s="97">
-        <v>240</v>
-      </c>
-      <c r="I284" s="63">
+      <c r="F284" s="60"/>
+      <c r="G284" t="s" s="97">
+        <v>241</v>
+      </c>
+      <c r="H284" t="s" s="98">
+        <v>241</v>
+      </c>
+      <c r="I284" s="61">
         <f>732*2.194*10^(-5)</f>
         <v>0.01606008</v>
       </c>
-      <c r="J284" s="62"/>
-      <c r="K284" t="s" s="93">
-        <v>241</v>
+      <c r="J284" s="60"/>
+      <c r="K284" t="s" s="94">
+        <v>242</v>
       </c>
     </row>
     <row r="285" ht="20.05" customHeight="1">
@@ -12647,20 +12644,20 @@
       <c r="E285" s="34">
         <v>2</v>
       </c>
-      <c r="F285" s="62"/>
-      <c r="G285" t="s" s="64">
-        <v>229</v>
-      </c>
-      <c r="H285" t="s" s="65">
-        <v>229</v>
-      </c>
-      <c r="I285" s="95">
+      <c r="F285" s="60"/>
+      <c r="G285" t="s" s="62">
+        <v>240</v>
+      </c>
+      <c r="H285" t="s" s="63">
+        <v>240</v>
+      </c>
+      <c r="I285" s="96">
         <f>581*2.194*10^(-5)</f>
         <v>0.01274714</v>
       </c>
-      <c r="J285" s="62"/>
-      <c r="K285" t="s" s="93">
-        <v>241</v>
+      <c r="J285" s="60"/>
+      <c r="K285" t="s" s="94">
+        <v>242</v>
       </c>
     </row>
     <row r="286" ht="20.05" customHeight="1">
@@ -12674,26 +12671,26 @@
         <f>-0.0049402390438247+65*2.194*10^(-5)</f>
         <v>-0.0035141390438247</v>
       </c>
-      <c r="D286" s="86">
+      <c r="D286" s="85">
         <v>4.277</v>
       </c>
       <c r="E286" s="34">
         <v>1</v>
       </c>
-      <c r="F286" s="62"/>
-      <c r="G286" t="s" s="64">
-        <v>229</v>
+      <c r="F286" s="60"/>
+      <c r="G286" t="s" s="63">
+        <v>240</v>
       </c>
       <c r="H286" t="s" s="65">
-        <v>229</v>
-      </c>
-      <c r="I286" s="95">
+        <v>240</v>
+      </c>
+      <c r="I286" s="96">
         <f>65*2.194*10^(-5)</f>
         <v>0.0014261</v>
       </c>
-      <c r="J286" s="62"/>
-      <c r="K286" t="s" s="93">
-        <v>241</v>
+      <c r="J286" s="60"/>
+      <c r="K286" t="s" s="94">
+        <v>242</v>
       </c>
     </row>
     <row r="287" ht="20.05" customHeight="1">
@@ -12706,25 +12703,25 @@
       <c r="C287" s="33">
         <v>-0.219760835532167</v>
       </c>
-      <c r="D287" s="86">
+      <c r="D287" s="85">
         <v>3.29568212408164</v>
       </c>
       <c r="E287" s="34">
         <v>1</v>
       </c>
-      <c r="F287" s="62"/>
-      <c r="G287" t="s" s="64">
-        <v>242</v>
-      </c>
-      <c r="H287" t="s" s="65">
-        <v>242</v>
-      </c>
-      <c r="I287" s="94">
+      <c r="F287" s="60"/>
+      <c r="G287" t="s" s="62">
+        <v>243</v>
+      </c>
+      <c r="H287" t="s" s="63">
+        <v>243</v>
+      </c>
+      <c r="I287" s="95">
         <v>0.0014172464465</v>
       </c>
-      <c r="J287" s="62"/>
-      <c r="K287" t="s" s="98">
-        <v>243</v>
+      <c r="J287" s="60"/>
+      <c r="K287" t="s" s="99">
+        <v>244</v>
       </c>
     </row>
     <row r="288" ht="20.05" customHeight="1">
@@ -12737,25 +12734,25 @@
       <c r="C288" s="33">
         <v>-0.180806573715428</v>
       </c>
-      <c r="D288" s="86">
+      <c r="D288" s="85">
         <v>4.16117662685079</v>
       </c>
       <c r="E288" s="34">
         <v>1</v>
       </c>
-      <c r="F288" s="62"/>
-      <c r="G288" t="s" s="64">
-        <v>242</v>
-      </c>
-      <c r="H288" t="s" s="64">
-        <v>242</v>
-      </c>
-      <c r="I288" s="63">
+      <c r="F288" s="60"/>
+      <c r="G288" t="s" s="62">
+        <v>243</v>
+      </c>
+      <c r="H288" t="s" s="62">
+        <v>243</v>
+      </c>
+      <c r="I288" s="61">
         <v>0.0008331249405</v>
       </c>
-      <c r="J288" s="62"/>
-      <c r="K288" t="s" s="98">
-        <v>243</v>
+      <c r="J288" s="60"/>
+      <c r="K288" t="s" s="99">
+        <v>244</v>
       </c>
     </row>
     <row r="289" ht="20.05" customHeight="1">
@@ -12768,25 +12765,25 @@
       <c r="C289" s="33">
         <v>-0.158389498519003</v>
       </c>
-      <c r="D289" s="86">
+      <c r="D289" s="85">
         <v>4.43896634717189</v>
       </c>
       <c r="E289" s="34">
         <v>1</v>
       </c>
-      <c r="F289" s="62"/>
-      <c r="G289" t="s" s="64">
-        <v>242</v>
-      </c>
-      <c r="H289" t="s" s="64">
-        <v>242</v>
-      </c>
-      <c r="I289" s="63">
+      <c r="F289" s="60"/>
+      <c r="G289" t="s" s="62">
+        <v>243</v>
+      </c>
+      <c r="H289" t="s" s="62">
+        <v>243</v>
+      </c>
+      <c r="I289" s="61">
         <v>0.0006075866055</v>
       </c>
-      <c r="J289" s="62"/>
-      <c r="K289" t="s" s="98">
-        <v>243</v>
+      <c r="J289" s="60"/>
+      <c r="K289" t="s" s="99">
+        <v>244</v>
       </c>
     </row>
     <row r="290" ht="20.05" customHeight="1">
@@ -12799,26 +12796,26 @@
       <c r="C290" s="33">
         <v>-0.612452869018132</v>
       </c>
-      <c r="D290" s="99">
+      <c r="D290" s="100">
         <v>1.52</v>
       </c>
       <c r="E290" s="34">
         <v>2</v>
       </c>
-      <c r="F290" s="62"/>
-      <c r="G290" t="s" s="100">
-        <v>244</v>
-      </c>
-      <c r="H290" t="s" s="101">
+      <c r="F290" s="60"/>
+      <c r="G290" t="s" s="101">
+        <v>245</v>
+      </c>
+      <c r="H290" t="s" s="102">
         <v>229</v>
       </c>
-      <c r="I290" s="94">
+      <c r="I290" s="95">
         <f>0.02/27.2114</f>
         <v>0.000734986072013935</v>
       </c>
-      <c r="J290" s="62"/>
-      <c r="K290" t="s" s="39">
-        <v>245</v>
+      <c r="J290" s="60"/>
+      <c r="K290" t="s" s="38">
+        <v>246</v>
       </c>
     </row>
     <row r="291" ht="20.05" customHeight="1">
@@ -12831,25 +12828,25 @@
       <c r="C291" s="33">
         <v>-0.136413414965786</v>
       </c>
-      <c r="D291" s="86">
+      <c r="D291" s="85">
         <v>2.22</v>
       </c>
       <c r="E291" s="34">
         <v>2</v>
       </c>
-      <c r="F291" s="62"/>
-      <c r="G291" t="s" s="100">
-        <v>244</v>
-      </c>
-      <c r="H291" t="s" s="101">
+      <c r="F291" s="60"/>
+      <c r="G291" t="s" s="102">
+        <v>245</v>
+      </c>
+      <c r="H291" t="s" s="103">
+        <v>247</v>
+      </c>
+      <c r="I291" s="95">
+        <v>0.000969131391</v>
+      </c>
+      <c r="J291" s="60"/>
+      <c r="K291" t="s" s="38">
         <v>246</v>
-      </c>
-      <c r="I291" s="94">
-        <v>0.000969131391</v>
-      </c>
-      <c r="J291" s="62"/>
-      <c r="K291" t="s" s="39">
-        <v>245</v>
       </c>
     </row>
     <row r="292" ht="20.05" customHeight="1">
@@ -12863,26 +12860,26 @@
         <f>-2.728/27.2114</f>
         <v>-0.100252100222701</v>
       </c>
-      <c r="D292" s="99">
+      <c r="D292" s="100">
         <v>1.588</v>
       </c>
       <c r="E292" s="34">
         <v>2</v>
       </c>
-      <c r="F292" s="62"/>
-      <c r="G292" t="s" s="100">
-        <v>244</v>
-      </c>
-      <c r="H292" t="s" s="101">
+      <c r="F292" s="60"/>
+      <c r="G292" t="s" s="102">
+        <v>245</v>
+      </c>
+      <c r="H292" t="s" s="103">
         <v>229</v>
       </c>
-      <c r="I292" s="94">
+      <c r="I292" s="95">
         <f>(3.1-2.728)/27.2114</f>
         <v>0.0136707409394592</v>
       </c>
-      <c r="J292" s="62"/>
-      <c r="K292" t="s" s="39">
-        <v>245</v>
+      <c r="J292" s="60"/>
+      <c r="K292" t="s" s="38">
+        <v>246</v>
       </c>
     </row>
     <row r="293" ht="20.05" customHeight="1">
@@ -12895,25 +12892,25 @@
       <c r="C293" s="33">
         <v>-0.199217974819377</v>
       </c>
-      <c r="D293" s="99">
+      <c r="D293" s="100">
         <v>1.7462</v>
       </c>
       <c r="E293" s="34">
         <v>2</v>
       </c>
-      <c r="F293" s="62"/>
-      <c r="G293" t="s" s="101">
-        <v>244</v>
-      </c>
-      <c r="H293" t="s" s="102">
-        <v>247</v>
-      </c>
-      <c r="I293" s="63">
+      <c r="F293" s="60"/>
+      <c r="G293" t="s" s="102">
+        <v>245</v>
+      </c>
+      <c r="H293" t="s" s="104">
+        <v>248</v>
+      </c>
+      <c r="I293" s="61">
         <v>0.001517257890</v>
       </c>
-      <c r="J293" s="62"/>
-      <c r="K293" t="s" s="39">
-        <v>245</v>
+      <c r="J293" s="60"/>
+      <c r="K293" t="s" s="38">
+        <v>246</v>
       </c>
     </row>
     <row r="294" ht="20.05" customHeight="1">
@@ -12926,25 +12923,25 @@
       <c r="C294" s="33">
         <v>-0.148834679582822</v>
       </c>
-      <c r="D294" s="86">
+      <c r="D294" s="85">
         <v>2.163</v>
       </c>
       <c r="E294" s="34">
         <v>2</v>
       </c>
-      <c r="F294" s="62"/>
-      <c r="G294" t="s" s="101">
-        <v>244</v>
-      </c>
-      <c r="H294" t="s" s="102">
-        <v>247</v>
-      </c>
-      <c r="I294" s="63">
+      <c r="F294" s="60"/>
+      <c r="G294" t="s" s="102">
+        <v>245</v>
+      </c>
+      <c r="H294" t="s" s="104">
+        <v>248</v>
+      </c>
+      <c r="I294" s="61">
         <v>0.000920378660</v>
       </c>
-      <c r="J294" s="62"/>
-      <c r="K294" t="s" s="39">
-        <v>245</v>
+      <c r="J294" s="60"/>
+      <c r="K294" t="s" s="38">
+        <v>246</v>
       </c>
     </row>
     <row r="295" ht="20.05" customHeight="1">
@@ -12957,25 +12954,25 @@
       <c r="C295" s="33">
         <v>-0.132150495748106</v>
       </c>
-      <c r="D295" s="86">
+      <c r="D295" s="85">
         <v>2.308</v>
       </c>
       <c r="E295" s="34">
         <v>2</v>
       </c>
-      <c r="F295" s="62"/>
-      <c r="G295" t="s" s="100">
-        <v>244</v>
-      </c>
-      <c r="H295" t="s" s="103">
-        <v>247</v>
-      </c>
-      <c r="I295" s="94">
+      <c r="F295" s="60"/>
+      <c r="G295" t="s" s="101">
+        <v>245</v>
+      </c>
+      <c r="H295" t="s" s="105">
+        <v>248</v>
+      </c>
+      <c r="I295" s="95">
         <v>0.000672058675</v>
       </c>
-      <c r="J295" s="62"/>
-      <c r="K295" t="s" s="39">
-        <v>245</v>
+      <c r="J295" s="60"/>
+      <c r="K295" t="s" s="38">
+        <v>246</v>
       </c>
     </row>
     <row r="296" ht="20.05" customHeight="1">
@@ -12988,25 +12985,25 @@
       <c r="C296" s="33">
         <v>-0.602898050081951</v>
       </c>
-      <c r="D296" s="99">
+      <c r="D296" s="100">
         <v>1.663</v>
       </c>
       <c r="E296" s="34">
         <v>1</v>
       </c>
-      <c r="F296" s="62"/>
+      <c r="F296" s="60"/>
       <c r="G296" t="s" s="12">
-        <v>248</v>
-      </c>
-      <c r="H296" t="s" s="39">
-        <v>248</v>
-      </c>
-      <c r="I296" s="94">
+        <v>249</v>
+      </c>
+      <c r="H296" t="s" s="38">
+        <v>249</v>
+      </c>
+      <c r="I296" s="95">
         <v>0.003656454825</v>
       </c>
-      <c r="J296" s="62"/>
-      <c r="K296" t="s" s="39">
-        <v>249</v>
+      <c r="J296" s="60"/>
+      <c r="K296" t="s" s="38">
+        <v>250</v>
       </c>
     </row>
     <row r="297" ht="20.05" customHeight="1">
@@ -13020,26 +13017,26 @@
         <f>-0.604735515261986+1430*2.194*10^(-5)</f>
         <v>-0.573361315261986</v>
       </c>
-      <c r="D297" s="86">
+      <c r="D297" s="85">
         <v>1.79</v>
       </c>
       <c r="E297" s="34">
         <v>2</v>
       </c>
-      <c r="F297" s="62"/>
+      <c r="F297" s="60"/>
       <c r="G297" t="s" s="12">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H297" t="s" s="12">
-        <v>248</v>
-      </c>
-      <c r="I297" s="63">
+        <v>249</v>
+      </c>
+      <c r="I297" s="61">
         <f>1430*2.194*10^(-5)</f>
         <v>0.0313742</v>
       </c>
-      <c r="J297" s="62"/>
-      <c r="K297" t="s" s="39">
-        <v>249</v>
+      <c r="J297" s="60"/>
+      <c r="K297" t="s" s="38">
+        <v>250</v>
       </c>
     </row>
     <row r="298" ht="20.05" customHeight="1">
@@ -13053,26 +13050,26 @@
         <f>-0.602898050081951+2130*2.194*10^(-5)</f>
         <v>-0.556165850081951</v>
       </c>
-      <c r="D298" s="99">
+      <c r="D298" s="100">
         <v>1.534</v>
       </c>
       <c r="E298" s="34">
         <v>3</v>
       </c>
-      <c r="F298" s="62"/>
+      <c r="F298" s="60"/>
       <c r="G298" t="s" s="12">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H298" t="s" s="12">
-        <v>248</v>
-      </c>
-      <c r="I298" s="63">
+        <v>249</v>
+      </c>
+      <c r="I298" s="61">
         <f>2130*2.194*10^(-5)</f>
         <v>0.0467322</v>
       </c>
-      <c r="J298" s="62"/>
-      <c r="K298" t="s" s="39">
-        <v>249</v>
+      <c r="J298" s="60"/>
+      <c r="K298" t="s" s="38">
+        <v>250</v>
       </c>
     </row>
     <row r="299" ht="20.05" customHeight="1">
@@ -13086,26 +13083,26 @@
         <f>-0.618332757594244+2400*2.194*10^(-5)</f>
         <v>-0.565676757594244</v>
       </c>
-      <c r="D299" s="99">
+      <c r="D299" s="100">
         <v>1.464</v>
       </c>
       <c r="E299" s="34">
         <v>2</v>
       </c>
-      <c r="F299" s="62"/>
+      <c r="F299" s="60"/>
       <c r="G299" t="s" s="12">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H299" t="s" s="12">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I299" s="34">
         <f>2400*2.194*10^(-5)</f>
         <v>0.052656</v>
       </c>
-      <c r="J299" s="62"/>
-      <c r="K299" t="s" s="39">
-        <v>249</v>
+      <c r="J299" s="60"/>
+      <c r="K299" t="s" s="38">
+        <v>250</v>
       </c>
     </row>
     <row r="300" ht="20.05" customHeight="1">
@@ -13119,26 +13116,26 @@
         <f>-0.63817738153862+2648*2.194*10^(-5)</f>
         <v>-0.58008026153862</v>
       </c>
-      <c r="D300" s="99">
+      <c r="D300" s="100">
         <v>1.414</v>
       </c>
       <c r="E300" s="34">
         <v>1</v>
       </c>
-      <c r="F300" s="62"/>
+      <c r="F300" s="60"/>
       <c r="G300" t="s" s="12">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H300" t="s" s="12">
-        <v>229</v>
-      </c>
-      <c r="I300" s="63">
+        <v>252</v>
+      </c>
+      <c r="I300" s="61">
         <f>2648*2.194*10^(-5)</f>
         <v>0.05809712</v>
       </c>
-      <c r="J300" s="62"/>
-      <c r="K300" t="s" s="39">
-        <v>249</v>
+      <c r="J300" s="60"/>
+      <c r="K300" t="s" s="38">
+        <v>250</v>
       </c>
     </row>
     <row r="301" ht="20.05" customHeight="1">
@@ -13151,25 +13148,25 @@
       <c r="C301" s="33">
         <v>-0.0757035654174353</v>
       </c>
-      <c r="D301" s="86">
+      <c r="D301" s="85">
         <v>2.53</v>
       </c>
       <c r="E301" s="34">
         <v>3</v>
       </c>
-      <c r="F301" s="62"/>
+      <c r="F301" s="60"/>
       <c r="G301" t="s" s="12">
         <v>181</v>
       </c>
-      <c r="H301" t="s" s="39">
-        <v>251</v>
-      </c>
-      <c r="I301" s="94">
+      <c r="H301" t="s" s="38">
+        <v>253</v>
+      </c>
+      <c r="I301" s="95">
         <v>0.000576375745</v>
       </c>
-      <c r="J301" s="62"/>
-      <c r="K301" t="s" s="39">
-        <v>252</v>
+      <c r="J301" s="60"/>
+      <c r="K301" t="s" s="38">
+        <v>254</v>
       </c>
     </row>
     <row r="302" ht="20.05" customHeight="1">
@@ -13177,26 +13174,26 @@
       <c r="B302" s="31"/>
       <c r="C302" s="35"/>
       <c r="D302" s="91"/>
-      <c r="E302" s="38"/>
-      <c r="F302" s="62"/>
-      <c r="G302" s="38"/>
-      <c r="H302" s="38"/>
-      <c r="I302" s="38"/>
-      <c r="J302" s="62"/>
-      <c r="K302" s="51"/>
+      <c r="E302" s="37"/>
+      <c r="F302" s="60"/>
+      <c r="G302" s="37"/>
+      <c r="H302" s="37"/>
+      <c r="I302" s="37"/>
+      <c r="J302" s="60"/>
+      <c r="K302" s="50"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" s="30"/>
       <c r="B303" s="31"/>
       <c r="C303" s="35"/>
       <c r="D303" s="91"/>
-      <c r="E303" s="38"/>
-      <c r="F303" s="62"/>
+      <c r="E303" s="37"/>
+      <c r="F303" s="60"/>
       <c r="G303" s="12"/>
       <c r="H303" s="12"/>
-      <c r="I303" s="62"/>
-      <c r="J303" s="62"/>
-      <c r="K303" s="39"/>
+      <c r="I303" s="60"/>
+      <c r="J303" s="60"/>
+      <c r="K303" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
